--- a/ExploratoryTests/Session #2.xlsx
+++ b/ExploratoryTests/Session #2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mohamedelsamadouny/Desktop/Winter2025/ECSE429/A/ECSE429-Mohamed-Amgad/ExploratoryTests/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3737C12-E31F-0C46-BCB8-C8874A3778C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC94B2F4-ACE4-8A47-9DF0-B6018A0904A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Notes" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="123">
   <si>
     <t>Method</t>
   </si>
@@ -94,30 +94,30 @@
   </si>
   <si>
     <t>John Smith</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>26xxxxxxx</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>Expected Behavior</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>expected == observed</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>Side Notes</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>NO</t>
   </si>
   <si>
     <t>XML &amp; Screenshots</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>/projects</t>
@@ -169,9 +169,6 @@
   </si>
   <si>
     <t>Headers for al the instances of the projects</t>
-  </si>
-  <si>
-    <t>/projects/:id</t>
   </si>
   <si>
     <t>Get project with a specific id</t>
@@ -374,16 +371,77 @@
   <si>
     <t>We regularly consulted the swagger page while going our exploratory testing, therefore many non implemented methods do not appear here as they were marked as not allowed on the page</t>
   </si>
+  <si>
+    <t>Script</t>
+  </si>
+  <si>
+    <t>curl -X GET "http://localhost:4567/projects"</t>
+  </si>
+  <si>
+    <t>curl -X GET "http://localhost:4567/projects?id=1&amp;active=false"</t>
+  </si>
+  <si>
+    <t>curl -X POST "http://localhost:4567/projects"</t>
+  </si>
+  <si>
+    <t>curl -X HEAD "http://localhost:4567/projects"</t>
+  </si>
+  <si>
+    <t>curl -X GET "http://localhost:4567/projects/7"</t>
+  </si>
+  <si>
+    <t>curl -X POST "http://localhost:4567/projects/7"</t>
+  </si>
+  <si>
+    <t>curl -X PUT "http://localhost:4567/projects/7"</t>
+  </si>
+  <si>
+    <t>curl -X PUT "http://localhost:4567/projects/9"</t>
+  </si>
+  <si>
+    <t>curl -X DELETE "http://localhost:4567/projects/7"</t>
+  </si>
+  <si>
+    <t>curl -X GET "http://localhost:4567/projects/9/categories"</t>
+  </si>
+  <si>
+    <t>curl -X POST "http://localhost:4567/projects/9/categories"</t>
+  </si>
+  <si>
+    <t>curl -X DELETE "http://localhost:4567/projects/9/categories/2"</t>
+  </si>
+  <si>
+    <t>curl -X GET "http://localhost:4567/projects/1/tasks"</t>
+  </si>
+  <si>
+    <t>curl -X POST "http://localhost:4567/projects/1/tasks"</t>
+  </si>
+  <si>
+    <t>curl -X HEAD "http://localhost:4567/projects/1/tasks"</t>
+  </si>
+  <si>
+    <t>curl -X DELETE "http://localhost:4567/projects/1/tasks/2"</t>
+  </si>
+  <si>
+    <t>curl -X OPTIONS "http://localhost:4567/projects"</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="23">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -537,6 +595,12 @@
       <color theme="1"/>
       <name val="Calibri (Body)"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="11">
     <fill>
@@ -600,7 +664,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -630,84 +694,53 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -716,94 +749,99 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -811,7 +849,7 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="43">
+  <dxfs count="40">
     <dxf>
       <font>
         <color theme="0"/>
@@ -901,95 +939,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFAD00"/>
-          <bgColor rgb="FFFFAD00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFC6EFCE"/>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF00B0F0"/>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF00B050"/>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC000"/>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF005B"/>
-          <bgColor rgb="FFFF005B"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF92D050"/>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB764FF"/>
-          <bgColor rgb="FFB764FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color theme="0"/>
       </font>
@@ -1023,31 +972,6 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF00B050"/>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FFFFAD00"/>
@@ -1082,6 +1006,28 @@
         <patternFill patternType="solid">
           <fgColor rgb="FFFFAD00"/>
           <bgColor rgb="FFFFAD00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFC6EFCE"/>
+          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1225,6 +1171,65 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF00B0F0"/>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF00B050"/>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC000"/>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF005B"/>
+          <bgColor rgb="FFFF005B"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF92D050"/>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB764FF"/>
+          <bgColor rgb="FFB764FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1242,13 +1247,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>519044</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>78778</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>3064933</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>1731594</xdr:rowOff>
@@ -1286,13 +1291,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>431801</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>59267</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>3183870</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>1845734</xdr:rowOff>
@@ -1330,13 +1335,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>321733</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>50800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>3285066</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>1828211</xdr:rowOff>
@@ -1374,13 +1379,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>423333</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>33867</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>3151039</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>1811867</xdr:rowOff>
@@ -1418,13 +1423,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>389467</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>16934</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>3161460</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>1811868</xdr:rowOff>
@@ -1462,13 +1467,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>84667</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>33866</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>3471333</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>1779019</xdr:rowOff>
@@ -1506,13 +1511,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>355600</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>16933</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>3143723</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>1828799</xdr:rowOff>
@@ -1550,13 +1555,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>254000</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>16933</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>3195546</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>4098</xdr:rowOff>
@@ -1594,14 +1599,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>26028</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>153967</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>235</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>236</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>1827368</xdr:rowOff>
     </xdr:to>
@@ -1638,13 +1643,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>660400</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>84667</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>2963333</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>1820927</xdr:rowOff>
@@ -1682,13 +1687,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>541867</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>84668</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>3081867</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>1850366</xdr:rowOff>
@@ -1726,13 +1731,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>728133</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>33868</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>2895599</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>1845758</xdr:rowOff>
@@ -1770,13 +1775,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>711200</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>50799</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>2682103</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>4097</xdr:rowOff>
@@ -1814,13 +1819,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>711200</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>50800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>2719572</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>1778000</xdr:rowOff>
@@ -1858,13 +1863,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>626533</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>16934</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>2675467</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>2575</xdr:rowOff>
@@ -1902,13 +1907,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>677333</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>67732</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>2590801</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>1763141</xdr:rowOff>
@@ -1946,13 +1951,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>541866</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>33867</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>2861732</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>1778000</xdr:rowOff>
@@ -1990,13 +1995,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>522941</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>32018</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>3191008</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>1841825</xdr:rowOff>
@@ -2022,7 +2027,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13383025" y="39252606"/>
+          <a:off x="15902501" y="41174436"/>
           <a:ext cx="2668067" cy="1809807"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2034,13 +2039,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>658520</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>15680</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>2822224</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>1799952</xdr:rowOff>
@@ -2078,13 +2083,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>575733</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>33868</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>2911212</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>1778002</xdr:rowOff>
@@ -2122,7 +2127,7 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>609600</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>50800</xdr:rowOff>
@@ -2161,13 +2166,13 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>626533</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>50801</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>3035075</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>1727201</xdr:rowOff>
@@ -2205,16 +2210,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>2184400</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>-1</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>1676400</xdr:rowOff>
+      <xdr:rowOff>1455853</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>623366</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>247804</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>1447800</xdr:rowOff>
+      <xdr:rowOff>774389</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2229,16 +2234,15 @@
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
-      <xdr:blipFill>
+      <xdr:blipFill rotWithShape="1">
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
+        <a:srcRect l="1466" t="4565" r="1577" b="3906"/>
+        <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10160000" y="46786800"/>
-          <a:ext cx="18047766" cy="5410200"/>
+          <a:off x="10407804" y="46060731"/>
+          <a:ext cx="17377317" cy="4894146"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2448,29 +2452,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J207"/>
+  <dimension ref="A1:L207"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="16" zoomScaleNormal="49" workbookViewId="0">
-      <selection activeCell="P46" sqref="P46"/>
+    <sheetView tabSelected="1" zoomScale="41" zoomScaleNormal="49" workbookViewId="0">
+      <selection activeCell="M24" sqref="M24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="147" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="147" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="30.1640625" style="18" customWidth="1"/>
-    <col min="2" max="2" width="12.1640625" style="18" customWidth="1"/>
-    <col min="3" max="3" width="16.5" style="18" customWidth="1"/>
-    <col min="4" max="4" width="26.6640625" style="18" customWidth="1"/>
-    <col min="5" max="5" width="18.6640625" style="18" customWidth="1"/>
-    <col min="6" max="6" width="32" style="18" customWidth="1"/>
-    <col min="7" max="7" width="32.83203125" style="18" customWidth="1"/>
-    <col min="8" max="8" width="46.1640625" style="18" customWidth="1"/>
-    <col min="9" max="9" width="17.1640625" customWidth="1"/>
-    <col min="10" max="10" width="10.5" customWidth="1"/>
-    <col min="11" max="11" width="11.1640625" customWidth="1"/>
-    <col min="12" max="26" width="10.5" customWidth="1"/>
+    <col min="1" max="1" width="30.1640625" style="17" customWidth="1"/>
+    <col min="2" max="2" width="12.1640625" style="17" customWidth="1"/>
+    <col min="3" max="3" width="16.5" style="17" customWidth="1"/>
+    <col min="4" max="4" width="26.6640625" style="17" customWidth="1"/>
+    <col min="5" max="5" width="18.6640625" style="17" customWidth="1"/>
+    <col min="6" max="6" width="32" style="17" customWidth="1"/>
+    <col min="7" max="8" width="32.83203125" style="17" customWidth="1"/>
+    <col min="9" max="9" width="46.1640625" style="17" customWidth="1"/>
+    <col min="10" max="10" width="17.1640625" customWidth="1"/>
+    <col min="11" max="11" width="10.5" customWidth="1"/>
+    <col min="12" max="12" width="11.1640625" customWidth="1"/>
+    <col min="13" max="27" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="147" customHeight="1">
+    <row r="1" spans="1:12" ht="147" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -2492,11 +2496,14 @@
       <c r="G1" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="47" t="s">
+        <v>105</v>
+      </c>
+      <c r="I1" s="11" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="147" customHeight="1">
+    <row r="2" spans="1:12" ht="147" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>25</v>
       </c>
@@ -2516,9 +2523,14 @@
         <v>27</v>
       </c>
       <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-    </row>
-    <row r="3" spans="1:9" ht="147" customHeight="1">
+      <c r="H2" s="50" t="s">
+        <v>106</v>
+      </c>
+      <c r="I2" s="10"/>
+      <c r="K2" s="49"/>
+      <c r="L2" s="48"/>
+    </row>
+    <row r="3" spans="1:12" ht="147" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>30</v>
       </c>
@@ -2538,9 +2550,14 @@
         <v>29</v>
       </c>
       <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-    </row>
-    <row r="4" spans="1:9" ht="147" customHeight="1">
+      <c r="H3" s="50" t="s">
+        <v>107</v>
+      </c>
+      <c r="I3" s="10"/>
+      <c r="K3" s="49"/>
+      <c r="L3" s="48"/>
+    </row>
+    <row r="4" spans="1:12" ht="147" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>25</v>
       </c>
@@ -2550,7 +2567,7 @@
       <c r="C4" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="16" t="s">
         <v>32</v>
       </c>
       <c r="E4" s="9" t="s">
@@ -2560,9 +2577,14 @@
         <v>33</v>
       </c>
       <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-    </row>
-    <row r="5" spans="1:9" ht="147" customHeight="1">
+      <c r="H4" s="50" t="s">
+        <v>108</v>
+      </c>
+      <c r="I4" s="10"/>
+      <c r="K4" s="49"/>
+      <c r="L4" s="48"/>
+    </row>
+    <row r="5" spans="1:12" ht="147" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>25</v>
       </c>
@@ -2582,9 +2604,14 @@
         <v>34</v>
       </c>
       <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-    </row>
-    <row r="6" spans="1:9" ht="147" customHeight="1">
+      <c r="H5" s="50" t="s">
+        <v>108</v>
+      </c>
+      <c r="I5" s="10"/>
+      <c r="K5" s="49"/>
+      <c r="L5" s="48"/>
+    </row>
+    <row r="6" spans="1:12" ht="147" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>25</v>
       </c>
@@ -2604,9 +2631,14 @@
         <v>36</v>
       </c>
       <c r="G6" s="10"/>
-      <c r="H6" s="11"/>
-    </row>
-    <row r="7" spans="1:9" ht="147" customHeight="1">
+      <c r="H6" s="50" t="s">
+        <v>108</v>
+      </c>
+      <c r="I6" s="11"/>
+      <c r="K6" s="49"/>
+      <c r="L6" s="48"/>
+    </row>
+    <row r="7" spans="1:12" ht="147" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>25</v>
       </c>
@@ -2626,9 +2658,14 @@
         <v>38</v>
       </c>
       <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-    </row>
-    <row r="8" spans="1:9" ht="147" customHeight="1">
+      <c r="H7" s="50" t="s">
+        <v>108</v>
+      </c>
+      <c r="I7" s="10"/>
+      <c r="K7" s="49"/>
+      <c r="L7" s="48"/>
+    </row>
+    <row r="8" spans="1:12" ht="147" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>25</v>
       </c>
@@ -2648,9 +2685,14 @@
         <v>27</v>
       </c>
       <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-    </row>
-    <row r="9" spans="1:9" ht="147" customHeight="1">
+      <c r="H8" s="50" t="s">
+        <v>106</v>
+      </c>
+      <c r="I8" s="10"/>
+      <c r="K8" s="49"/>
+      <c r="L8" s="48"/>
+    </row>
+    <row r="9" spans="1:12" ht="147" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>25</v>
       </c>
@@ -2667,15 +2709,20 @@
         <v>6</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="7"/>
-    </row>
-    <row r="10" spans="1:9" ht="147" customHeight="1">
+      <c r="H9" s="50" t="s">
+        <v>109</v>
+      </c>
+      <c r="I9" s="10"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="49"/>
+      <c r="L9" s="48"/>
+    </row>
+    <row r="10" spans="1:12" ht="147" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B10" s="9" t="s">
         <v>4</v>
@@ -2684,94 +2731,114 @@
         <v>5</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E10" s="9" t="s">
         <v>6</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="7"/>
-    </row>
-    <row r="11" spans="1:9" ht="147" customHeight="1">
+      <c r="H10" s="50" t="s">
+        <v>110</v>
+      </c>
+      <c r="I10" s="10"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="49"/>
+      <c r="L10" s="48"/>
+    </row>
+    <row r="11" spans="1:12" ht="147" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="B11" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="B11" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C11" s="9" t="s">
         <v>5</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E11" s="9" t="s">
         <v>6</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="7"/>
-    </row>
-    <row r="12" spans="1:9" ht="147" customHeight="1">
+      <c r="H11" s="50" t="s">
+        <v>111</v>
+      </c>
+      <c r="I11" s="10"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="49"/>
+      <c r="L11" s="48"/>
+    </row>
+    <row r="12" spans="1:12" ht="147" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="B12" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="B12" s="9" t="s">
         <v>7</v>
       </c>
       <c r="C12" s="9" t="s">
         <v>5</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E12" s="9" t="s">
         <v>6</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="7"/>
-    </row>
-    <row r="13" spans="1:9" ht="147" customHeight="1">
+      <c r="H12" s="50" t="s">
+        <v>112</v>
+      </c>
+      <c r="I12" s="10"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="49"/>
+      <c r="L12" s="48"/>
+    </row>
+    <row r="13" spans="1:12" ht="147" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="B13" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="B13" s="9" t="s">
         <v>7</v>
       </c>
       <c r="C13" s="9" t="s">
         <v>5</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E13" s="9" t="s">
         <v>6</v>
       </c>
       <c r="F13" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="G13" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="H13" s="50" t="s">
+        <v>113</v>
+      </c>
+      <c r="I13" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="G13" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="H13" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="I13" s="6"/>
-    </row>
-    <row r="14" spans="1:9" ht="147" customHeight="1">
+      <c r="J13" s="6"/>
+      <c r="K13" s="49"/>
+      <c r="L13" s="48"/>
+    </row>
+    <row r="14" spans="1:12" ht="147" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B14" s="9" t="s">
         <v>10</v>
@@ -2780,21 +2847,26 @@
         <v>5</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E14" s="9" t="s">
         <v>6</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G14" s="10"/>
-      <c r="H14" s="15"/>
-      <c r="I14" s="6"/>
-    </row>
-    <row r="15" spans="1:9" ht="147" customHeight="1">
+      <c r="H14" s="50" t="s">
+        <v>114</v>
+      </c>
+      <c r="I14" s="14"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="49"/>
+      <c r="L14" s="48"/>
+    </row>
+    <row r="15" spans="1:12" ht="147" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B15" s="9" t="s">
         <v>10</v>
@@ -2803,21 +2875,26 @@
         <v>5</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E15" s="9" t="s">
         <v>6</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G15" s="10"/>
-      <c r="H15" s="15"/>
-      <c r="I15" s="6"/>
-    </row>
-    <row r="16" spans="1:9" ht="147" customHeight="1">
+      <c r="H15" s="50" t="s">
+        <v>114</v>
+      </c>
+      <c r="I15" s="14"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="49"/>
+      <c r="L15" s="48"/>
+    </row>
+    <row r="16" spans="1:12" ht="147" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B16" s="9" t="s">
         <v>4</v>
@@ -2826,21 +2903,26 @@
         <v>5</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E16" s="9" t="s">
         <v>6</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="6"/>
-    </row>
-    <row r="17" spans="1:10" ht="147" customHeight="1">
+      <c r="H16" s="50" t="s">
+        <v>115</v>
+      </c>
+      <c r="I16" s="10"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="49"/>
+      <c r="L16" s="48"/>
+    </row>
+    <row r="17" spans="1:12" ht="147" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B17" s="9" t="s">
         <v>9</v>
@@ -2849,21 +2931,26 @@
         <v>5</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E17" s="9" t="s">
         <v>6</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="7"/>
-    </row>
-    <row r="18" spans="1:10" ht="147" customHeight="1">
+      <c r="H17" s="50" t="s">
+        <v>116</v>
+      </c>
+      <c r="I17" s="10"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="49"/>
+      <c r="L17" s="48"/>
+    </row>
+    <row r="18" spans="1:12" ht="147" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B18" s="9" t="s">
         <v>10</v>
@@ -2872,21 +2959,26 @@
         <v>5</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E18" s="9" t="s">
         <v>6</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="7"/>
-    </row>
-    <row r="19" spans="1:10" ht="147" customHeight="1">
+      <c r="H18" s="50" t="s">
+        <v>117</v>
+      </c>
+      <c r="I18" s="10"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="49"/>
+      <c r="L18" s="48"/>
+    </row>
+    <row r="19" spans="1:12" ht="147" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B19" s="9" t="s">
         <v>4</v>
@@ -2895,21 +2987,26 @@
         <v>5</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E19" s="9" t="s">
         <v>6</v>
       </c>
       <c r="F19" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="7"/>
-    </row>
-    <row r="20" spans="1:10" ht="147" customHeight="1">
+      <c r="H19" s="50" t="s">
+        <v>118</v>
+      </c>
+      <c r="I19" s="10"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="49"/>
+      <c r="L19" s="48"/>
+    </row>
+    <row r="20" spans="1:12" ht="147" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B20" s="9" t="s">
         <v>9</v>
@@ -2918,21 +3015,26 @@
         <v>5</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E20" s="9" t="s">
         <v>6</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G20" s="10"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="7"/>
-    </row>
-    <row r="21" spans="1:10" ht="147" customHeight="1">
+      <c r="H20" s="50" t="s">
+        <v>119</v>
+      </c>
+      <c r="I20" s="10"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="49"/>
+      <c r="L20" s="48"/>
+    </row>
+    <row r="21" spans="1:12" ht="147" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B21" s="9" t="s">
         <v>40</v>
@@ -2941,21 +3043,26 @@
         <v>5</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E21" s="9" t="s">
         <v>6</v>
       </c>
       <c r="F21" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G21" s="10"/>
-      <c r="H21" s="10"/>
-      <c r="I21" s="7"/>
-    </row>
-    <row r="22" spans="1:10" ht="147" customHeight="1">
+      <c r="H21" s="50" t="s">
+        <v>120</v>
+      </c>
+      <c r="I21" s="10"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="49"/>
+      <c r="L21" s="48"/>
+    </row>
+    <row r="22" spans="1:12" ht="147" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B22" s="9" t="s">
         <v>10</v>
@@ -2964,1792 +3071,1973 @@
         <v>5</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E22" s="9" t="s">
         <v>6</v>
       </c>
       <c r="F22" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="G22" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="H22" s="50" t="s">
+        <v>121</v>
+      </c>
+      <c r="I22" s="10"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="49"/>
+      <c r="L22" s="48"/>
+    </row>
+    <row r="23" spans="1:12" ht="147" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D23" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="G22" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="H22" s="10"/>
-      <c r="I22" s="7"/>
-    </row>
-    <row r="23" spans="1:10" ht="147" customHeight="1">
-      <c r="A23" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="B23" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="C23" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="D23" s="20" t="s">
+      <c r="E23" s="51" t="s">
+        <v>6</v>
+      </c>
+      <c r="F23" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="E23" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="F23" s="20" t="s">
-        <v>65</v>
-      </c>
       <c r="G23" s="10"/>
-      <c r="H23" s="10"/>
-      <c r="I23" s="6"/>
-    </row>
-    <row r="24" spans="1:10" ht="147" customHeight="1">
-      <c r="B24" s="19"/>
-      <c r="C24" s="19"/>
-      <c r="D24" s="19"/>
-      <c r="E24" s="19"/>
-      <c r="F24" s="19"/>
-      <c r="G24" s="19"/>
-      <c r="I24" s="6"/>
-    </row>
-    <row r="25" spans="1:10" ht="147" customHeight="1">
-      <c r="A25" s="22" t="s">
+      <c r="H23" s="50" t="s">
+        <v>122</v>
+      </c>
+      <c r="I23" s="10"/>
+      <c r="J23" s="6"/>
+      <c r="K23" s="49"/>
+      <c r="L23" s="48"/>
+    </row>
+    <row r="24" spans="1:12" ht="147" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="18"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="18"/>
+      <c r="H24" s="18"/>
+      <c r="J24" s="6"/>
+    </row>
+    <row r="25" spans="1:12" ht="147" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="B25" s="46" t="s">
+        <v>80</v>
+      </c>
+      <c r="C25" s="46"/>
+      <c r="D25" s="46"/>
+      <c r="E25" s="46"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="H25" s="24"/>
+      <c r="I25" s="23"/>
+      <c r="J25" s="23"/>
+    </row>
+    <row r="26" spans="1:12" ht="147" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="B25" s="24" t="s">
+      <c r="B26" s="45">
+        <v>260987027</v>
+      </c>
+      <c r="C26" s="45"/>
+      <c r="D26" s="45"/>
+      <c r="E26" s="45"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="23"/>
+      <c r="H26" s="23"/>
+      <c r="I26" s="23"/>
+      <c r="J26" s="23"/>
+    </row>
+    <row r="27" spans="1:12" ht="147" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="B27" s="43" t="s">
         <v>81</v>
       </c>
-      <c r="C25" s="24"/>
-      <c r="D25" s="24"/>
-      <c r="E25" s="24"/>
-      <c r="F25" s="19"/>
-      <c r="G25" s="38" t="s">
+      <c r="C27" s="44"/>
+      <c r="D27" s="44"/>
+      <c r="E27" s="44"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="23"/>
+      <c r="H27" s="23"/>
+      <c r="I27" s="23"/>
+      <c r="J27" s="23"/>
+    </row>
+    <row r="28" spans="1:12" ht="147" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="18"/>
+      <c r="B28" s="18"/>
+      <c r="C28" s="18"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="18"/>
+      <c r="G28" s="18"/>
+      <c r="H28" s="18"/>
+      <c r="J28" s="7"/>
+    </row>
+    <row r="29" spans="1:12" ht="147" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B29" s="18"/>
+      <c r="C29" s="18"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="18"/>
+      <c r="G29" s="18"/>
+      <c r="H29" s="18"/>
+      <c r="J29" s="7"/>
+    </row>
+    <row r="30" spans="1:12" ht="147" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C30" s="42" t="s">
+        <v>82</v>
+      </c>
+      <c r="D30" s="42"/>
+      <c r="E30" s="42"/>
+      <c r="F30" s="42"/>
+      <c r="G30" s="42"/>
+      <c r="H30" s="42"/>
+      <c r="I30" s="42"/>
+      <c r="J30" s="42"/>
+      <c r="K30" s="42"/>
+    </row>
+    <row r="31" spans="1:12" ht="147" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C31" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="D31" s="28"/>
+      <c r="E31" s="40" t="s">
+        <v>96</v>
+      </c>
+      <c r="F31" s="40"/>
+      <c r="G31" s="40"/>
+      <c r="H31" s="40"/>
+      <c r="I31" s="40"/>
+      <c r="J31" s="40"/>
+      <c r="K31" s="40"/>
+    </row>
+    <row r="32" spans="1:12" ht="147" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B32" s="18"/>
+      <c r="C32" s="29" t="s">
         <v>103</v>
       </c>
-      <c r="H25" s="37"/>
-      <c r="I25" s="37"/>
-    </row>
-    <row r="26" spans="1:10" ht="147" customHeight="1">
-      <c r="A26" s="23" t="s">
-        <v>79</v>
-      </c>
-      <c r="B26" s="25">
-        <v>260987027</v>
-      </c>
-      <c r="C26" s="25"/>
-      <c r="D26" s="25"/>
-      <c r="E26" s="25"/>
-      <c r="F26" s="19"/>
-      <c r="G26" s="37"/>
-      <c r="H26" s="37"/>
-      <c r="I26" s="37"/>
-    </row>
-    <row r="27" spans="1:10" ht="147" customHeight="1">
-      <c r="A27" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="B27" s="27" t="s">
-        <v>82</v>
-      </c>
-      <c r="C27" s="26"/>
-      <c r="D27" s="26"/>
-      <c r="E27" s="26"/>
-      <c r="F27" s="19"/>
-      <c r="G27" s="37"/>
-      <c r="H27" s="37"/>
-      <c r="I27" s="37"/>
-    </row>
-    <row r="28" spans="1:10" ht="147" customHeight="1">
-      <c r="A28" s="19"/>
-      <c r="B28" s="19"/>
-      <c r="C28" s="19"/>
-      <c r="D28" s="19"/>
-      <c r="E28" s="19"/>
-      <c r="F28" s="19"/>
-      <c r="G28" s="19"/>
-      <c r="I28" s="7"/>
-    </row>
-    <row r="29" spans="1:10" ht="147" customHeight="1">
-      <c r="B29" s="19"/>
-      <c r="C29" s="19"/>
-      <c r="D29" s="19"/>
-      <c r="E29" s="19"/>
-      <c r="F29" s="19"/>
-      <c r="G29" s="19"/>
-      <c r="I29" s="7"/>
-    </row>
-    <row r="30" spans="1:10" ht="147" customHeight="1">
-      <c r="C30" s="32" t="s">
-        <v>83</v>
-      </c>
-      <c r="D30" s="32"/>
-      <c r="E30" s="32"/>
-      <c r="F30" s="32"/>
-      <c r="G30" s="32"/>
-      <c r="H30" s="32"/>
-      <c r="I30" s="32"/>
-      <c r="J30" s="32"/>
-    </row>
-    <row r="31" spans="1:10" ht="147" customHeight="1">
-      <c r="C31" s="40" t="s">
+      <c r="D32" s="29"/>
+      <c r="E32" s="29"/>
+      <c r="F32" s="29"/>
+      <c r="G32" s="29"/>
+      <c r="H32" s="29"/>
+      <c r="I32" s="29"/>
+      <c r="J32" s="29"/>
+      <c r="K32" s="29"/>
+    </row>
+    <row r="33" spans="1:11" ht="147" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B33" s="18"/>
+      <c r="C33" s="18"/>
+      <c r="D33" s="31" t="s">
         <v>84</v>
       </c>
-      <c r="D31" s="40"/>
-      <c r="E31" s="39" t="s">
+      <c r="E33" s="31"/>
+      <c r="F33" s="41" t="s">
+        <v>85</v>
+      </c>
+      <c r="G33" s="41"/>
+      <c r="H33" s="41"/>
+      <c r="I33" s="41"/>
+      <c r="J33" s="41"/>
+      <c r="K33" s="41"/>
+    </row>
+    <row r="34" spans="1:11" ht="147" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B34" s="18"/>
+      <c r="C34" s="18"/>
+      <c r="D34" s="32" t="s">
+        <v>86</v>
+      </c>
+      <c r="E34" s="32"/>
+      <c r="F34" s="25" t="s">
         <v>97</v>
       </c>
-      <c r="F31" s="39"/>
-      <c r="G31" s="39"/>
-      <c r="H31" s="39"/>
-      <c r="I31" s="39"/>
-      <c r="J31" s="39"/>
-    </row>
-    <row r="32" spans="1:10" ht="147" customHeight="1">
-      <c r="B32" s="19"/>
-      <c r="C32" s="41" t="s">
-        <v>104</v>
-      </c>
-      <c r="D32" s="41"/>
-      <c r="E32" s="41"/>
-      <c r="F32" s="41"/>
-      <c r="G32" s="41"/>
-      <c r="H32" s="41"/>
-      <c r="I32" s="41"/>
-      <c r="J32" s="41"/>
-    </row>
-    <row r="33" spans="1:10" ht="147" customHeight="1">
-      <c r="B33" s="19"/>
-      <c r="C33" s="19"/>
-      <c r="D33" s="42" t="s">
-        <v>85</v>
-      </c>
-      <c r="E33" s="42"/>
-      <c r="F33" s="43" t="s">
-        <v>86</v>
-      </c>
-      <c r="G33" s="43"/>
-      <c r="H33" s="43"/>
-      <c r="I33" s="43"/>
-      <c r="J33" s="43"/>
-    </row>
-    <row r="34" spans="1:10" ht="147" customHeight="1">
-      <c r="B34" s="19"/>
-      <c r="C34" s="19"/>
-      <c r="D34" s="44" t="s">
+      <c r="G34" s="25"/>
+      <c r="H34" s="25"/>
+      <c r="I34" s="25"/>
+      <c r="J34" s="25"/>
+      <c r="K34" s="25"/>
+    </row>
+    <row r="35" spans="1:11" ht="147" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B35" s="18"/>
+      <c r="C35" s="18"/>
+      <c r="D35" s="32"/>
+      <c r="E35" s="32"/>
+      <c r="F35" s="25" t="s">
         <v>87</v>
       </c>
-      <c r="E34" s="44"/>
-      <c r="F34" s="36" t="s">
+      <c r="G35" s="25"/>
+      <c r="H35" s="25"/>
+      <c r="I35" s="25"/>
+      <c r="J35" s="25"/>
+      <c r="K35" s="25"/>
+    </row>
+    <row r="36" spans="1:11" ht="147" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B36" s="18"/>
+      <c r="C36" s="18"/>
+      <c r="D36" s="33" t="s">
+        <v>88</v>
+      </c>
+      <c r="E36" s="33"/>
+      <c r="F36" s="35" t="s">
         <v>98</v>
       </c>
-      <c r="G34" s="36"/>
-      <c r="H34" s="36"/>
-      <c r="I34" s="36"/>
-      <c r="J34" s="36"/>
-    </row>
-    <row r="35" spans="1:10" ht="147" customHeight="1">
-      <c r="B35" s="19"/>
-      <c r="C35" s="19"/>
-      <c r="D35" s="44"/>
-      <c r="E35" s="44"/>
-      <c r="F35" s="36" t="s">
-        <v>88</v>
-      </c>
-      <c r="G35" s="36"/>
-      <c r="H35" s="36"/>
-      <c r="I35" s="36"/>
-      <c r="J35" s="36"/>
-    </row>
-    <row r="36" spans="1:10" ht="147" customHeight="1">
-      <c r="B36" s="19"/>
-      <c r="C36" s="19"/>
-      <c r="D36" s="45" t="s">
+      <c r="G36" s="35"/>
+      <c r="H36" s="35"/>
+      <c r="I36" s="35"/>
+      <c r="J36" s="35"/>
+      <c r="K36" s="35"/>
+    </row>
+    <row r="37" spans="1:11" ht="147" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B37" s="18"/>
+      <c r="C37" s="18"/>
+      <c r="D37" s="33"/>
+      <c r="E37" s="33"/>
+      <c r="F37" s="36" t="s">
         <v>89</v>
       </c>
-      <c r="E36" s="45"/>
-      <c r="F36" s="46" t="s">
+      <c r="G37" s="36"/>
+      <c r="H37" s="36"/>
+      <c r="I37" s="36"/>
+      <c r="J37" s="36"/>
+      <c r="K37" s="36"/>
+    </row>
+    <row r="38" spans="1:11" ht="147" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B38" s="18"/>
+      <c r="C38" s="18"/>
+      <c r="D38" s="34" t="s">
+        <v>90</v>
+      </c>
+      <c r="E38" s="34"/>
+      <c r="F38" s="37" t="s">
         <v>99</v>
       </c>
-      <c r="G36" s="46"/>
-      <c r="H36" s="46"/>
-      <c r="I36" s="46"/>
-      <c r="J36" s="46"/>
-    </row>
-    <row r="37" spans="1:10" ht="147" customHeight="1">
-      <c r="B37" s="19"/>
-      <c r="C37" s="19"/>
-      <c r="D37" s="45"/>
-      <c r="E37" s="45"/>
-      <c r="F37" s="47" t="s">
-        <v>90</v>
-      </c>
-      <c r="G37" s="47"/>
-      <c r="H37" s="47"/>
-      <c r="I37" s="47"/>
-      <c r="J37" s="47"/>
-    </row>
-    <row r="38" spans="1:10" ht="147" customHeight="1">
-      <c r="B38" s="19"/>
-      <c r="C38" s="19"/>
-      <c r="D38" s="48" t="s">
+      <c r="G38" s="37"/>
+      <c r="H38" s="37"/>
+      <c r="I38" s="37"/>
+      <c r="J38" s="37"/>
+      <c r="K38" s="37"/>
+    </row>
+    <row r="39" spans="1:11" ht="147" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B39" s="18"/>
+      <c r="C39" s="18"/>
+      <c r="D39" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="E38" s="48"/>
-      <c r="F38" s="33" t="s">
+      <c r="E39" s="39"/>
+      <c r="F39" s="38" t="s">
         <v>100</v>
       </c>
-      <c r="G38" s="33"/>
-      <c r="H38" s="33"/>
-      <c r="I38" s="33"/>
-      <c r="J38" s="33"/>
-    </row>
-    <row r="39" spans="1:10" ht="147" customHeight="1">
-      <c r="B39" s="19"/>
-      <c r="C39" s="19"/>
-      <c r="D39" s="49" t="s">
-        <v>92</v>
-      </c>
-      <c r="E39" s="49"/>
-      <c r="F39" s="31" t="s">
-        <v>101</v>
-      </c>
-      <c r="G39" s="31"/>
-      <c r="H39" s="31"/>
-      <c r="I39" s="31"/>
-      <c r="J39" s="31"/>
-    </row>
-    <row r="40" spans="1:10" ht="147" customHeight="1">
-      <c r="B40" s="19"/>
-      <c r="C40" s="19"/>
+      <c r="G39" s="38"/>
+      <c r="H39" s="38"/>
+      <c r="I39" s="38"/>
+      <c r="J39" s="38"/>
+      <c r="K39" s="38"/>
+    </row>
+    <row r="40" spans="1:11" ht="147" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B40" s="18"/>
+      <c r="C40" s="18"/>
       <c r="D40" s="12"/>
     </row>
-    <row r="41" spans="1:10" ht="147" customHeight="1">
-      <c r="B41" s="19"/>
-      <c r="C41" s="19"/>
+    <row r="41" spans="1:11" ht="147" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B41" s="18"/>
+      <c r="C41" s="18"/>
       <c r="D41" s="13"/>
       <c r="E41"/>
       <c r="F41"/>
       <c r="G41"/>
-      <c r="H41" s="29"/>
-      <c r="I41" s="30"/>
-      <c r="J41" s="16"/>
-    </row>
-    <row r="42" spans="1:10" ht="147" customHeight="1">
-      <c r="A42" s="35" t="s">
+      <c r="H41"/>
+      <c r="I41" s="21"/>
+      <c r="J41" s="22"/>
+      <c r="K41" s="15"/>
+    </row>
+    <row r="42" spans="1:11" ht="147" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="26" t="s">
+        <v>92</v>
+      </c>
+      <c r="B42" s="26"/>
+      <c r="C42" s="26"/>
+      <c r="D42" s="26"/>
+      <c r="E42" s="30" t="s">
         <v>93</v>
       </c>
-      <c r="B42" s="35"/>
-      <c r="C42" s="35"/>
-      <c r="D42" s="35"/>
-      <c r="E42" s="28" t="s">
+      <c r="F42" s="30"/>
+      <c r="G42" s="30"/>
+      <c r="H42" s="30"/>
+      <c r="I42" s="30"/>
+      <c r="J42" s="30"/>
+      <c r="K42" s="15"/>
+    </row>
+    <row r="43" spans="1:11" ht="147" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="26"/>
+      <c r="B43" s="26"/>
+      <c r="C43" s="26"/>
+      <c r="D43" s="26"/>
+      <c r="E43" s="25" t="s">
+        <v>101</v>
+      </c>
+      <c r="F43" s="25"/>
+      <c r="G43" s="25"/>
+      <c r="H43" s="25"/>
+      <c r="I43" s="25"/>
+      <c r="J43" s="25"/>
+      <c r="K43" s="15"/>
+    </row>
+    <row r="44" spans="1:11" ht="147" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="26"/>
+      <c r="B44" s="26"/>
+      <c r="C44" s="26"/>
+      <c r="D44" s="26"/>
+      <c r="E44" s="30" t="s">
         <v>94</v>
       </c>
-      <c r="F42" s="28"/>
-      <c r="G42" s="28"/>
-      <c r="H42" s="28"/>
-      <c r="I42" s="28"/>
-      <c r="J42" s="16"/>
-    </row>
-    <row r="43" spans="1:10" ht="147" customHeight="1">
-      <c r="A43" s="35"/>
-      <c r="B43" s="35"/>
-      <c r="C43" s="35"/>
-      <c r="D43" s="35"/>
-      <c r="E43" s="36" t="s">
-        <v>102</v>
-      </c>
-      <c r="F43" s="36"/>
-      <c r="G43" s="36"/>
-      <c r="H43" s="36"/>
-      <c r="I43" s="36"/>
-      <c r="J43" s="16"/>
-    </row>
-    <row r="44" spans="1:10" ht="147" customHeight="1">
-      <c r="A44" s="35"/>
-      <c r="B44" s="35"/>
-      <c r="C44" s="35"/>
-      <c r="D44" s="35"/>
-      <c r="E44" s="28" t="s">
+      <c r="F44" s="30"/>
+      <c r="G44" s="30"/>
+      <c r="H44" s="30"/>
+      <c r="I44" s="30"/>
+      <c r="J44" s="30"/>
+      <c r="K44" s="15"/>
+    </row>
+    <row r="45" spans="1:11" ht="147" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="26"/>
+      <c r="B45" s="26"/>
+      <c r="C45" s="26"/>
+      <c r="D45" s="26"/>
+      <c r="E45" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="F45" s="25"/>
+      <c r="G45" s="25"/>
+      <c r="H45" s="25"/>
+      <c r="I45" s="25"/>
+      <c r="J45" s="25"/>
+      <c r="K45" s="15"/>
+    </row>
+    <row r="47" spans="1:11" ht="147" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="27" t="s">
         <v>95</v>
       </c>
-      <c r="F44" s="28"/>
-      <c r="G44" s="28"/>
-      <c r="H44" s="28"/>
-      <c r="I44" s="28"/>
-      <c r="J44" s="16"/>
-    </row>
-    <row r="45" spans="1:10" ht="147" customHeight="1">
-      <c r="A45" s="35"/>
-      <c r="B45" s="35"/>
-      <c r="C45" s="35"/>
-      <c r="D45" s="35"/>
-      <c r="E45" s="36" t="s">
-        <v>105</v>
-      </c>
-      <c r="F45" s="36"/>
-      <c r="G45" s="36"/>
-      <c r="H45" s="36"/>
-      <c r="I45" s="36"/>
-      <c r="J45" s="16"/>
-    </row>
-    <row r="47" spans="1:10" ht="147" customHeight="1">
-      <c r="A47" s="34" t="s">
-        <v>96</v>
-      </c>
-      <c r="B47" s="34"/>
-      <c r="C47" s="34"/>
-      <c r="D47" s="34"/>
-      <c r="E47" s="34"/>
-      <c r="F47" s="34"/>
-      <c r="G47" s="34"/>
-      <c r="H47" s="34"/>
-      <c r="I47" s="34"/>
-      <c r="J47" s="34"/>
-    </row>
-    <row r="48" spans="1:10" ht="147" customHeight="1">
-      <c r="B48" s="19"/>
-      <c r="C48" s="19"/>
-      <c r="D48" s="19"/>
-      <c r="E48" s="19"/>
-      <c r="F48" s="19"/>
-      <c r="G48" s="19"/>
-      <c r="I48" s="6"/>
-    </row>
-    <row r="49" spans="2:9" ht="147" customHeight="1">
-      <c r="B49" s="19"/>
-      <c r="C49" s="19"/>
-      <c r="D49" s="19"/>
-      <c r="E49" s="19"/>
-      <c r="F49" s="19"/>
-      <c r="G49" s="19"/>
-      <c r="I49" s="7"/>
-    </row>
-    <row r="50" spans="2:9" ht="147" customHeight="1">
-      <c r="B50" s="19"/>
-      <c r="C50" s="19"/>
-      <c r="D50" s="19"/>
-      <c r="E50" s="19"/>
-      <c r="F50" s="19"/>
-      <c r="G50" s="19"/>
-      <c r="I50" s="7"/>
-    </row>
-    <row r="51" spans="2:9" ht="147" customHeight="1">
-      <c r="B51" s="19"/>
-      <c r="C51" s="19"/>
-      <c r="D51" s="19"/>
-      <c r="E51" s="19"/>
-      <c r="F51" s="19"/>
-      <c r="G51" s="19"/>
-      <c r="I51" s="7"/>
-    </row>
-    <row r="52" spans="2:9" ht="147" customHeight="1">
-      <c r="B52" s="19"/>
-      <c r="C52" s="19"/>
-      <c r="D52" s="19"/>
-      <c r="E52" s="19"/>
-      <c r="F52" s="19"/>
-      <c r="G52" s="19"/>
-    </row>
-    <row r="53" spans="2:9" ht="147" customHeight="1">
-      <c r="B53" s="19"/>
-      <c r="C53" s="19"/>
-      <c r="D53" s="19"/>
-      <c r="E53" s="19"/>
-      <c r="F53" s="19"/>
-      <c r="G53" s="19"/>
-    </row>
-    <row r="54" spans="2:9" ht="147" customHeight="1">
-      <c r="B54" s="19"/>
-      <c r="C54" s="19"/>
-      <c r="D54" s="19"/>
-      <c r="E54" s="19"/>
-      <c r="F54" s="19"/>
-      <c r="G54" s="19"/>
-    </row>
-    <row r="55" spans="2:9" ht="147" customHeight="1">
-      <c r="B55" s="19"/>
-      <c r="C55" s="19"/>
-      <c r="D55" s="19"/>
-      <c r="E55" s="19"/>
-      <c r="F55" s="19"/>
-      <c r="G55" s="19"/>
-    </row>
-    <row r="56" spans="2:9" ht="147" customHeight="1">
-      <c r="B56" s="19"/>
-      <c r="C56" s="19"/>
-      <c r="D56" s="19"/>
-      <c r="E56" s="19"/>
-      <c r="F56" s="19"/>
-      <c r="G56" s="19"/>
-    </row>
-    <row r="57" spans="2:9" ht="147" customHeight="1">
-      <c r="B57" s="19"/>
-      <c r="C57" s="19"/>
-      <c r="D57" s="19"/>
-      <c r="E57" s="19"/>
-      <c r="F57" s="19"/>
-      <c r="G57" s="19"/>
-    </row>
-    <row r="58" spans="2:9" ht="147" customHeight="1">
-      <c r="B58" s="19"/>
-      <c r="C58" s="19"/>
-      <c r="D58" s="19"/>
-      <c r="E58" s="19"/>
-      <c r="F58" s="19"/>
-      <c r="G58" s="19"/>
-    </row>
-    <row r="59" spans="2:9" ht="147" customHeight="1">
-      <c r="B59" s="19"/>
-      <c r="C59" s="19"/>
-      <c r="D59" s="19"/>
-      <c r="E59" s="19"/>
-      <c r="F59" s="19"/>
-      <c r="G59" s="19"/>
-    </row>
-    <row r="60" spans="2:9" ht="147" customHeight="1">
-      <c r="B60" s="19"/>
-      <c r="C60" s="19"/>
-      <c r="D60" s="19"/>
-      <c r="E60" s="19"/>
-      <c r="F60" s="19"/>
-      <c r="G60" s="19"/>
-    </row>
-    <row r="61" spans="2:9" ht="147" customHeight="1">
-      <c r="B61" s="19"/>
-      <c r="C61" s="19"/>
-      <c r="D61" s="19"/>
-      <c r="E61" s="19"/>
-      <c r="F61" s="19"/>
-      <c r="G61" s="19"/>
-    </row>
-    <row r="62" spans="2:9" ht="147" customHeight="1">
-      <c r="B62" s="19"/>
-      <c r="C62" s="19"/>
-      <c r="D62" s="19"/>
-      <c r="E62" s="19"/>
-      <c r="F62" s="19"/>
-      <c r="G62" s="19"/>
-    </row>
-    <row r="63" spans="2:9" ht="147" customHeight="1">
-      <c r="B63" s="19"/>
-      <c r="C63" s="19"/>
-      <c r="D63" s="19"/>
-      <c r="E63" s="19"/>
-      <c r="F63" s="19"/>
-      <c r="G63" s="19"/>
-    </row>
-    <row r="64" spans="2:9" ht="147" customHeight="1">
-      <c r="B64" s="19"/>
-      <c r="C64" s="19"/>
-      <c r="D64" s="19"/>
-      <c r="E64" s="19"/>
-      <c r="F64" s="19"/>
-      <c r="G64" s="19"/>
-    </row>
-    <row r="65" spans="2:7" ht="147" customHeight="1">
-      <c r="B65" s="19"/>
-      <c r="C65" s="19"/>
-      <c r="D65" s="19"/>
-      <c r="E65" s="19"/>
-      <c r="F65" s="19"/>
-      <c r="G65" s="19"/>
-    </row>
-    <row r="66" spans="2:7" ht="147" customHeight="1">
-      <c r="B66" s="19"/>
-      <c r="C66" s="19"/>
-      <c r="D66" s="19"/>
-      <c r="E66" s="19"/>
-      <c r="F66" s="19"/>
-      <c r="G66" s="19"/>
-    </row>
-    <row r="67" spans="2:7" ht="147" customHeight="1">
-      <c r="B67" s="19"/>
-      <c r="C67" s="19"/>
-      <c r="D67" s="19"/>
-      <c r="E67" s="19"/>
-      <c r="F67" s="19"/>
-      <c r="G67" s="19"/>
-    </row>
-    <row r="68" spans="2:7" ht="147" customHeight="1">
-      <c r="B68" s="19"/>
-      <c r="C68" s="19"/>
-      <c r="D68" s="19"/>
-      <c r="E68" s="19"/>
-      <c r="F68" s="19"/>
-      <c r="G68" s="19"/>
-    </row>
-    <row r="69" spans="2:7" ht="147" customHeight="1">
-      <c r="B69" s="19"/>
-      <c r="C69" s="19"/>
-      <c r="D69" s="19"/>
-      <c r="E69" s="19"/>
-      <c r="F69" s="19"/>
-      <c r="G69" s="19"/>
-    </row>
-    <row r="70" spans="2:7" ht="147" customHeight="1">
-      <c r="B70" s="19"/>
-      <c r="C70" s="19"/>
-      <c r="D70" s="19"/>
-      <c r="E70" s="19"/>
-      <c r="F70" s="19"/>
-      <c r="G70" s="19"/>
-    </row>
-    <row r="71" spans="2:7" ht="147" customHeight="1">
-      <c r="B71" s="19"/>
-      <c r="C71" s="19"/>
-      <c r="D71" s="19"/>
-      <c r="E71" s="19"/>
-      <c r="F71" s="19"/>
-      <c r="G71" s="19"/>
-    </row>
-    <row r="72" spans="2:7" ht="147" customHeight="1">
-      <c r="B72" s="19"/>
-      <c r="C72" s="19"/>
-      <c r="D72" s="19"/>
-      <c r="E72" s="19"/>
-      <c r="F72" s="19"/>
-      <c r="G72" s="19"/>
-    </row>
-    <row r="73" spans="2:7" ht="147" customHeight="1">
-      <c r="B73" s="19"/>
-      <c r="C73" s="19"/>
-      <c r="D73" s="19"/>
-      <c r="E73" s="19"/>
-      <c r="F73" s="19"/>
-      <c r="G73" s="19"/>
-    </row>
-    <row r="74" spans="2:7" ht="147" customHeight="1">
-      <c r="B74" s="19"/>
-      <c r="C74" s="19"/>
-      <c r="D74" s="19"/>
-      <c r="E74" s="19"/>
-      <c r="F74" s="19"/>
-      <c r="G74" s="19"/>
-    </row>
-    <row r="75" spans="2:7" ht="147" customHeight="1">
-      <c r="B75" s="19"/>
-      <c r="C75" s="19"/>
-      <c r="D75" s="19"/>
-      <c r="E75" s="19"/>
-      <c r="F75" s="19"/>
-      <c r="G75" s="19"/>
-    </row>
-    <row r="76" spans="2:7" ht="147" customHeight="1">
-      <c r="B76" s="19"/>
-      <c r="C76" s="19"/>
-      <c r="D76" s="19"/>
-      <c r="E76" s="19"/>
-      <c r="F76" s="19"/>
-      <c r="G76" s="19"/>
-    </row>
-    <row r="77" spans="2:7" ht="147" customHeight="1">
-      <c r="B77" s="19"/>
-      <c r="C77" s="19"/>
-      <c r="D77" s="19"/>
-      <c r="E77" s="19"/>
-      <c r="F77" s="19"/>
-      <c r="G77" s="19"/>
-    </row>
-    <row r="78" spans="2:7" ht="147" customHeight="1">
-      <c r="B78" s="19"/>
-      <c r="C78" s="19"/>
-      <c r="D78" s="19"/>
-      <c r="E78" s="19"/>
-      <c r="F78" s="19"/>
-      <c r="G78" s="19"/>
-    </row>
-    <row r="79" spans="2:7" ht="147" customHeight="1">
-      <c r="B79" s="19"/>
-      <c r="C79" s="19"/>
-      <c r="D79" s="19"/>
-      <c r="E79" s="19"/>
-      <c r="F79" s="19"/>
-      <c r="G79" s="19"/>
-    </row>
-    <row r="80" spans="2:7" ht="147" customHeight="1">
-      <c r="B80" s="19"/>
-      <c r="C80" s="19"/>
-      <c r="D80" s="19"/>
-      <c r="E80" s="19"/>
-      <c r="F80" s="19"/>
-      <c r="G80" s="19"/>
-    </row>
-    <row r="81" spans="2:7" ht="147" customHeight="1">
-      <c r="B81" s="19"/>
-      <c r="C81" s="19"/>
-      <c r="D81" s="19"/>
-      <c r="E81" s="19"/>
-      <c r="F81" s="19"/>
-      <c r="G81" s="19"/>
-    </row>
-    <row r="82" spans="2:7" ht="147" customHeight="1">
-      <c r="B82" s="19"/>
-      <c r="C82" s="19"/>
-      <c r="D82" s="19"/>
-      <c r="E82" s="19"/>
-      <c r="F82" s="19"/>
-      <c r="G82" s="19"/>
-    </row>
-    <row r="83" spans="2:7" ht="147" customHeight="1">
-      <c r="B83" s="19"/>
-      <c r="C83" s="19"/>
-      <c r="D83" s="19"/>
-      <c r="E83" s="19"/>
-      <c r="F83" s="19"/>
-      <c r="G83" s="19"/>
-    </row>
-    <row r="84" spans="2:7" ht="147" customHeight="1">
-      <c r="B84" s="19"/>
-      <c r="C84" s="19"/>
-      <c r="D84" s="19"/>
-      <c r="E84" s="19"/>
-      <c r="F84" s="19"/>
-      <c r="G84" s="19"/>
-    </row>
-    <row r="85" spans="2:7" ht="147" customHeight="1">
-      <c r="B85" s="19"/>
-      <c r="C85" s="19"/>
-      <c r="D85" s="19"/>
-      <c r="E85" s="19"/>
-      <c r="F85" s="19"/>
-      <c r="G85" s="19"/>
-    </row>
-    <row r="86" spans="2:7" ht="147" customHeight="1">
-      <c r="B86" s="19"/>
-      <c r="C86" s="19"/>
-      <c r="D86" s="19"/>
-      <c r="E86" s="19"/>
-      <c r="F86" s="19"/>
-      <c r="G86" s="19"/>
-    </row>
-    <row r="87" spans="2:7" ht="147" customHeight="1">
-      <c r="B87" s="19"/>
-      <c r="C87" s="19"/>
-      <c r="D87" s="19"/>
-      <c r="E87" s="19"/>
-      <c r="F87" s="19"/>
-      <c r="G87" s="19"/>
-    </row>
-    <row r="88" spans="2:7" ht="147" customHeight="1">
-      <c r="B88" s="19"/>
-      <c r="C88" s="19"/>
-      <c r="D88" s="19"/>
-      <c r="E88" s="19"/>
-      <c r="F88" s="19"/>
-      <c r="G88" s="19"/>
-    </row>
-    <row r="89" spans="2:7" ht="147" customHeight="1">
-      <c r="B89" s="19"/>
-      <c r="C89" s="19"/>
-      <c r="D89" s="19"/>
-      <c r="E89" s="19"/>
-      <c r="F89" s="19"/>
-      <c r="G89" s="19"/>
-    </row>
-    <row r="90" spans="2:7" ht="147" customHeight="1">
-      <c r="B90" s="19"/>
-      <c r="C90" s="19"/>
-      <c r="D90" s="19"/>
-      <c r="E90" s="19"/>
-      <c r="F90" s="19"/>
-      <c r="G90" s="19"/>
-    </row>
-    <row r="91" spans="2:7" ht="147" customHeight="1">
-      <c r="B91" s="19"/>
-      <c r="C91" s="19"/>
-      <c r="D91" s="19"/>
-      <c r="E91" s="19"/>
-      <c r="F91" s="19"/>
-      <c r="G91" s="19"/>
-    </row>
-    <row r="92" spans="2:7" ht="147" customHeight="1">
-      <c r="B92" s="19"/>
-      <c r="C92" s="19"/>
-      <c r="D92" s="19"/>
-      <c r="E92" s="19"/>
-      <c r="F92" s="19"/>
-      <c r="G92" s="19"/>
-    </row>
-    <row r="93" spans="2:7" ht="147" customHeight="1">
-      <c r="B93" s="19"/>
-      <c r="C93" s="19"/>
-      <c r="D93" s="19"/>
-      <c r="E93" s="19"/>
-      <c r="F93" s="19"/>
-      <c r="G93" s="19"/>
-    </row>
-    <row r="94" spans="2:7" ht="147" customHeight="1">
-      <c r="B94" s="19"/>
-      <c r="C94" s="19"/>
-      <c r="D94" s="19"/>
-      <c r="E94" s="19"/>
-      <c r="F94" s="19"/>
-      <c r="G94" s="19"/>
-    </row>
-    <row r="95" spans="2:7" ht="147" customHeight="1">
-      <c r="B95" s="19"/>
-      <c r="C95" s="19"/>
-      <c r="D95" s="19"/>
-      <c r="E95" s="19"/>
-      <c r="F95" s="19"/>
-      <c r="G95" s="19"/>
-    </row>
-    <row r="96" spans="2:7" ht="147" customHeight="1">
-      <c r="B96" s="19"/>
-      <c r="C96" s="19"/>
-      <c r="D96" s="19"/>
-      <c r="E96" s="19"/>
-      <c r="F96" s="19"/>
-      <c r="G96" s="19"/>
-    </row>
-    <row r="97" spans="2:7" ht="147" customHeight="1">
-      <c r="B97" s="19"/>
-      <c r="C97" s="19"/>
-      <c r="D97" s="19"/>
-      <c r="E97" s="19"/>
-      <c r="F97" s="19"/>
-      <c r="G97" s="19"/>
-    </row>
-    <row r="98" spans="2:7" ht="147" customHeight="1">
-      <c r="B98" s="19"/>
-      <c r="C98" s="19"/>
-      <c r="D98" s="19"/>
-      <c r="E98" s="19"/>
-      <c r="F98" s="19"/>
-      <c r="G98" s="19"/>
-    </row>
-    <row r="99" spans="2:7" ht="147" customHeight="1">
-      <c r="B99" s="19"/>
-      <c r="C99" s="19"/>
-      <c r="D99" s="19"/>
-      <c r="E99" s="19"/>
-      <c r="F99" s="19"/>
-      <c r="G99" s="19"/>
-    </row>
-    <row r="100" spans="2:7" ht="147" customHeight="1">
-      <c r="B100" s="19"/>
-      <c r="C100" s="19"/>
-      <c r="D100" s="19"/>
-      <c r="E100" s="19"/>
-      <c r="F100" s="19"/>
-      <c r="G100" s="19"/>
-    </row>
-    <row r="101" spans="2:7" ht="147" customHeight="1">
-      <c r="B101" s="19"/>
-      <c r="C101" s="19"/>
-      <c r="D101" s="19"/>
-      <c r="E101" s="19"/>
-      <c r="F101" s="19"/>
-      <c r="G101" s="19"/>
-    </row>
-    <row r="102" spans="2:7" ht="147" customHeight="1">
-      <c r="B102" s="19"/>
-      <c r="C102" s="19"/>
-      <c r="D102" s="19"/>
-      <c r="E102" s="19"/>
-      <c r="F102" s="19"/>
-      <c r="G102" s="19"/>
-    </row>
-    <row r="103" spans="2:7" ht="147" customHeight="1">
-      <c r="B103" s="19"/>
-      <c r="C103" s="19"/>
-      <c r="D103" s="19"/>
-      <c r="E103" s="19"/>
-      <c r="F103" s="19"/>
-      <c r="G103" s="19"/>
-    </row>
-    <row r="104" spans="2:7" ht="147" customHeight="1">
-      <c r="B104" s="19"/>
-      <c r="C104" s="19"/>
-      <c r="D104" s="19"/>
-      <c r="E104" s="19"/>
-      <c r="F104" s="19"/>
-      <c r="G104" s="19"/>
-    </row>
-    <row r="105" spans="2:7" ht="147" customHeight="1">
-      <c r="B105" s="19"/>
-      <c r="C105" s="19"/>
-      <c r="D105" s="19"/>
-      <c r="E105" s="19"/>
-      <c r="F105" s="19"/>
-      <c r="G105" s="19"/>
-    </row>
-    <row r="106" spans="2:7" ht="147" customHeight="1">
-      <c r="B106" s="19"/>
-      <c r="C106" s="19"/>
-      <c r="D106" s="19"/>
-      <c r="E106" s="19"/>
-      <c r="F106" s="19"/>
-      <c r="G106" s="19"/>
-    </row>
-    <row r="107" spans="2:7" ht="147" customHeight="1">
-      <c r="B107" s="19"/>
-      <c r="C107" s="19"/>
-      <c r="D107" s="19"/>
-      <c r="E107" s="19"/>
-      <c r="F107" s="19"/>
-      <c r="G107" s="19"/>
-    </row>
-    <row r="108" spans="2:7" ht="147" customHeight="1">
-      <c r="B108" s="19"/>
-      <c r="C108" s="19"/>
-      <c r="D108" s="19"/>
-      <c r="E108" s="19"/>
-      <c r="F108" s="19"/>
-      <c r="G108" s="19"/>
-    </row>
-    <row r="109" spans="2:7" ht="147" customHeight="1">
-      <c r="B109" s="19"/>
-      <c r="C109" s="19"/>
-      <c r="D109" s="19"/>
-      <c r="E109" s="19"/>
-      <c r="F109" s="19"/>
-      <c r="G109" s="19"/>
-    </row>
-    <row r="110" spans="2:7" ht="147" customHeight="1">
-      <c r="B110" s="19"/>
-      <c r="C110" s="19"/>
-      <c r="D110" s="19"/>
-      <c r="E110" s="19"/>
-      <c r="F110" s="19"/>
-      <c r="G110" s="19"/>
-    </row>
-    <row r="111" spans="2:7" ht="147" customHeight="1">
-      <c r="B111" s="19"/>
-      <c r="C111" s="19"/>
-      <c r="D111" s="19"/>
-      <c r="E111" s="19"/>
-      <c r="F111" s="19"/>
-      <c r="G111" s="19"/>
-    </row>
-    <row r="112" spans="2:7" ht="147" customHeight="1">
-      <c r="B112" s="19"/>
-      <c r="C112" s="19"/>
-      <c r="D112" s="19"/>
-      <c r="E112" s="19"/>
-      <c r="F112" s="19"/>
-      <c r="G112" s="19"/>
-    </row>
-    <row r="113" spans="2:7" ht="147" customHeight="1">
-      <c r="B113" s="19"/>
-      <c r="C113" s="19"/>
-      <c r="D113" s="19"/>
-      <c r="E113" s="19"/>
-      <c r="F113" s="19"/>
-      <c r="G113" s="19"/>
-    </row>
-    <row r="114" spans="2:7" ht="147" customHeight="1">
-      <c r="B114" s="19"/>
-      <c r="C114" s="19"/>
-      <c r="D114" s="19"/>
-      <c r="E114" s="19"/>
-      <c r="F114" s="19"/>
-      <c r="G114" s="19"/>
-    </row>
-    <row r="115" spans="2:7" ht="147" customHeight="1">
-      <c r="B115" s="19"/>
-      <c r="C115" s="19"/>
-      <c r="D115" s="19"/>
-      <c r="E115" s="19"/>
-      <c r="F115" s="19"/>
-      <c r="G115" s="19"/>
-    </row>
-    <row r="116" spans="2:7" ht="147" customHeight="1">
-      <c r="B116" s="19"/>
-      <c r="C116" s="19"/>
-      <c r="D116" s="19"/>
-      <c r="E116" s="19"/>
-      <c r="F116" s="19"/>
-      <c r="G116" s="19"/>
-    </row>
-    <row r="117" spans="2:7" ht="147" customHeight="1">
-      <c r="B117" s="19"/>
-      <c r="C117" s="19"/>
-      <c r="D117" s="19"/>
-      <c r="E117" s="19"/>
-      <c r="F117" s="19"/>
-      <c r="G117" s="19"/>
-    </row>
-    <row r="118" spans="2:7" ht="147" customHeight="1">
-      <c r="B118" s="19"/>
-      <c r="C118" s="19"/>
-      <c r="D118" s="19"/>
-      <c r="E118" s="19"/>
-      <c r="F118" s="19"/>
-      <c r="G118" s="19"/>
-    </row>
-    <row r="119" spans="2:7" ht="147" customHeight="1">
-      <c r="B119" s="19"/>
-      <c r="C119" s="19"/>
-      <c r="D119" s="19"/>
-      <c r="E119" s="19"/>
-      <c r="F119" s="19"/>
-      <c r="G119" s="19"/>
-    </row>
-    <row r="120" spans="2:7" ht="147" customHeight="1">
-      <c r="B120" s="19"/>
-      <c r="C120" s="19"/>
-      <c r="D120" s="19"/>
-      <c r="E120" s="19"/>
-      <c r="F120" s="19"/>
-      <c r="G120" s="19"/>
-    </row>
-    <row r="121" spans="2:7" ht="147" customHeight="1">
-      <c r="B121" s="19"/>
-      <c r="C121" s="19"/>
-      <c r="D121" s="19"/>
-      <c r="E121" s="19"/>
-      <c r="F121" s="19"/>
-      <c r="G121" s="19"/>
-    </row>
-    <row r="122" spans="2:7" ht="147" customHeight="1">
-      <c r="B122" s="19"/>
-      <c r="C122" s="19"/>
-      <c r="D122" s="19"/>
-      <c r="E122" s="19"/>
-      <c r="F122" s="19"/>
-      <c r="G122" s="19"/>
-    </row>
-    <row r="123" spans="2:7" ht="147" customHeight="1">
-      <c r="B123" s="19"/>
-      <c r="C123" s="19"/>
-      <c r="D123" s="19"/>
-      <c r="E123" s="19"/>
-      <c r="F123" s="19"/>
-      <c r="G123" s="19"/>
-    </row>
-    <row r="124" spans="2:7" ht="147" customHeight="1">
-      <c r="B124" s="19"/>
-      <c r="C124" s="19"/>
-      <c r="D124" s="19"/>
-      <c r="E124" s="19"/>
-      <c r="F124" s="19"/>
-      <c r="G124" s="19"/>
-    </row>
-    <row r="125" spans="2:7" ht="147" customHeight="1">
-      <c r="B125" s="19"/>
-      <c r="C125" s="19"/>
-      <c r="D125" s="19"/>
-      <c r="E125" s="19"/>
-      <c r="F125" s="19"/>
-      <c r="G125" s="19"/>
-    </row>
-    <row r="126" spans="2:7" ht="147" customHeight="1">
-      <c r="B126" s="19"/>
-      <c r="C126" s="19"/>
-      <c r="D126" s="19"/>
-      <c r="E126" s="19"/>
-      <c r="F126" s="19"/>
-      <c r="G126" s="19"/>
-    </row>
-    <row r="127" spans="2:7" ht="147" customHeight="1">
-      <c r="B127" s="19"/>
-      <c r="C127" s="19"/>
-      <c r="D127" s="19"/>
-      <c r="E127" s="19"/>
-      <c r="F127" s="19"/>
-      <c r="G127" s="19"/>
-    </row>
-    <row r="128" spans="2:7" ht="147" customHeight="1">
-      <c r="B128" s="19"/>
-      <c r="C128" s="19"/>
-      <c r="D128" s="19"/>
-      <c r="E128" s="19"/>
-      <c r="F128" s="19"/>
-      <c r="G128" s="19"/>
-    </row>
-    <row r="129" spans="2:7" ht="147" customHeight="1">
-      <c r="B129" s="19"/>
-      <c r="C129" s="19"/>
-      <c r="D129" s="19"/>
-      <c r="E129" s="19"/>
-      <c r="F129" s="19"/>
-      <c r="G129" s="19"/>
-    </row>
-    <row r="130" spans="2:7" ht="147" customHeight="1">
-      <c r="B130" s="19"/>
-      <c r="C130" s="19"/>
-      <c r="D130" s="19"/>
-      <c r="E130" s="19"/>
-      <c r="F130" s="19"/>
-      <c r="G130" s="19"/>
-    </row>
-    <row r="131" spans="2:7" ht="147" customHeight="1">
-      <c r="B131" s="19"/>
-      <c r="C131" s="19"/>
-      <c r="D131" s="19"/>
-      <c r="E131" s="19"/>
-      <c r="F131" s="19"/>
-      <c r="G131" s="19"/>
-    </row>
-    <row r="132" spans="2:7" ht="147" customHeight="1">
-      <c r="B132" s="19"/>
-      <c r="C132" s="19"/>
-      <c r="D132" s="19"/>
-      <c r="E132" s="19"/>
-      <c r="F132" s="19"/>
-      <c r="G132" s="19"/>
-    </row>
-    <row r="133" spans="2:7" ht="147" customHeight="1">
-      <c r="B133" s="19"/>
-      <c r="C133" s="19"/>
-      <c r="D133" s="19"/>
-      <c r="E133" s="19"/>
-      <c r="F133" s="19"/>
-      <c r="G133" s="19"/>
-    </row>
-    <row r="134" spans="2:7" ht="147" customHeight="1">
-      <c r="B134" s="19"/>
-      <c r="C134" s="19"/>
-      <c r="D134" s="19"/>
-      <c r="E134" s="19"/>
-      <c r="F134" s="19"/>
-      <c r="G134" s="19"/>
-    </row>
-    <row r="135" spans="2:7" ht="147" customHeight="1">
-      <c r="B135" s="19"/>
-      <c r="C135" s="19"/>
-      <c r="D135" s="19"/>
-      <c r="E135" s="19"/>
-      <c r="F135" s="19"/>
-      <c r="G135" s="19"/>
-    </row>
-    <row r="136" spans="2:7" ht="147" customHeight="1">
-      <c r="B136" s="19"/>
-      <c r="C136" s="19"/>
-      <c r="D136" s="19"/>
-      <c r="E136" s="19"/>
-      <c r="F136" s="19"/>
-      <c r="G136" s="19"/>
-    </row>
-    <row r="137" spans="2:7" ht="147" customHeight="1">
-      <c r="B137" s="19"/>
-      <c r="C137" s="19"/>
-      <c r="D137" s="19"/>
-      <c r="E137" s="19"/>
-      <c r="F137" s="19"/>
-      <c r="G137" s="19"/>
-    </row>
-    <row r="138" spans="2:7" ht="147" customHeight="1">
-      <c r="B138" s="19"/>
-      <c r="C138" s="19"/>
-      <c r="D138" s="19"/>
-      <c r="E138" s="19"/>
-      <c r="F138" s="19"/>
-      <c r="G138" s="19"/>
-    </row>
-    <row r="139" spans="2:7" ht="147" customHeight="1">
-      <c r="B139" s="19"/>
-      <c r="C139" s="19"/>
-      <c r="D139" s="19"/>
-      <c r="E139" s="19"/>
-      <c r="F139" s="19"/>
-      <c r="G139" s="19"/>
-    </row>
-    <row r="140" spans="2:7" ht="147" customHeight="1">
-      <c r="B140" s="19"/>
-      <c r="C140" s="19"/>
-      <c r="D140" s="19"/>
-      <c r="E140" s="19"/>
-      <c r="F140" s="19"/>
-      <c r="G140" s="19"/>
-    </row>
-    <row r="141" spans="2:7" ht="147" customHeight="1">
-      <c r="B141" s="19"/>
-      <c r="C141" s="19"/>
-      <c r="D141" s="19"/>
-      <c r="E141" s="19"/>
-      <c r="F141" s="19"/>
-      <c r="G141" s="19"/>
-    </row>
-    <row r="142" spans="2:7" ht="147" customHeight="1">
-      <c r="B142" s="19"/>
-      <c r="C142" s="19"/>
-      <c r="D142" s="19"/>
-      <c r="E142" s="19"/>
-      <c r="F142" s="19"/>
-      <c r="G142" s="19"/>
-    </row>
-    <row r="143" spans="2:7" ht="147" customHeight="1">
-      <c r="B143" s="19"/>
-      <c r="C143" s="19"/>
-      <c r="D143" s="19"/>
-      <c r="E143" s="19"/>
-      <c r="F143" s="19"/>
-      <c r="G143" s="19"/>
-    </row>
-    <row r="144" spans="2:7" ht="147" customHeight="1">
-      <c r="B144" s="19"/>
-      <c r="C144" s="19"/>
-      <c r="D144" s="19"/>
-      <c r="E144" s="19"/>
-      <c r="F144" s="19"/>
-      <c r="G144" s="19"/>
-    </row>
-    <row r="145" spans="2:7" ht="147" customHeight="1">
-      <c r="B145" s="19"/>
-      <c r="C145" s="19"/>
-      <c r="D145" s="19"/>
-      <c r="E145" s="19"/>
-      <c r="F145" s="19"/>
-      <c r="G145" s="19"/>
-    </row>
-    <row r="146" spans="2:7" ht="147" customHeight="1">
-      <c r="B146" s="19"/>
-      <c r="C146" s="19"/>
-      <c r="D146" s="19"/>
-      <c r="E146" s="19"/>
-      <c r="F146" s="19"/>
-      <c r="G146" s="19"/>
-    </row>
-    <row r="147" spans="2:7" ht="147" customHeight="1">
-      <c r="B147" s="19"/>
-      <c r="C147" s="19"/>
-      <c r="D147" s="19"/>
-      <c r="E147" s="19"/>
-      <c r="F147" s="19"/>
-      <c r="G147" s="19"/>
-    </row>
-    <row r="148" spans="2:7" ht="147" customHeight="1">
-      <c r="B148" s="19"/>
-      <c r="C148" s="19"/>
-      <c r="D148" s="19"/>
-      <c r="E148" s="19"/>
-      <c r="F148" s="19"/>
-      <c r="G148" s="19"/>
-    </row>
-    <row r="149" spans="2:7" ht="147" customHeight="1">
-      <c r="B149" s="19"/>
-      <c r="C149" s="19"/>
-      <c r="D149" s="19"/>
-      <c r="E149" s="19"/>
-      <c r="F149" s="19"/>
-      <c r="G149" s="19"/>
-    </row>
-    <row r="150" spans="2:7" ht="147" customHeight="1">
-      <c r="B150" s="19"/>
-      <c r="C150" s="19"/>
-      <c r="D150" s="19"/>
-      <c r="E150" s="19"/>
-      <c r="F150" s="19"/>
-      <c r="G150" s="19"/>
-    </row>
-    <row r="151" spans="2:7" ht="147" customHeight="1">
-      <c r="B151" s="19"/>
-      <c r="C151" s="19"/>
-      <c r="D151" s="19"/>
-      <c r="E151" s="19"/>
-      <c r="F151" s="19"/>
-      <c r="G151" s="19"/>
-    </row>
-    <row r="152" spans="2:7" ht="147" customHeight="1">
-      <c r="B152" s="19"/>
-      <c r="C152" s="19"/>
-      <c r="D152" s="19"/>
-      <c r="E152" s="19"/>
-      <c r="F152" s="19"/>
-      <c r="G152" s="19"/>
-    </row>
-    <row r="153" spans="2:7" ht="147" customHeight="1">
-      <c r="B153" s="19"/>
-      <c r="C153" s="19"/>
-      <c r="D153" s="19"/>
-      <c r="E153" s="19"/>
-      <c r="F153" s="19"/>
-      <c r="G153" s="19"/>
-    </row>
-    <row r="154" spans="2:7" ht="147" customHeight="1">
-      <c r="B154" s="19"/>
-      <c r="C154" s="19"/>
-      <c r="D154" s="19"/>
-      <c r="E154" s="19"/>
-      <c r="F154" s="19"/>
-      <c r="G154" s="19"/>
-    </row>
-    <row r="155" spans="2:7" ht="147" customHeight="1">
-      <c r="B155" s="19"/>
-      <c r="C155" s="19"/>
-      <c r="D155" s="19"/>
-      <c r="E155" s="19"/>
-      <c r="F155" s="19"/>
-      <c r="G155" s="19"/>
-    </row>
-    <row r="156" spans="2:7" ht="147" customHeight="1">
-      <c r="B156" s="19"/>
-      <c r="C156" s="19"/>
-      <c r="D156" s="19"/>
-      <c r="E156" s="19"/>
-      <c r="F156" s="19"/>
-      <c r="G156" s="19"/>
-    </row>
-    <row r="157" spans="2:7" ht="147" customHeight="1">
-      <c r="B157" s="19"/>
-      <c r="C157" s="19"/>
-      <c r="D157" s="19"/>
-      <c r="E157" s="19"/>
-      <c r="F157" s="19"/>
-      <c r="G157" s="19"/>
-    </row>
-    <row r="158" spans="2:7" ht="147" customHeight="1">
-      <c r="B158" s="19"/>
-      <c r="C158" s="19"/>
-      <c r="D158" s="19"/>
-      <c r="E158" s="19"/>
-      <c r="F158" s="19"/>
-      <c r="G158" s="19"/>
-    </row>
-    <row r="159" spans="2:7" ht="147" customHeight="1">
-      <c r="B159" s="19"/>
-      <c r="C159" s="19"/>
-      <c r="D159" s="19"/>
-      <c r="E159" s="19"/>
-      <c r="F159" s="19"/>
-      <c r="G159" s="19"/>
-    </row>
-    <row r="160" spans="2:7" ht="147" customHeight="1">
-      <c r="B160" s="19"/>
-      <c r="C160" s="19"/>
-      <c r="D160" s="19"/>
-      <c r="E160" s="19"/>
-      <c r="F160" s="19"/>
-      <c r="G160" s="19"/>
-    </row>
-    <row r="161" spans="2:7" ht="147" customHeight="1">
-      <c r="B161" s="19"/>
-      <c r="C161" s="19"/>
-      <c r="D161" s="19"/>
-      <c r="E161" s="19"/>
-      <c r="F161" s="19"/>
-      <c r="G161" s="19"/>
-    </row>
-    <row r="162" spans="2:7" ht="147" customHeight="1">
-      <c r="B162" s="19"/>
-      <c r="C162" s="19"/>
-      <c r="D162" s="19"/>
-      <c r="E162" s="19"/>
-      <c r="F162" s="19"/>
-      <c r="G162" s="19"/>
-    </row>
-    <row r="163" spans="2:7" ht="147" customHeight="1">
-      <c r="B163" s="19"/>
-      <c r="C163" s="19"/>
-      <c r="D163" s="19"/>
-      <c r="E163" s="19"/>
-      <c r="F163" s="19"/>
-      <c r="G163" s="19"/>
-    </row>
-    <row r="164" spans="2:7" ht="147" customHeight="1">
-      <c r="B164" s="19"/>
-      <c r="C164" s="19"/>
-      <c r="D164" s="19"/>
-      <c r="E164" s="19"/>
-      <c r="F164" s="19"/>
-      <c r="G164" s="19"/>
-    </row>
-    <row r="165" spans="2:7" ht="147" customHeight="1">
-      <c r="B165" s="19"/>
-      <c r="C165" s="19"/>
-      <c r="D165" s="19"/>
-      <c r="E165" s="19"/>
-      <c r="F165" s="19"/>
-      <c r="G165" s="19"/>
-    </row>
-    <row r="166" spans="2:7" ht="147" customHeight="1">
-      <c r="B166" s="19"/>
-      <c r="C166" s="19"/>
-      <c r="D166" s="19"/>
-      <c r="E166" s="19"/>
-      <c r="F166" s="19"/>
-      <c r="G166" s="19"/>
-    </row>
-    <row r="167" spans="2:7" ht="147" customHeight="1">
-      <c r="B167" s="19"/>
-      <c r="C167" s="19"/>
-      <c r="D167" s="19"/>
-      <c r="E167" s="19"/>
-      <c r="F167" s="19"/>
-      <c r="G167" s="19"/>
-    </row>
-    <row r="168" spans="2:7" ht="147" customHeight="1">
-      <c r="B168" s="19"/>
-      <c r="C168" s="19"/>
-      <c r="D168" s="19"/>
-      <c r="E168" s="19"/>
-      <c r="F168" s="19"/>
-      <c r="G168" s="19"/>
-    </row>
-    <row r="169" spans="2:7" ht="147" customHeight="1">
-      <c r="B169" s="19"/>
-      <c r="C169" s="19"/>
-      <c r="D169" s="19"/>
-      <c r="E169" s="19"/>
-      <c r="F169" s="19"/>
-      <c r="G169" s="19"/>
-    </row>
-    <row r="170" spans="2:7" ht="147" customHeight="1">
-      <c r="B170" s="19"/>
-      <c r="C170" s="19"/>
-      <c r="D170" s="19"/>
-      <c r="E170" s="19"/>
-      <c r="F170" s="19"/>
-      <c r="G170" s="19"/>
-    </row>
-    <row r="171" spans="2:7" ht="147" customHeight="1">
-      <c r="B171" s="19"/>
-      <c r="C171" s="19"/>
-      <c r="D171" s="19"/>
-      <c r="E171" s="19"/>
-      <c r="F171" s="19"/>
-      <c r="G171" s="19"/>
-    </row>
-    <row r="172" spans="2:7" ht="147" customHeight="1">
-      <c r="B172" s="19"/>
-      <c r="C172" s="19"/>
-      <c r="D172" s="19"/>
-      <c r="E172" s="19"/>
-      <c r="F172" s="19"/>
-      <c r="G172" s="19"/>
-    </row>
-    <row r="173" spans="2:7" ht="147" customHeight="1">
-      <c r="B173" s="19"/>
-      <c r="C173" s="19"/>
-      <c r="D173" s="19"/>
-      <c r="E173" s="19"/>
-      <c r="F173" s="19"/>
-      <c r="G173" s="19"/>
-    </row>
-    <row r="174" spans="2:7" ht="147" customHeight="1">
-      <c r="B174" s="19"/>
-      <c r="C174" s="19"/>
-      <c r="D174" s="19"/>
-      <c r="E174" s="19"/>
-      <c r="F174" s="19"/>
-      <c r="G174" s="19"/>
-    </row>
-    <row r="175" spans="2:7" ht="147" customHeight="1">
-      <c r="B175" s="19"/>
-      <c r="C175" s="19"/>
-      <c r="D175" s="19"/>
-      <c r="E175" s="19"/>
-      <c r="F175" s="19"/>
-      <c r="G175" s="19"/>
-    </row>
-    <row r="176" spans="2:7" ht="147" customHeight="1">
-      <c r="B176" s="19"/>
-      <c r="C176" s="19"/>
-      <c r="D176" s="19"/>
-      <c r="E176" s="19"/>
-      <c r="F176" s="19"/>
-      <c r="G176" s="19"/>
-    </row>
-    <row r="177" spans="2:7" ht="147" customHeight="1">
-      <c r="B177" s="19"/>
-      <c r="C177" s="19"/>
-      <c r="D177" s="19"/>
-      <c r="E177" s="19"/>
-      <c r="F177" s="19"/>
-      <c r="G177" s="19"/>
-    </row>
-    <row r="178" spans="2:7" ht="147" customHeight="1">
-      <c r="B178" s="19"/>
-      <c r="C178" s="19"/>
-      <c r="D178" s="19"/>
-      <c r="E178" s="19"/>
-      <c r="F178" s="19"/>
-      <c r="G178" s="19"/>
-    </row>
-    <row r="179" spans="2:7" ht="147" customHeight="1">
-      <c r="B179" s="19"/>
-      <c r="C179" s="19"/>
-      <c r="D179" s="19"/>
-      <c r="E179" s="19"/>
-      <c r="F179" s="19"/>
-      <c r="G179" s="19"/>
-    </row>
-    <row r="180" spans="2:7" ht="147" customHeight="1">
-      <c r="B180" s="19"/>
-      <c r="C180" s="19"/>
-      <c r="D180" s="19"/>
-      <c r="E180" s="19"/>
-      <c r="F180" s="19"/>
-      <c r="G180" s="19"/>
-    </row>
-    <row r="181" spans="2:7" ht="147" customHeight="1">
-      <c r="B181" s="19"/>
-      <c r="C181" s="19"/>
-      <c r="D181" s="19"/>
-      <c r="E181" s="19"/>
-      <c r="F181" s="19"/>
-      <c r="G181" s="19"/>
-    </row>
-    <row r="182" spans="2:7" ht="147" customHeight="1">
-      <c r="B182" s="19"/>
-      <c r="C182" s="19"/>
-      <c r="D182" s="19"/>
-      <c r="E182" s="19"/>
-      <c r="F182" s="19"/>
-      <c r="G182" s="19"/>
-    </row>
-    <row r="183" spans="2:7" ht="147" customHeight="1">
-      <c r="B183" s="19"/>
-      <c r="C183" s="19"/>
-      <c r="D183" s="19"/>
-      <c r="E183" s="19"/>
-      <c r="F183" s="19"/>
-      <c r="G183" s="19"/>
-    </row>
-    <row r="184" spans="2:7" ht="147" customHeight="1">
-      <c r="B184" s="19"/>
-      <c r="C184" s="19"/>
-      <c r="D184" s="19"/>
-      <c r="E184" s="19"/>
-      <c r="F184" s="19"/>
-      <c r="G184" s="19"/>
-    </row>
-    <row r="185" spans="2:7" ht="147" customHeight="1">
-      <c r="B185" s="19"/>
-      <c r="C185" s="19"/>
-      <c r="D185" s="19"/>
-      <c r="E185" s="19"/>
-      <c r="F185" s="19"/>
-      <c r="G185" s="19"/>
-    </row>
-    <row r="186" spans="2:7" ht="147" customHeight="1">
-      <c r="B186" s="19"/>
-      <c r="C186" s="19"/>
-      <c r="D186" s="19"/>
-      <c r="E186" s="19"/>
-      <c r="F186" s="19"/>
-      <c r="G186" s="19"/>
-    </row>
-    <row r="187" spans="2:7" ht="147" customHeight="1">
-      <c r="B187" s="19"/>
-      <c r="C187" s="19"/>
-      <c r="D187" s="19"/>
-      <c r="E187" s="19"/>
-      <c r="F187" s="19"/>
-      <c r="G187" s="19"/>
-    </row>
-    <row r="188" spans="2:7" ht="147" customHeight="1">
-      <c r="B188" s="19"/>
-      <c r="C188" s="19"/>
-      <c r="D188" s="19"/>
-      <c r="E188" s="19"/>
-      <c r="F188" s="19"/>
-      <c r="G188" s="19"/>
-    </row>
-    <row r="189" spans="2:7" ht="147" customHeight="1">
-      <c r="B189" s="19"/>
-      <c r="C189" s="19"/>
-      <c r="D189" s="19"/>
-      <c r="E189" s="19"/>
-      <c r="F189" s="19"/>
-      <c r="G189" s="19"/>
-    </row>
-    <row r="190" spans="2:7" ht="147" customHeight="1">
-      <c r="B190" s="19"/>
-      <c r="C190" s="19"/>
-      <c r="D190" s="19"/>
-      <c r="E190" s="19"/>
-      <c r="F190" s="19"/>
-      <c r="G190" s="19"/>
-    </row>
-    <row r="191" spans="2:7" ht="147" customHeight="1">
-      <c r="B191" s="19"/>
-      <c r="C191" s="19"/>
-      <c r="D191" s="19"/>
-      <c r="E191" s="19"/>
-      <c r="F191" s="19"/>
-      <c r="G191" s="19"/>
-    </row>
-    <row r="192" spans="2:7" ht="147" customHeight="1">
-      <c r="B192" s="19"/>
-      <c r="C192" s="19"/>
-      <c r="D192" s="19"/>
-      <c r="E192" s="19"/>
-      <c r="F192" s="19"/>
-      <c r="G192" s="19"/>
-    </row>
-    <row r="193" spans="2:7" ht="147" customHeight="1">
-      <c r="B193" s="19"/>
-      <c r="C193" s="19"/>
-      <c r="D193" s="19"/>
-      <c r="E193" s="19"/>
-      <c r="F193" s="19"/>
-      <c r="G193" s="19"/>
-    </row>
-    <row r="194" spans="2:7" ht="147" customHeight="1">
-      <c r="B194" s="19"/>
-      <c r="C194" s="19"/>
-      <c r="D194" s="19"/>
-      <c r="E194" s="19"/>
-      <c r="F194" s="19"/>
-      <c r="G194" s="19"/>
-    </row>
-    <row r="195" spans="2:7" ht="147" customHeight="1">
-      <c r="B195" s="19"/>
-      <c r="C195" s="19"/>
-      <c r="D195" s="19"/>
-      <c r="E195" s="19"/>
-      <c r="F195" s="19"/>
-      <c r="G195" s="19"/>
-    </row>
-    <row r="196" spans="2:7" ht="147" customHeight="1">
-      <c r="B196" s="19"/>
-      <c r="C196" s="19"/>
-      <c r="D196" s="19"/>
-      <c r="E196" s="19"/>
-      <c r="F196" s="19"/>
-      <c r="G196" s="19"/>
-    </row>
-    <row r="197" spans="2:7" ht="147" customHeight="1">
-      <c r="B197" s="19"/>
-      <c r="C197" s="19"/>
-      <c r="D197" s="19"/>
-      <c r="E197" s="19"/>
-      <c r="F197" s="19"/>
-      <c r="G197" s="19"/>
-    </row>
-    <row r="198" spans="2:7" ht="147" customHeight="1">
-      <c r="B198" s="19"/>
-      <c r="C198" s="19"/>
-      <c r="D198" s="19"/>
-      <c r="E198" s="19"/>
-      <c r="F198" s="19"/>
-      <c r="G198" s="19"/>
-    </row>
-    <row r="199" spans="2:7" ht="147" customHeight="1">
-      <c r="B199" s="19"/>
-      <c r="C199" s="19"/>
-      <c r="D199" s="19"/>
-      <c r="E199" s="19"/>
-      <c r="F199" s="19"/>
-      <c r="G199" s="19"/>
-    </row>
-    <row r="200" spans="2:7" ht="147" customHeight="1">
-      <c r="B200" s="19"/>
-      <c r="C200" s="19"/>
-      <c r="D200" s="19"/>
-      <c r="E200" s="19"/>
-      <c r="F200" s="19"/>
-      <c r="G200" s="19"/>
-    </row>
-    <row r="201" spans="2:7" ht="147" customHeight="1">
-      <c r="B201" s="19"/>
-      <c r="C201" s="19"/>
-      <c r="D201" s="19"/>
-      <c r="E201" s="19"/>
-      <c r="F201" s="19"/>
-      <c r="G201" s="19"/>
-    </row>
-    <row r="202" spans="2:7" ht="147" customHeight="1">
-      <c r="B202" s="19"/>
-      <c r="C202" s="19"/>
-      <c r="D202" s="19"/>
-      <c r="E202" s="19"/>
-      <c r="F202" s="19"/>
-      <c r="G202" s="19"/>
-    </row>
-    <row r="203" spans="2:7" ht="147" customHeight="1">
-      <c r="B203" s="19"/>
-      <c r="C203" s="19"/>
-      <c r="D203" s="19"/>
-      <c r="E203" s="19"/>
-      <c r="F203" s="19"/>
-      <c r="G203" s="19"/>
-    </row>
-    <row r="204" spans="2:7" ht="147" customHeight="1">
-      <c r="B204" s="19"/>
-      <c r="C204" s="19"/>
-      <c r="D204" s="19"/>
-      <c r="E204" s="19"/>
-      <c r="F204" s="19"/>
-      <c r="G204" s="19"/>
-    </row>
-    <row r="205" spans="2:7" ht="147" customHeight="1">
-      <c r="B205" s="19"/>
-      <c r="C205" s="19"/>
-      <c r="D205" s="19"/>
-      <c r="E205" s="19"/>
-      <c r="F205" s="19"/>
-      <c r="G205" s="19"/>
-    </row>
-    <row r="206" spans="2:7" ht="147" customHeight="1">
-      <c r="B206" s="19"/>
-      <c r="C206" s="19"/>
-      <c r="D206" s="19"/>
-      <c r="E206" s="19"/>
-      <c r="F206" s="19"/>
-      <c r="G206" s="19"/>
-    </row>
-    <row r="207" spans="2:7" ht="147" customHeight="1">
-      <c r="B207" s="19"/>
-      <c r="C207" s="19"/>
-      <c r="D207" s="19"/>
-      <c r="E207" s="19"/>
-      <c r="F207" s="19"/>
-      <c r="G207" s="19"/>
+      <c r="B47" s="27"/>
+      <c r="C47" s="27"/>
+      <c r="D47" s="27"/>
+      <c r="E47" s="27"/>
+      <c r="F47" s="27"/>
+      <c r="G47" s="27"/>
+      <c r="H47" s="27"/>
+      <c r="I47" s="27"/>
+      <c r="J47" s="27"/>
+      <c r="K47" s="27"/>
+    </row>
+    <row r="48" spans="1:11" ht="147" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B48" s="18"/>
+      <c r="C48" s="18"/>
+      <c r="D48" s="18"/>
+      <c r="E48" s="18"/>
+      <c r="F48" s="18"/>
+      <c r="G48" s="18"/>
+      <c r="H48" s="18"/>
+      <c r="J48" s="6"/>
+    </row>
+    <row r="49" spans="2:10" ht="147" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B49" s="18"/>
+      <c r="C49" s="18"/>
+      <c r="D49" s="18"/>
+      <c r="E49" s="18"/>
+      <c r="F49" s="18"/>
+      <c r="G49" s="18"/>
+      <c r="H49" s="18"/>
+      <c r="J49" s="7"/>
+    </row>
+    <row r="50" spans="2:10" ht="147" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B50" s="18"/>
+      <c r="C50" s="18"/>
+      <c r="D50" s="18"/>
+      <c r="E50" s="18"/>
+      <c r="F50" s="18"/>
+      <c r="G50" s="18"/>
+      <c r="H50" s="18"/>
+      <c r="J50" s="7"/>
+    </row>
+    <row r="51" spans="2:10" ht="147" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B51" s="18"/>
+      <c r="C51" s="18"/>
+      <c r="D51" s="18"/>
+      <c r="E51" s="18"/>
+      <c r="F51" s="18"/>
+      <c r="G51" s="18"/>
+      <c r="H51" s="18"/>
+      <c r="J51" s="7"/>
+    </row>
+    <row r="52" spans="2:10" ht="147" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B52" s="18"/>
+      <c r="C52" s="18"/>
+      <c r="D52" s="18"/>
+      <c r="E52" s="18"/>
+      <c r="F52" s="18"/>
+      <c r="G52" s="18"/>
+      <c r="H52" s="18"/>
+    </row>
+    <row r="53" spans="2:10" ht="147" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B53" s="18"/>
+      <c r="C53" s="18"/>
+      <c r="D53" s="18"/>
+      <c r="E53" s="18"/>
+      <c r="F53" s="18"/>
+      <c r="G53" s="18"/>
+      <c r="H53" s="18"/>
+    </row>
+    <row r="54" spans="2:10" ht="147" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B54" s="18"/>
+      <c r="C54" s="18"/>
+      <c r="D54" s="18"/>
+      <c r="E54" s="18"/>
+      <c r="F54" s="18"/>
+      <c r="G54" s="18"/>
+      <c r="H54" s="18"/>
+    </row>
+    <row r="55" spans="2:10" ht="147" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B55" s="18"/>
+      <c r="C55" s="18"/>
+      <c r="D55" s="18"/>
+      <c r="E55" s="18"/>
+      <c r="F55" s="18"/>
+      <c r="G55" s="18"/>
+      <c r="H55" s="18"/>
+    </row>
+    <row r="56" spans="2:10" ht="147" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B56" s="18"/>
+      <c r="C56" s="18"/>
+      <c r="D56" s="18"/>
+      <c r="E56" s="18"/>
+      <c r="F56" s="18"/>
+      <c r="G56" s="18"/>
+      <c r="H56" s="18"/>
+    </row>
+    <row r="57" spans="2:10" ht="147" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B57" s="18"/>
+      <c r="C57" s="18"/>
+      <c r="D57" s="18"/>
+      <c r="E57" s="18"/>
+      <c r="F57" s="18"/>
+      <c r="G57" s="18"/>
+      <c r="H57" s="18"/>
+    </row>
+    <row r="58" spans="2:10" ht="147" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B58" s="18"/>
+      <c r="C58" s="18"/>
+      <c r="D58" s="18"/>
+      <c r="E58" s="18"/>
+      <c r="F58" s="18"/>
+      <c r="G58" s="18"/>
+      <c r="H58" s="18"/>
+    </row>
+    <row r="59" spans="2:10" ht="147" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B59" s="18"/>
+      <c r="C59" s="18"/>
+      <c r="D59" s="18"/>
+      <c r="E59" s="18"/>
+      <c r="F59" s="18"/>
+      <c r="G59" s="18"/>
+      <c r="H59" s="18"/>
+    </row>
+    <row r="60" spans="2:10" ht="147" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B60" s="18"/>
+      <c r="C60" s="18"/>
+      <c r="D60" s="18"/>
+      <c r="E60" s="18"/>
+      <c r="F60" s="18"/>
+      <c r="G60" s="18"/>
+      <c r="H60" s="18"/>
+    </row>
+    <row r="61" spans="2:10" ht="147" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B61" s="18"/>
+      <c r="C61" s="18"/>
+      <c r="D61" s="18"/>
+      <c r="E61" s="18"/>
+      <c r="F61" s="18"/>
+      <c r="G61" s="18"/>
+      <c r="H61" s="18"/>
+    </row>
+    <row r="62" spans="2:10" ht="147" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B62" s="18"/>
+      <c r="C62" s="18"/>
+      <c r="D62" s="18"/>
+      <c r="E62" s="18"/>
+      <c r="F62" s="18"/>
+      <c r="G62" s="18"/>
+      <c r="H62" s="18"/>
+    </row>
+    <row r="63" spans="2:10" ht="147" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B63" s="18"/>
+      <c r="C63" s="18"/>
+      <c r="D63" s="18"/>
+      <c r="E63" s="18"/>
+      <c r="F63" s="18"/>
+      <c r="G63" s="18"/>
+      <c r="H63" s="18"/>
+    </row>
+    <row r="64" spans="2:10" ht="147" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B64" s="18"/>
+      <c r="C64" s="18"/>
+      <c r="D64" s="18"/>
+      <c r="E64" s="18"/>
+      <c r="F64" s="18"/>
+      <c r="G64" s="18"/>
+      <c r="H64" s="18"/>
+    </row>
+    <row r="65" spans="2:8" ht="147" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B65" s="18"/>
+      <c r="C65" s="18"/>
+      <c r="D65" s="18"/>
+      <c r="E65" s="18"/>
+      <c r="F65" s="18"/>
+      <c r="G65" s="18"/>
+      <c r="H65" s="18"/>
+    </row>
+    <row r="66" spans="2:8" ht="147" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B66" s="18"/>
+      <c r="C66" s="18"/>
+      <c r="D66" s="18"/>
+      <c r="E66" s="18"/>
+      <c r="F66" s="18"/>
+      <c r="G66" s="18"/>
+      <c r="H66" s="18"/>
+    </row>
+    <row r="67" spans="2:8" ht="147" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B67" s="18"/>
+      <c r="C67" s="18"/>
+      <c r="D67" s="18"/>
+      <c r="E67" s="18"/>
+      <c r="F67" s="18"/>
+      <c r="G67" s="18"/>
+      <c r="H67" s="18"/>
+    </row>
+    <row r="68" spans="2:8" ht="147" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B68" s="18"/>
+      <c r="C68" s="18"/>
+      <c r="D68" s="18"/>
+      <c r="E68" s="18"/>
+      <c r="F68" s="18"/>
+      <c r="G68" s="18"/>
+      <c r="H68" s="18"/>
+    </row>
+    <row r="69" spans="2:8" ht="147" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B69" s="18"/>
+      <c r="C69" s="18"/>
+      <c r="D69" s="18"/>
+      <c r="E69" s="18"/>
+      <c r="F69" s="18"/>
+      <c r="G69" s="18"/>
+      <c r="H69" s="18"/>
+    </row>
+    <row r="70" spans="2:8" ht="147" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B70" s="18"/>
+      <c r="C70" s="18"/>
+      <c r="D70" s="18"/>
+      <c r="E70" s="18"/>
+      <c r="F70" s="18"/>
+      <c r="G70" s="18"/>
+      <c r="H70" s="18"/>
+    </row>
+    <row r="71" spans="2:8" ht="147" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B71" s="18"/>
+      <c r="C71" s="18"/>
+      <c r="D71" s="18"/>
+      <c r="E71" s="18"/>
+      <c r="F71" s="18"/>
+      <c r="G71" s="18"/>
+      <c r="H71" s="18"/>
+    </row>
+    <row r="72" spans="2:8" ht="147" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B72" s="18"/>
+      <c r="C72" s="18"/>
+      <c r="D72" s="18"/>
+      <c r="E72" s="18"/>
+      <c r="F72" s="18"/>
+      <c r="G72" s="18"/>
+      <c r="H72" s="18"/>
+    </row>
+    <row r="73" spans="2:8" ht="147" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B73" s="18"/>
+      <c r="C73" s="18"/>
+      <c r="D73" s="18"/>
+      <c r="E73" s="18"/>
+      <c r="F73" s="18"/>
+      <c r="G73" s="18"/>
+      <c r="H73" s="18"/>
+    </row>
+    <row r="74" spans="2:8" ht="147" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B74" s="18"/>
+      <c r="C74" s="18"/>
+      <c r="D74" s="18"/>
+      <c r="E74" s="18"/>
+      <c r="F74" s="18"/>
+      <c r="G74" s="18"/>
+      <c r="H74" s="18"/>
+    </row>
+    <row r="75" spans="2:8" ht="147" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B75" s="18"/>
+      <c r="C75" s="18"/>
+      <c r="D75" s="18"/>
+      <c r="E75" s="18"/>
+      <c r="F75" s="18"/>
+      <c r="G75" s="18"/>
+      <c r="H75" s="18"/>
+    </row>
+    <row r="76" spans="2:8" ht="147" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B76" s="18"/>
+      <c r="C76" s="18"/>
+      <c r="D76" s="18"/>
+      <c r="E76" s="18"/>
+      <c r="F76" s="18"/>
+      <c r="G76" s="18"/>
+      <c r="H76" s="18"/>
+    </row>
+    <row r="77" spans="2:8" ht="147" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B77" s="18"/>
+      <c r="C77" s="18"/>
+      <c r="D77" s="18"/>
+      <c r="E77" s="18"/>
+      <c r="F77" s="18"/>
+      <c r="G77" s="18"/>
+      <c r="H77" s="18"/>
+    </row>
+    <row r="78" spans="2:8" ht="147" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B78" s="18"/>
+      <c r="C78" s="18"/>
+      <c r="D78" s="18"/>
+      <c r="E78" s="18"/>
+      <c r="F78" s="18"/>
+      <c r="G78" s="18"/>
+      <c r="H78" s="18"/>
+    </row>
+    <row r="79" spans="2:8" ht="147" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B79" s="18"/>
+      <c r="C79" s="18"/>
+      <c r="D79" s="18"/>
+      <c r="E79" s="18"/>
+      <c r="F79" s="18"/>
+      <c r="G79" s="18"/>
+      <c r="H79" s="18"/>
+    </row>
+    <row r="80" spans="2:8" ht="147" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B80" s="18"/>
+      <c r="C80" s="18"/>
+      <c r="D80" s="18"/>
+      <c r="E80" s="18"/>
+      <c r="F80" s="18"/>
+      <c r="G80" s="18"/>
+      <c r="H80" s="18"/>
+    </row>
+    <row r="81" spans="2:8" ht="147" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B81" s="18"/>
+      <c r="C81" s="18"/>
+      <c r="D81" s="18"/>
+      <c r="E81" s="18"/>
+      <c r="F81" s="18"/>
+      <c r="G81" s="18"/>
+      <c r="H81" s="18"/>
+    </row>
+    <row r="82" spans="2:8" ht="147" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B82" s="18"/>
+      <c r="C82" s="18"/>
+      <c r="D82" s="18"/>
+      <c r="E82" s="18"/>
+      <c r="F82" s="18"/>
+      <c r="G82" s="18"/>
+      <c r="H82" s="18"/>
+    </row>
+    <row r="83" spans="2:8" ht="147" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B83" s="18"/>
+      <c r="C83" s="18"/>
+      <c r="D83" s="18"/>
+      <c r="E83" s="18"/>
+      <c r="F83" s="18"/>
+      <c r="G83" s="18"/>
+      <c r="H83" s="18"/>
+    </row>
+    <row r="84" spans="2:8" ht="147" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B84" s="18"/>
+      <c r="C84" s="18"/>
+      <c r="D84" s="18"/>
+      <c r="E84" s="18"/>
+      <c r="F84" s="18"/>
+      <c r="G84" s="18"/>
+      <c r="H84" s="18"/>
+    </row>
+    <row r="85" spans="2:8" ht="147" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B85" s="18"/>
+      <c r="C85" s="18"/>
+      <c r="D85" s="18"/>
+      <c r="E85" s="18"/>
+      <c r="F85" s="18"/>
+      <c r="G85" s="18"/>
+      <c r="H85" s="18"/>
+    </row>
+    <row r="86" spans="2:8" ht="147" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B86" s="18"/>
+      <c r="C86" s="18"/>
+      <c r="D86" s="18"/>
+      <c r="E86" s="18"/>
+      <c r="F86" s="18"/>
+      <c r="G86" s="18"/>
+      <c r="H86" s="18"/>
+    </row>
+    <row r="87" spans="2:8" ht="147" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B87" s="18"/>
+      <c r="C87" s="18"/>
+      <c r="D87" s="18"/>
+      <c r="E87" s="18"/>
+      <c r="F87" s="18"/>
+      <c r="G87" s="18"/>
+      <c r="H87" s="18"/>
+    </row>
+    <row r="88" spans="2:8" ht="147" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B88" s="18"/>
+      <c r="C88" s="18"/>
+      <c r="D88" s="18"/>
+      <c r="E88" s="18"/>
+      <c r="F88" s="18"/>
+      <c r="G88" s="18"/>
+      <c r="H88" s="18"/>
+    </row>
+    <row r="89" spans="2:8" ht="147" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B89" s="18"/>
+      <c r="C89" s="18"/>
+      <c r="D89" s="18"/>
+      <c r="E89" s="18"/>
+      <c r="F89" s="18"/>
+      <c r="G89" s="18"/>
+      <c r="H89" s="18"/>
+    </row>
+    <row r="90" spans="2:8" ht="147" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B90" s="18"/>
+      <c r="C90" s="18"/>
+      <c r="D90" s="18"/>
+      <c r="E90" s="18"/>
+      <c r="F90" s="18"/>
+      <c r="G90" s="18"/>
+      <c r="H90" s="18"/>
+    </row>
+    <row r="91" spans="2:8" ht="147" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B91" s="18"/>
+      <c r="C91" s="18"/>
+      <c r="D91" s="18"/>
+      <c r="E91" s="18"/>
+      <c r="F91" s="18"/>
+      <c r="G91" s="18"/>
+      <c r="H91" s="18"/>
+    </row>
+    <row r="92" spans="2:8" ht="147" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B92" s="18"/>
+      <c r="C92" s="18"/>
+      <c r="D92" s="18"/>
+      <c r="E92" s="18"/>
+      <c r="F92" s="18"/>
+      <c r="G92" s="18"/>
+      <c r="H92" s="18"/>
+    </row>
+    <row r="93" spans="2:8" ht="147" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B93" s="18"/>
+      <c r="C93" s="18"/>
+      <c r="D93" s="18"/>
+      <c r="E93" s="18"/>
+      <c r="F93" s="18"/>
+      <c r="G93" s="18"/>
+      <c r="H93" s="18"/>
+    </row>
+    <row r="94" spans="2:8" ht="147" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B94" s="18"/>
+      <c r="C94" s="18"/>
+      <c r="D94" s="18"/>
+      <c r="E94" s="18"/>
+      <c r="F94" s="18"/>
+      <c r="G94" s="18"/>
+      <c r="H94" s="18"/>
+    </row>
+    <row r="95" spans="2:8" ht="147" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B95" s="18"/>
+      <c r="C95" s="18"/>
+      <c r="D95" s="18"/>
+      <c r="E95" s="18"/>
+      <c r="F95" s="18"/>
+      <c r="G95" s="18"/>
+      <c r="H95" s="18"/>
+    </row>
+    <row r="96" spans="2:8" ht="147" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B96" s="18"/>
+      <c r="C96" s="18"/>
+      <c r="D96" s="18"/>
+      <c r="E96" s="18"/>
+      <c r="F96" s="18"/>
+      <c r="G96" s="18"/>
+      <c r="H96" s="18"/>
+    </row>
+    <row r="97" spans="2:8" ht="147" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B97" s="18"/>
+      <c r="C97" s="18"/>
+      <c r="D97" s="18"/>
+      <c r="E97" s="18"/>
+      <c r="F97" s="18"/>
+      <c r="G97" s="18"/>
+      <c r="H97" s="18"/>
+    </row>
+    <row r="98" spans="2:8" ht="147" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B98" s="18"/>
+      <c r="C98" s="18"/>
+      <c r="D98" s="18"/>
+      <c r="E98" s="18"/>
+      <c r="F98" s="18"/>
+      <c r="G98" s="18"/>
+      <c r="H98" s="18"/>
+    </row>
+    <row r="99" spans="2:8" ht="147" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B99" s="18"/>
+      <c r="C99" s="18"/>
+      <c r="D99" s="18"/>
+      <c r="E99" s="18"/>
+      <c r="F99" s="18"/>
+      <c r="G99" s="18"/>
+      <c r="H99" s="18"/>
+    </row>
+    <row r="100" spans="2:8" ht="147" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B100" s="18"/>
+      <c r="C100" s="18"/>
+      <c r="D100" s="18"/>
+      <c r="E100" s="18"/>
+      <c r="F100" s="18"/>
+      <c r="G100" s="18"/>
+      <c r="H100" s="18"/>
+    </row>
+    <row r="101" spans="2:8" ht="147" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B101" s="18"/>
+      <c r="C101" s="18"/>
+      <c r="D101" s="18"/>
+      <c r="E101" s="18"/>
+      <c r="F101" s="18"/>
+      <c r="G101" s="18"/>
+      <c r="H101" s="18"/>
+    </row>
+    <row r="102" spans="2:8" ht="147" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B102" s="18"/>
+      <c r="C102" s="18"/>
+      <c r="D102" s="18"/>
+      <c r="E102" s="18"/>
+      <c r="F102" s="18"/>
+      <c r="G102" s="18"/>
+      <c r="H102" s="18"/>
+    </row>
+    <row r="103" spans="2:8" ht="147" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B103" s="18"/>
+      <c r="C103" s="18"/>
+      <c r="D103" s="18"/>
+      <c r="E103" s="18"/>
+      <c r="F103" s="18"/>
+      <c r="G103" s="18"/>
+      <c r="H103" s="18"/>
+    </row>
+    <row r="104" spans="2:8" ht="147" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B104" s="18"/>
+      <c r="C104" s="18"/>
+      <c r="D104" s="18"/>
+      <c r="E104" s="18"/>
+      <c r="F104" s="18"/>
+      <c r="G104" s="18"/>
+      <c r="H104" s="18"/>
+    </row>
+    <row r="105" spans="2:8" ht="147" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B105" s="18"/>
+      <c r="C105" s="18"/>
+      <c r="D105" s="18"/>
+      <c r="E105" s="18"/>
+      <c r="F105" s="18"/>
+      <c r="G105" s="18"/>
+      <c r="H105" s="18"/>
+    </row>
+    <row r="106" spans="2:8" ht="147" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B106" s="18"/>
+      <c r="C106" s="18"/>
+      <c r="D106" s="18"/>
+      <c r="E106" s="18"/>
+      <c r="F106" s="18"/>
+      <c r="G106" s="18"/>
+      <c r="H106" s="18"/>
+    </row>
+    <row r="107" spans="2:8" ht="147" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B107" s="18"/>
+      <c r="C107" s="18"/>
+      <c r="D107" s="18"/>
+      <c r="E107" s="18"/>
+      <c r="F107" s="18"/>
+      <c r="G107" s="18"/>
+      <c r="H107" s="18"/>
+    </row>
+    <row r="108" spans="2:8" ht="147" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B108" s="18"/>
+      <c r="C108" s="18"/>
+      <c r="D108" s="18"/>
+      <c r="E108" s="18"/>
+      <c r="F108" s="18"/>
+      <c r="G108" s="18"/>
+      <c r="H108" s="18"/>
+    </row>
+    <row r="109" spans="2:8" ht="147" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B109" s="18"/>
+      <c r="C109" s="18"/>
+      <c r="D109" s="18"/>
+      <c r="E109" s="18"/>
+      <c r="F109" s="18"/>
+      <c r="G109" s="18"/>
+      <c r="H109" s="18"/>
+    </row>
+    <row r="110" spans="2:8" ht="147" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B110" s="18"/>
+      <c r="C110" s="18"/>
+      <c r="D110" s="18"/>
+      <c r="E110" s="18"/>
+      <c r="F110" s="18"/>
+      <c r="G110" s="18"/>
+      <c r="H110" s="18"/>
+    </row>
+    <row r="111" spans="2:8" ht="147" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B111" s="18"/>
+      <c r="C111" s="18"/>
+      <c r="D111" s="18"/>
+      <c r="E111" s="18"/>
+      <c r="F111" s="18"/>
+      <c r="G111" s="18"/>
+      <c r="H111" s="18"/>
+    </row>
+    <row r="112" spans="2:8" ht="147" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B112" s="18"/>
+      <c r="C112" s="18"/>
+      <c r="D112" s="18"/>
+      <c r="E112" s="18"/>
+      <c r="F112" s="18"/>
+      <c r="G112" s="18"/>
+      <c r="H112" s="18"/>
+    </row>
+    <row r="113" spans="2:8" ht="147" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B113" s="18"/>
+      <c r="C113" s="18"/>
+      <c r="D113" s="18"/>
+      <c r="E113" s="18"/>
+      <c r="F113" s="18"/>
+      <c r="G113" s="18"/>
+      <c r="H113" s="18"/>
+    </row>
+    <row r="114" spans="2:8" ht="147" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B114" s="18"/>
+      <c r="C114" s="18"/>
+      <c r="D114" s="18"/>
+      <c r="E114" s="18"/>
+      <c r="F114" s="18"/>
+      <c r="G114" s="18"/>
+      <c r="H114" s="18"/>
+    </row>
+    <row r="115" spans="2:8" ht="147" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B115" s="18"/>
+      <c r="C115" s="18"/>
+      <c r="D115" s="18"/>
+      <c r="E115" s="18"/>
+      <c r="F115" s="18"/>
+      <c r="G115" s="18"/>
+      <c r="H115" s="18"/>
+    </row>
+    <row r="116" spans="2:8" ht="147" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B116" s="18"/>
+      <c r="C116" s="18"/>
+      <c r="D116" s="18"/>
+      <c r="E116" s="18"/>
+      <c r="F116" s="18"/>
+      <c r="G116" s="18"/>
+      <c r="H116" s="18"/>
+    </row>
+    <row r="117" spans="2:8" ht="147" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B117" s="18"/>
+      <c r="C117" s="18"/>
+      <c r="D117" s="18"/>
+      <c r="E117" s="18"/>
+      <c r="F117" s="18"/>
+      <c r="G117" s="18"/>
+      <c r="H117" s="18"/>
+    </row>
+    <row r="118" spans="2:8" ht="147" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B118" s="18"/>
+      <c r="C118" s="18"/>
+      <c r="D118" s="18"/>
+      <c r="E118" s="18"/>
+      <c r="F118" s="18"/>
+      <c r="G118" s="18"/>
+      <c r="H118" s="18"/>
+    </row>
+    <row r="119" spans="2:8" ht="147" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B119" s="18"/>
+      <c r="C119" s="18"/>
+      <c r="D119" s="18"/>
+      <c r="E119" s="18"/>
+      <c r="F119" s="18"/>
+      <c r="G119" s="18"/>
+      <c r="H119" s="18"/>
+    </row>
+    <row r="120" spans="2:8" ht="147" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B120" s="18"/>
+      <c r="C120" s="18"/>
+      <c r="D120" s="18"/>
+      <c r="E120" s="18"/>
+      <c r="F120" s="18"/>
+      <c r="G120" s="18"/>
+      <c r="H120" s="18"/>
+    </row>
+    <row r="121" spans="2:8" ht="147" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B121" s="18"/>
+      <c r="C121" s="18"/>
+      <c r="D121" s="18"/>
+      <c r="E121" s="18"/>
+      <c r="F121" s="18"/>
+      <c r="G121" s="18"/>
+      <c r="H121" s="18"/>
+    </row>
+    <row r="122" spans="2:8" ht="147" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B122" s="18"/>
+      <c r="C122" s="18"/>
+      <c r="D122" s="18"/>
+      <c r="E122" s="18"/>
+      <c r="F122" s="18"/>
+      <c r="G122" s="18"/>
+      <c r="H122" s="18"/>
+    </row>
+    <row r="123" spans="2:8" ht="147" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B123" s="18"/>
+      <c r="C123" s="18"/>
+      <c r="D123" s="18"/>
+      <c r="E123" s="18"/>
+      <c r="F123" s="18"/>
+      <c r="G123" s="18"/>
+      <c r="H123" s="18"/>
+    </row>
+    <row r="124" spans="2:8" ht="147" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B124" s="18"/>
+      <c r="C124" s="18"/>
+      <c r="D124" s="18"/>
+      <c r="E124" s="18"/>
+      <c r="F124" s="18"/>
+      <c r="G124" s="18"/>
+      <c r="H124" s="18"/>
+    </row>
+    <row r="125" spans="2:8" ht="147" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B125" s="18"/>
+      <c r="C125" s="18"/>
+      <c r="D125" s="18"/>
+      <c r="E125" s="18"/>
+      <c r="F125" s="18"/>
+      <c r="G125" s="18"/>
+      <c r="H125" s="18"/>
+    </row>
+    <row r="126" spans="2:8" ht="147" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B126" s="18"/>
+      <c r="C126" s="18"/>
+      <c r="D126" s="18"/>
+      <c r="E126" s="18"/>
+      <c r="F126" s="18"/>
+      <c r="G126" s="18"/>
+      <c r="H126" s="18"/>
+    </row>
+    <row r="127" spans="2:8" ht="147" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B127" s="18"/>
+      <c r="C127" s="18"/>
+      <c r="D127" s="18"/>
+      <c r="E127" s="18"/>
+      <c r="F127" s="18"/>
+      <c r="G127" s="18"/>
+      <c r="H127" s="18"/>
+    </row>
+    <row r="128" spans="2:8" ht="147" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B128" s="18"/>
+      <c r="C128" s="18"/>
+      <c r="D128" s="18"/>
+      <c r="E128" s="18"/>
+      <c r="F128" s="18"/>
+      <c r="G128" s="18"/>
+      <c r="H128" s="18"/>
+    </row>
+    <row r="129" spans="2:8" ht="147" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B129" s="18"/>
+      <c r="C129" s="18"/>
+      <c r="D129" s="18"/>
+      <c r="E129" s="18"/>
+      <c r="F129" s="18"/>
+      <c r="G129" s="18"/>
+      <c r="H129" s="18"/>
+    </row>
+    <row r="130" spans="2:8" ht="147" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B130" s="18"/>
+      <c r="C130" s="18"/>
+      <c r="D130" s="18"/>
+      <c r="E130" s="18"/>
+      <c r="F130" s="18"/>
+      <c r="G130" s="18"/>
+      <c r="H130" s="18"/>
+    </row>
+    <row r="131" spans="2:8" ht="147" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B131" s="18"/>
+      <c r="C131" s="18"/>
+      <c r="D131" s="18"/>
+      <c r="E131" s="18"/>
+      <c r="F131" s="18"/>
+      <c r="G131" s="18"/>
+      <c r="H131" s="18"/>
+    </row>
+    <row r="132" spans="2:8" ht="147" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B132" s="18"/>
+      <c r="C132" s="18"/>
+      <c r="D132" s="18"/>
+      <c r="E132" s="18"/>
+      <c r="F132" s="18"/>
+      <c r="G132" s="18"/>
+      <c r="H132" s="18"/>
+    </row>
+    <row r="133" spans="2:8" ht="147" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B133" s="18"/>
+      <c r="C133" s="18"/>
+      <c r="D133" s="18"/>
+      <c r="E133" s="18"/>
+      <c r="F133" s="18"/>
+      <c r="G133" s="18"/>
+      <c r="H133" s="18"/>
+    </row>
+    <row r="134" spans="2:8" ht="147" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B134" s="18"/>
+      <c r="C134" s="18"/>
+      <c r="D134" s="18"/>
+      <c r="E134" s="18"/>
+      <c r="F134" s="18"/>
+      <c r="G134" s="18"/>
+      <c r="H134" s="18"/>
+    </row>
+    <row r="135" spans="2:8" ht="147" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B135" s="18"/>
+      <c r="C135" s="18"/>
+      <c r="D135" s="18"/>
+      <c r="E135" s="18"/>
+      <c r="F135" s="18"/>
+      <c r="G135" s="18"/>
+      <c r="H135" s="18"/>
+    </row>
+    <row r="136" spans="2:8" ht="147" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B136" s="18"/>
+      <c r="C136" s="18"/>
+      <c r="D136" s="18"/>
+      <c r="E136" s="18"/>
+      <c r="F136" s="18"/>
+      <c r="G136" s="18"/>
+      <c r="H136" s="18"/>
+    </row>
+    <row r="137" spans="2:8" ht="147" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B137" s="18"/>
+      <c r="C137" s="18"/>
+      <c r="D137" s="18"/>
+      <c r="E137" s="18"/>
+      <c r="F137" s="18"/>
+      <c r="G137" s="18"/>
+      <c r="H137" s="18"/>
+    </row>
+    <row r="138" spans="2:8" ht="147" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B138" s="18"/>
+      <c r="C138" s="18"/>
+      <c r="D138" s="18"/>
+      <c r="E138" s="18"/>
+      <c r="F138" s="18"/>
+      <c r="G138" s="18"/>
+      <c r="H138" s="18"/>
+    </row>
+    <row r="139" spans="2:8" ht="147" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B139" s="18"/>
+      <c r="C139" s="18"/>
+      <c r="D139" s="18"/>
+      <c r="E139" s="18"/>
+      <c r="F139" s="18"/>
+      <c r="G139" s="18"/>
+      <c r="H139" s="18"/>
+    </row>
+    <row r="140" spans="2:8" ht="147" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B140" s="18"/>
+      <c r="C140" s="18"/>
+      <c r="D140" s="18"/>
+      <c r="E140" s="18"/>
+      <c r="F140" s="18"/>
+      <c r="G140" s="18"/>
+      <c r="H140" s="18"/>
+    </row>
+    <row r="141" spans="2:8" ht="147" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B141" s="18"/>
+      <c r="C141" s="18"/>
+      <c r="D141" s="18"/>
+      <c r="E141" s="18"/>
+      <c r="F141" s="18"/>
+      <c r="G141" s="18"/>
+      <c r="H141" s="18"/>
+    </row>
+    <row r="142" spans="2:8" ht="147" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B142" s="18"/>
+      <c r="C142" s="18"/>
+      <c r="D142" s="18"/>
+      <c r="E142" s="18"/>
+      <c r="F142" s="18"/>
+      <c r="G142" s="18"/>
+      <c r="H142" s="18"/>
+    </row>
+    <row r="143" spans="2:8" ht="147" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B143" s="18"/>
+      <c r="C143" s="18"/>
+      <c r="D143" s="18"/>
+      <c r="E143" s="18"/>
+      <c r="F143" s="18"/>
+      <c r="G143" s="18"/>
+      <c r="H143" s="18"/>
+    </row>
+    <row r="144" spans="2:8" ht="147" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B144" s="18"/>
+      <c r="C144" s="18"/>
+      <c r="D144" s="18"/>
+      <c r="E144" s="18"/>
+      <c r="F144" s="18"/>
+      <c r="G144" s="18"/>
+      <c r="H144" s="18"/>
+    </row>
+    <row r="145" spans="2:8" ht="147" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B145" s="18"/>
+      <c r="C145" s="18"/>
+      <c r="D145" s="18"/>
+      <c r="E145" s="18"/>
+      <c r="F145" s="18"/>
+      <c r="G145" s="18"/>
+      <c r="H145" s="18"/>
+    </row>
+    <row r="146" spans="2:8" ht="147" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B146" s="18"/>
+      <c r="C146" s="18"/>
+      <c r="D146" s="18"/>
+      <c r="E146" s="18"/>
+      <c r="F146" s="18"/>
+      <c r="G146" s="18"/>
+      <c r="H146" s="18"/>
+    </row>
+    <row r="147" spans="2:8" ht="147" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B147" s="18"/>
+      <c r="C147" s="18"/>
+      <c r="D147" s="18"/>
+      <c r="E147" s="18"/>
+      <c r="F147" s="18"/>
+      <c r="G147" s="18"/>
+      <c r="H147" s="18"/>
+    </row>
+    <row r="148" spans="2:8" ht="147" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B148" s="18"/>
+      <c r="C148" s="18"/>
+      <c r="D148" s="18"/>
+      <c r="E148" s="18"/>
+      <c r="F148" s="18"/>
+      <c r="G148" s="18"/>
+      <c r="H148" s="18"/>
+    </row>
+    <row r="149" spans="2:8" ht="147" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B149" s="18"/>
+      <c r="C149" s="18"/>
+      <c r="D149" s="18"/>
+      <c r="E149" s="18"/>
+      <c r="F149" s="18"/>
+      <c r="G149" s="18"/>
+      <c r="H149" s="18"/>
+    </row>
+    <row r="150" spans="2:8" ht="147" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B150" s="18"/>
+      <c r="C150" s="18"/>
+      <c r="D150" s="18"/>
+      <c r="E150" s="18"/>
+      <c r="F150" s="18"/>
+      <c r="G150" s="18"/>
+      <c r="H150" s="18"/>
+    </row>
+    <row r="151" spans="2:8" ht="147" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B151" s="18"/>
+      <c r="C151" s="18"/>
+      <c r="D151" s="18"/>
+      <c r="E151" s="18"/>
+      <c r="F151" s="18"/>
+      <c r="G151" s="18"/>
+      <c r="H151" s="18"/>
+    </row>
+    <row r="152" spans="2:8" ht="147" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B152" s="18"/>
+      <c r="C152" s="18"/>
+      <c r="D152" s="18"/>
+      <c r="E152" s="18"/>
+      <c r="F152" s="18"/>
+      <c r="G152" s="18"/>
+      <c r="H152" s="18"/>
+    </row>
+    <row r="153" spans="2:8" ht="147" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B153" s="18"/>
+      <c r="C153" s="18"/>
+      <c r="D153" s="18"/>
+      <c r="E153" s="18"/>
+      <c r="F153" s="18"/>
+      <c r="G153" s="18"/>
+      <c r="H153" s="18"/>
+    </row>
+    <row r="154" spans="2:8" ht="147" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B154" s="18"/>
+      <c r="C154" s="18"/>
+      <c r="D154" s="18"/>
+      <c r="E154" s="18"/>
+      <c r="F154" s="18"/>
+      <c r="G154" s="18"/>
+      <c r="H154" s="18"/>
+    </row>
+    <row r="155" spans="2:8" ht="147" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B155" s="18"/>
+      <c r="C155" s="18"/>
+      <c r="D155" s="18"/>
+      <c r="E155" s="18"/>
+      <c r="F155" s="18"/>
+      <c r="G155" s="18"/>
+      <c r="H155" s="18"/>
+    </row>
+    <row r="156" spans="2:8" ht="147" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B156" s="18"/>
+      <c r="C156" s="18"/>
+      <c r="D156" s="18"/>
+      <c r="E156" s="18"/>
+      <c r="F156" s="18"/>
+      <c r="G156" s="18"/>
+      <c r="H156" s="18"/>
+    </row>
+    <row r="157" spans="2:8" ht="147" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B157" s="18"/>
+      <c r="C157" s="18"/>
+      <c r="D157" s="18"/>
+      <c r="E157" s="18"/>
+      <c r="F157" s="18"/>
+      <c r="G157" s="18"/>
+      <c r="H157" s="18"/>
+    </row>
+    <row r="158" spans="2:8" ht="147" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B158" s="18"/>
+      <c r="C158" s="18"/>
+      <c r="D158" s="18"/>
+      <c r="E158" s="18"/>
+      <c r="F158" s="18"/>
+      <c r="G158" s="18"/>
+      <c r="H158" s="18"/>
+    </row>
+    <row r="159" spans="2:8" ht="147" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B159" s="18"/>
+      <c r="C159" s="18"/>
+      <c r="D159" s="18"/>
+      <c r="E159" s="18"/>
+      <c r="F159" s="18"/>
+      <c r="G159" s="18"/>
+      <c r="H159" s="18"/>
+    </row>
+    <row r="160" spans="2:8" ht="147" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B160" s="18"/>
+      <c r="C160" s="18"/>
+      <c r="D160" s="18"/>
+      <c r="E160" s="18"/>
+      <c r="F160" s="18"/>
+      <c r="G160" s="18"/>
+      <c r="H160" s="18"/>
+    </row>
+    <row r="161" spans="2:8" ht="147" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B161" s="18"/>
+      <c r="C161" s="18"/>
+      <c r="D161" s="18"/>
+      <c r="E161" s="18"/>
+      <c r="F161" s="18"/>
+      <c r="G161" s="18"/>
+      <c r="H161" s="18"/>
+    </row>
+    <row r="162" spans="2:8" ht="147" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B162" s="18"/>
+      <c r="C162" s="18"/>
+      <c r="D162" s="18"/>
+      <c r="E162" s="18"/>
+      <c r="F162" s="18"/>
+      <c r="G162" s="18"/>
+      <c r="H162" s="18"/>
+    </row>
+    <row r="163" spans="2:8" ht="147" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B163" s="18"/>
+      <c r="C163" s="18"/>
+      <c r="D163" s="18"/>
+      <c r="E163" s="18"/>
+      <c r="F163" s="18"/>
+      <c r="G163" s="18"/>
+      <c r="H163" s="18"/>
+    </row>
+    <row r="164" spans="2:8" ht="147" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B164" s="18"/>
+      <c r="C164" s="18"/>
+      <c r="D164" s="18"/>
+      <c r="E164" s="18"/>
+      <c r="F164" s="18"/>
+      <c r="G164" s="18"/>
+      <c r="H164" s="18"/>
+    </row>
+    <row r="165" spans="2:8" ht="147" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B165" s="18"/>
+      <c r="C165" s="18"/>
+      <c r="D165" s="18"/>
+      <c r="E165" s="18"/>
+      <c r="F165" s="18"/>
+      <c r="G165" s="18"/>
+      <c r="H165" s="18"/>
+    </row>
+    <row r="166" spans="2:8" ht="147" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B166" s="18"/>
+      <c r="C166" s="18"/>
+      <c r="D166" s="18"/>
+      <c r="E166" s="18"/>
+      <c r="F166" s="18"/>
+      <c r="G166" s="18"/>
+      <c r="H166" s="18"/>
+    </row>
+    <row r="167" spans="2:8" ht="147" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B167" s="18"/>
+      <c r="C167" s="18"/>
+      <c r="D167" s="18"/>
+      <c r="E167" s="18"/>
+      <c r="F167" s="18"/>
+      <c r="G167" s="18"/>
+      <c r="H167" s="18"/>
+    </row>
+    <row r="168" spans="2:8" ht="147" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B168" s="18"/>
+      <c r="C168" s="18"/>
+      <c r="D168" s="18"/>
+      <c r="E168" s="18"/>
+      <c r="F168" s="18"/>
+      <c r="G168" s="18"/>
+      <c r="H168" s="18"/>
+    </row>
+    <row r="169" spans="2:8" ht="147" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B169" s="18"/>
+      <c r="C169" s="18"/>
+      <c r="D169" s="18"/>
+      <c r="E169" s="18"/>
+      <c r="F169" s="18"/>
+      <c r="G169" s="18"/>
+      <c r="H169" s="18"/>
+    </row>
+    <row r="170" spans="2:8" ht="147" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B170" s="18"/>
+      <c r="C170" s="18"/>
+      <c r="D170" s="18"/>
+      <c r="E170" s="18"/>
+      <c r="F170" s="18"/>
+      <c r="G170" s="18"/>
+      <c r="H170" s="18"/>
+    </row>
+    <row r="171" spans="2:8" ht="147" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B171" s="18"/>
+      <c r="C171" s="18"/>
+      <c r="D171" s="18"/>
+      <c r="E171" s="18"/>
+      <c r="F171" s="18"/>
+      <c r="G171" s="18"/>
+      <c r="H171" s="18"/>
+    </row>
+    <row r="172" spans="2:8" ht="147" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B172" s="18"/>
+      <c r="C172" s="18"/>
+      <c r="D172" s="18"/>
+      <c r="E172" s="18"/>
+      <c r="F172" s="18"/>
+      <c r="G172" s="18"/>
+      <c r="H172" s="18"/>
+    </row>
+    <row r="173" spans="2:8" ht="147" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B173" s="18"/>
+      <c r="C173" s="18"/>
+      <c r="D173" s="18"/>
+      <c r="E173" s="18"/>
+      <c r="F173" s="18"/>
+      <c r="G173" s="18"/>
+      <c r="H173" s="18"/>
+    </row>
+    <row r="174" spans="2:8" ht="147" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B174" s="18"/>
+      <c r="C174" s="18"/>
+      <c r="D174" s="18"/>
+      <c r="E174" s="18"/>
+      <c r="F174" s="18"/>
+      <c r="G174" s="18"/>
+      <c r="H174" s="18"/>
+    </row>
+    <row r="175" spans="2:8" ht="147" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B175" s="18"/>
+      <c r="C175" s="18"/>
+      <c r="D175" s="18"/>
+      <c r="E175" s="18"/>
+      <c r="F175" s="18"/>
+      <c r="G175" s="18"/>
+      <c r="H175" s="18"/>
+    </row>
+    <row r="176" spans="2:8" ht="147" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B176" s="18"/>
+      <c r="C176" s="18"/>
+      <c r="D176" s="18"/>
+      <c r="E176" s="18"/>
+      <c r="F176" s="18"/>
+      <c r="G176" s="18"/>
+      <c r="H176" s="18"/>
+    </row>
+    <row r="177" spans="2:8" ht="147" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B177" s="18"/>
+      <c r="C177" s="18"/>
+      <c r="D177" s="18"/>
+      <c r="E177" s="18"/>
+      <c r="F177" s="18"/>
+      <c r="G177" s="18"/>
+      <c r="H177" s="18"/>
+    </row>
+    <row r="178" spans="2:8" ht="147" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B178" s="18"/>
+      <c r="C178" s="18"/>
+      <c r="D178" s="18"/>
+      <c r="E178" s="18"/>
+      <c r="F178" s="18"/>
+      <c r="G178" s="18"/>
+      <c r="H178" s="18"/>
+    </row>
+    <row r="179" spans="2:8" ht="147" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B179" s="18"/>
+      <c r="C179" s="18"/>
+      <c r="D179" s="18"/>
+      <c r="E179" s="18"/>
+      <c r="F179" s="18"/>
+      <c r="G179" s="18"/>
+      <c r="H179" s="18"/>
+    </row>
+    <row r="180" spans="2:8" ht="147" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B180" s="18"/>
+      <c r="C180" s="18"/>
+      <c r="D180" s="18"/>
+      <c r="E180" s="18"/>
+      <c r="F180" s="18"/>
+      <c r="G180" s="18"/>
+      <c r="H180" s="18"/>
+    </row>
+    <row r="181" spans="2:8" ht="147" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B181" s="18"/>
+      <c r="C181" s="18"/>
+      <c r="D181" s="18"/>
+      <c r="E181" s="18"/>
+      <c r="F181" s="18"/>
+      <c r="G181" s="18"/>
+      <c r="H181" s="18"/>
+    </row>
+    <row r="182" spans="2:8" ht="147" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B182" s="18"/>
+      <c r="C182" s="18"/>
+      <c r="D182" s="18"/>
+      <c r="E182" s="18"/>
+      <c r="F182" s="18"/>
+      <c r="G182" s="18"/>
+      <c r="H182" s="18"/>
+    </row>
+    <row r="183" spans="2:8" ht="147" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B183" s="18"/>
+      <c r="C183" s="18"/>
+      <c r="D183" s="18"/>
+      <c r="E183" s="18"/>
+      <c r="F183" s="18"/>
+      <c r="G183" s="18"/>
+      <c r="H183" s="18"/>
+    </row>
+    <row r="184" spans="2:8" ht="147" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B184" s="18"/>
+      <c r="C184" s="18"/>
+      <c r="D184" s="18"/>
+      <c r="E184" s="18"/>
+      <c r="F184" s="18"/>
+      <c r="G184" s="18"/>
+      <c r="H184" s="18"/>
+    </row>
+    <row r="185" spans="2:8" ht="147" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B185" s="18"/>
+      <c r="C185" s="18"/>
+      <c r="D185" s="18"/>
+      <c r="E185" s="18"/>
+      <c r="F185" s="18"/>
+      <c r="G185" s="18"/>
+      <c r="H185" s="18"/>
+    </row>
+    <row r="186" spans="2:8" ht="147" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B186" s="18"/>
+      <c r="C186" s="18"/>
+      <c r="D186" s="18"/>
+      <c r="E186" s="18"/>
+      <c r="F186" s="18"/>
+      <c r="G186" s="18"/>
+      <c r="H186" s="18"/>
+    </row>
+    <row r="187" spans="2:8" ht="147" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B187" s="18"/>
+      <c r="C187" s="18"/>
+      <c r="D187" s="18"/>
+      <c r="E187" s="18"/>
+      <c r="F187" s="18"/>
+      <c r="G187" s="18"/>
+      <c r="H187" s="18"/>
+    </row>
+    <row r="188" spans="2:8" ht="147" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B188" s="18"/>
+      <c r="C188" s="18"/>
+      <c r="D188" s="18"/>
+      <c r="E188" s="18"/>
+      <c r="F188" s="18"/>
+      <c r="G188" s="18"/>
+      <c r="H188" s="18"/>
+    </row>
+    <row r="189" spans="2:8" ht="147" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B189" s="18"/>
+      <c r="C189" s="18"/>
+      <c r="D189" s="18"/>
+      <c r="E189" s="18"/>
+      <c r="F189" s="18"/>
+      <c r="G189" s="18"/>
+      <c r="H189" s="18"/>
+    </row>
+    <row r="190" spans="2:8" ht="147" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B190" s="18"/>
+      <c r="C190" s="18"/>
+      <c r="D190" s="18"/>
+      <c r="E190" s="18"/>
+      <c r="F190" s="18"/>
+      <c r="G190" s="18"/>
+      <c r="H190" s="18"/>
+    </row>
+    <row r="191" spans="2:8" ht="147" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B191" s="18"/>
+      <c r="C191" s="18"/>
+      <c r="D191" s="18"/>
+      <c r="E191" s="18"/>
+      <c r="F191" s="18"/>
+      <c r="G191" s="18"/>
+      <c r="H191" s="18"/>
+    </row>
+    <row r="192" spans="2:8" ht="147" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B192" s="18"/>
+      <c r="C192" s="18"/>
+      <c r="D192" s="18"/>
+      <c r="E192" s="18"/>
+      <c r="F192" s="18"/>
+      <c r="G192" s="18"/>
+      <c r="H192" s="18"/>
+    </row>
+    <row r="193" spans="2:8" ht="147" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B193" s="18"/>
+      <c r="C193" s="18"/>
+      <c r="D193" s="18"/>
+      <c r="E193" s="18"/>
+      <c r="F193" s="18"/>
+      <c r="G193" s="18"/>
+      <c r="H193" s="18"/>
+    </row>
+    <row r="194" spans="2:8" ht="147" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B194" s="18"/>
+      <c r="C194" s="18"/>
+      <c r="D194" s="18"/>
+      <c r="E194" s="18"/>
+      <c r="F194" s="18"/>
+      <c r="G194" s="18"/>
+      <c r="H194" s="18"/>
+    </row>
+    <row r="195" spans="2:8" ht="147" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B195" s="18"/>
+      <c r="C195" s="18"/>
+      <c r="D195" s="18"/>
+      <c r="E195" s="18"/>
+      <c r="F195" s="18"/>
+      <c r="G195" s="18"/>
+      <c r="H195" s="18"/>
+    </row>
+    <row r="196" spans="2:8" ht="147" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B196" s="18"/>
+      <c r="C196" s="18"/>
+      <c r="D196" s="18"/>
+      <c r="E196" s="18"/>
+      <c r="F196" s="18"/>
+      <c r="G196" s="18"/>
+      <c r="H196" s="18"/>
+    </row>
+    <row r="197" spans="2:8" ht="147" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B197" s="18"/>
+      <c r="C197" s="18"/>
+      <c r="D197" s="18"/>
+      <c r="E197" s="18"/>
+      <c r="F197" s="18"/>
+      <c r="G197" s="18"/>
+      <c r="H197" s="18"/>
+    </row>
+    <row r="198" spans="2:8" ht="147" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B198" s="18"/>
+      <c r="C198" s="18"/>
+      <c r="D198" s="18"/>
+      <c r="E198" s="18"/>
+      <c r="F198" s="18"/>
+      <c r="G198" s="18"/>
+      <c r="H198" s="18"/>
+    </row>
+    <row r="199" spans="2:8" ht="147" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B199" s="18"/>
+      <c r="C199" s="18"/>
+      <c r="D199" s="18"/>
+      <c r="E199" s="18"/>
+      <c r="F199" s="18"/>
+      <c r="G199" s="18"/>
+      <c r="H199" s="18"/>
+    </row>
+    <row r="200" spans="2:8" ht="147" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B200" s="18"/>
+      <c r="C200" s="18"/>
+      <c r="D200" s="18"/>
+      <c r="E200" s="18"/>
+      <c r="F200" s="18"/>
+      <c r="G200" s="18"/>
+      <c r="H200" s="18"/>
+    </row>
+    <row r="201" spans="2:8" ht="147" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B201" s="18"/>
+      <c r="C201" s="18"/>
+      <c r="D201" s="18"/>
+      <c r="E201" s="18"/>
+      <c r="F201" s="18"/>
+      <c r="G201" s="18"/>
+      <c r="H201" s="18"/>
+    </row>
+    <row r="202" spans="2:8" ht="147" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B202" s="18"/>
+      <c r="C202" s="18"/>
+      <c r="D202" s="18"/>
+      <c r="E202" s="18"/>
+      <c r="F202" s="18"/>
+      <c r="G202" s="18"/>
+      <c r="H202" s="18"/>
+    </row>
+    <row r="203" spans="2:8" ht="147" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B203" s="18"/>
+      <c r="C203" s="18"/>
+      <c r="D203" s="18"/>
+      <c r="E203" s="18"/>
+      <c r="F203" s="18"/>
+      <c r="G203" s="18"/>
+      <c r="H203" s="18"/>
+    </row>
+    <row r="204" spans="2:8" ht="147" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B204" s="18"/>
+      <c r="C204" s="18"/>
+      <c r="D204" s="18"/>
+      <c r="E204" s="18"/>
+      <c r="F204" s="18"/>
+      <c r="G204" s="18"/>
+      <c r="H204" s="18"/>
+    </row>
+    <row r="205" spans="2:8" ht="147" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B205" s="18"/>
+      <c r="C205" s="18"/>
+      <c r="D205" s="18"/>
+      <c r="E205" s="18"/>
+      <c r="F205" s="18"/>
+      <c r="G205" s="18"/>
+      <c r="H205" s="18"/>
+    </row>
+    <row r="206" spans="2:8" ht="147" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B206" s="18"/>
+      <c r="C206" s="18"/>
+      <c r="D206" s="18"/>
+      <c r="E206" s="18"/>
+      <c r="F206" s="18"/>
+      <c r="G206" s="18"/>
+      <c r="H206" s="18"/>
+    </row>
+    <row r="207" spans="2:8" ht="147" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B207" s="18"/>
+      <c r="C207" s="18"/>
+      <c r="D207" s="18"/>
+      <c r="E207" s="18"/>
+      <c r="F207" s="18"/>
+      <c r="G207" s="18"/>
+      <c r="H207" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="E45:I45"/>
+    <mergeCell ref="C30:K30"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="E31:K31"/>
+    <mergeCell ref="F33:K33"/>
+    <mergeCell ref="F34:K34"/>
+    <mergeCell ref="F35:K35"/>
+    <mergeCell ref="E45:J45"/>
     <mergeCell ref="A42:D45"/>
-    <mergeCell ref="A47:J47"/>
+    <mergeCell ref="A47:K47"/>
     <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C32:J32"/>
-    <mergeCell ref="E42:I42"/>
-    <mergeCell ref="E43:I43"/>
-    <mergeCell ref="E44:I44"/>
+    <mergeCell ref="C32:K32"/>
+    <mergeCell ref="E42:J42"/>
+    <mergeCell ref="E43:J43"/>
+    <mergeCell ref="E44:J44"/>
     <mergeCell ref="D33:E33"/>
     <mergeCell ref="D34:E35"/>
     <mergeCell ref="D36:E37"/>
     <mergeCell ref="D38:E38"/>
-    <mergeCell ref="F36:J36"/>
-    <mergeCell ref="F37:J37"/>
-    <mergeCell ref="F38:J38"/>
-    <mergeCell ref="F39:J39"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="E31:J31"/>
-    <mergeCell ref="F33:J33"/>
-    <mergeCell ref="F34:J34"/>
-    <mergeCell ref="F35:J35"/>
-    <mergeCell ref="C30:J30"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="F36:K36"/>
+    <mergeCell ref="F37:K37"/>
+    <mergeCell ref="F38:K38"/>
+    <mergeCell ref="F39:K39"/>
   </mergeCells>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="B1:B22">
-    <cfRule type="cellIs" dxfId="42" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="21" operator="equal">
       <formula>"PATCH"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="41" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="22" operator="equal">
       <formula>"HEAD"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="23" operator="equal">
       <formula>"OPTIONS"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="24" operator="equal">
       <formula>"DELETE"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="25" operator="equal">
       <formula>"POST"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="26" operator="equal">
       <formula>"GET"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="27" operator="equal">
+      <formula>"PUT"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B23:C23">
+    <cfRule type="cellIs" dxfId="32" priority="8" operator="equal">
+      <formula>"PATCH"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="31" priority="9" operator="equal">
+      <formula>"HEAD"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="30" priority="10" operator="equal">
+      <formula>"OPTIONS"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="29" priority="11" operator="equal">
+      <formula>"DELETE"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="28" priority="12" operator="equal">
+      <formula>"POST"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="27" priority="13" operator="equal">
+      <formula>"GET"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="26" priority="14" operator="equal">
       <formula>"PUT"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C22">
-    <cfRule type="cellIs" dxfId="35" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="28" operator="equal">
       <formula>"DOCUMENTED"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="29" operator="equal">
       <formula>"UNDOCUMENTED"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C24 C33:C41 C47:C1002">
-    <cfRule type="cellIs" dxfId="33" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="35" operator="equal">
       <formula>"PATCH"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="36" operator="equal">
       <formula>"HEAD"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="37" operator="equal">
       <formula>"OPTIONS"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="38" operator="equal">
       <formula>"DELETE"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="39" operator="equal">
       <formula>"POST"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="40" operator="equal">
       <formula>"GET"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="41" operator="equal">
       <formula>"PUT"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="C23:D23">
+    <cfRule type="cellIs" dxfId="16" priority="15" operator="equal">
+      <formula>"DOCUMENTED"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="15" priority="16" operator="equal">
+      <formula>"UNDOCUMENTED"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="D2:D3 D5:D22">
-    <cfRule type="cellIs" dxfId="26" priority="48" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="48" stopIfTrue="1" operator="equal">
       <formula>"method not allowed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D24 D47:D1002">
-    <cfRule type="cellIs" dxfId="25" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="42" operator="equal">
       <formula>"DOCUMENTED"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="43" operator="equal">
-      <formula>"UNDOCUMENTED"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E1:E22">
-    <cfRule type="cellIs" dxfId="23" priority="30" operator="equal">
-      <formula>"N/A"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="31" operator="equal">
-      <formula>"YES"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="32" operator="equal">
-      <formula>"NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F24:F29 F47:F1002 A28:E28">
-    <cfRule type="cellIs" dxfId="20" priority="44" operator="equal">
-      <formula>"N/A"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="45" operator="equal">
-      <formula>"YES"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="46" operator="equal">
-      <formula>"NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B23:C23">
-    <cfRule type="cellIs" dxfId="17" priority="8" operator="equal">
-      <formula>"PATCH"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="9" operator="equal">
-      <formula>"HEAD"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="10" operator="equal">
-      <formula>"OPTIONS"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="11" operator="equal">
-      <formula>"DELETE"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="12" operator="equal">
-      <formula>"POST"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="13" operator="equal">
-      <formula>"GET"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="14" operator="equal">
-      <formula>"PUT"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C23:D23">
-    <cfRule type="cellIs" dxfId="10" priority="15" operator="equal">
-      <formula>"DOCUMENTED"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="43" operator="equal">
       <formula>"UNDOCUMENTED"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23:E23">
-    <cfRule type="cellIs" dxfId="8" priority="17" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="17" stopIfTrue="1" operator="equal">
       <formula>"method not allowed"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E23">
-    <cfRule type="cellIs" dxfId="7" priority="18" operator="equal">
+  <conditionalFormatting sqref="E1:E23">
+    <cfRule type="cellIs" dxfId="10" priority="18" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="19" operator="equal">
       <formula>"YES"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="20" operator="equal">
+      <formula>"NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F24:F29 A28:E28 F47:F1002">
+    <cfRule type="cellIs" dxfId="7" priority="44" operator="equal">
+      <formula>"N/A"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="45" operator="equal">
+      <formula>"YES"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="46" operator="equal">
       <formula>"NO"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4761,7 +5049,7 @@
       <formula>"UNDOCUMENTED"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H41">
+  <conditionalFormatting sqref="I41">
     <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
@@ -4772,7 +5060,7 @@
       <formula>"NO"</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="4">
+  <dataValidations disablePrompts="1" count="4">
     <dataValidation type="list" allowBlank="1" sqref="D2:D3 D5:D23" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>"method not allowed"</formula1>
     </dataValidation>
@@ -4806,13 +5094,13 @@
       <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="25.83203125" customWidth="1"/>
     <col min="2" max="2" width="14.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" customHeight="1">
+    <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>12</v>
       </c>
@@ -4826,7 +5114,7 @@
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
     </row>
-    <row r="2" spans="1:8" ht="15" customHeight="1">
+    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
         <v>13</v>
       </c>
@@ -4840,7 +5128,7 @@
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" spans="1:8" ht="15" customHeight="1">
+    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -4850,7 +5138,7 @@
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
     </row>
-    <row r="4" spans="1:8" ht="15" customHeight="1">
+    <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>14</v>
       </c>
@@ -4862,7 +5150,7 @@
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
     </row>
-    <row r="5" spans="1:8" ht="15" customHeight="1">
+    <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -4872,7 +5160,7 @@
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
     </row>
-    <row r="6" spans="1:8" ht="15" customHeight="1">
+    <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -4882,7 +5170,7 @@
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
     </row>
-    <row r="7" spans="1:8" ht="15" customHeight="1">
+    <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -4892,7 +5180,7 @@
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
     </row>
-    <row r="8" spans="1:8" ht="15" customHeight="1">
+    <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -4902,7 +5190,7 @@
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
     </row>
-    <row r="9" spans="1:8" ht="15" customHeight="1">
+    <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -4912,7 +5200,7 @@
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
     </row>
-    <row r="10" spans="1:8" ht="15" customHeight="1">
+    <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -4922,7 +5210,7 @@
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
     </row>
-    <row r="11" spans="1:8" ht="15" customHeight="1">
+    <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -4932,7 +5220,7 @@
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
     </row>
-    <row r="12" spans="1:8" ht="15" customHeight="1">
+    <row r="12" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -4942,7 +5230,7 @@
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
     </row>
-    <row r="13" spans="1:8" ht="15" customHeight="1">
+    <row r="13" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>15</v>
       </c>
@@ -4954,7 +5242,7 @@
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
     </row>
-    <row r="14" spans="1:8" ht="15" customHeight="1">
+    <row r="14" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -4964,7 +5252,7 @@
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
     </row>
-    <row r="15" spans="1:8" ht="15" customHeight="1">
+    <row r="15" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -4974,7 +5262,7 @@
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
     </row>
-    <row r="16" spans="1:8" ht="15" customHeight="1">
+    <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -4984,7 +5272,7 @@
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
     </row>
-    <row r="17" spans="1:8" ht="15" customHeight="1">
+    <row r="17" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -4994,7 +5282,7 @@
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
     </row>
-    <row r="18" spans="1:8" ht="15" customHeight="1">
+    <row r="18" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -5004,7 +5292,7 @@
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
     </row>
-    <row r="19" spans="1:8" ht="15" customHeight="1">
+    <row r="19" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -5014,7 +5302,7 @@
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
     </row>
-    <row r="20" spans="1:8" ht="15" customHeight="1">
+    <row r="20" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
         <v>16</v>
       </c>
@@ -5026,7 +5314,7 @@
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
     </row>
-    <row r="21" spans="1:8" ht="15" customHeight="1">
+    <row r="21" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="3"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
@@ -5035,7 +5323,7 @@
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
     </row>
-    <row r="22" spans="1:8" ht="15" customHeight="1">
+    <row r="22" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="3"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -5045,7 +5333,7 @@
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
     </row>
-    <row r="23" spans="1:8" ht="15" customHeight="1">
+    <row r="23" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
         <v>17</v>
       </c>
@@ -5057,7 +5345,7 @@
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
     </row>
-    <row r="24" spans="1:8" ht="15" customHeight="1">
+    <row r="24" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="3"/>
       <c r="B24" s="1"/>
       <c r="C24" s="2"/>
@@ -5067,7 +5355,7 @@
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
     </row>
-    <row r="25" spans="1:8" ht="15" customHeight="1">
+    <row r="25" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="3"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -5077,16 +5365,16 @@
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
     </row>
-    <row r="26" spans="1:8" ht="15" customHeight="1">
+    <row r="26" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="5"/>
       <c r="B26" s="2"/>
     </row>
-    <row r="27" spans="1:8" ht="15" customHeight="1">
+    <row r="27" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="5"/>
       <c r="B27" s="1"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/ExploratoryTests/Session #2.xlsx
+++ b/ExploratoryTests/Session #2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mohamedelsamadouny/Desktop/Winter2025/ECSE429/A/ECSE429-Mohamed-Amgad/ExploratoryTests/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC94B2F4-ACE4-8A47-9DF0-B6018A0904A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83CF2681-5C15-DE4A-B0D2-804B8098610C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="124">
   <si>
     <t>Method</t>
   </si>
@@ -424,6 +424,32 @@
   </si>
   <si>
     <t>curl -X OPTIONS "http://localhost:4567/projects"</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">         Future Test Ideas: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="24"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Sending multiple API calls at once, using incorrect data types, and testing for security like by trying to do SQL injection. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="24"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
   </si>
 </sst>
 </file>
@@ -729,9 +755,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -842,6 +865,9 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2454,20 +2480,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L207"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="41" zoomScaleNormal="49" workbookViewId="0">
-      <selection activeCell="M24" sqref="M24"/>
+    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="66" zoomScaleNormal="49" workbookViewId="0">
+      <selection activeCell="G41" sqref="F41:G41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="147" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="30.1640625" style="17" customWidth="1"/>
-    <col min="2" max="2" width="12.1640625" style="17" customWidth="1"/>
-    <col min="3" max="3" width="16.5" style="17" customWidth="1"/>
-    <col min="4" max="4" width="26.6640625" style="17" customWidth="1"/>
-    <col min="5" max="5" width="18.6640625" style="17" customWidth="1"/>
-    <col min="6" max="6" width="32" style="17" customWidth="1"/>
-    <col min="7" max="8" width="32.83203125" style="17" customWidth="1"/>
-    <col min="9" max="9" width="46.1640625" style="17" customWidth="1"/>
+    <col min="1" max="1" width="30.1640625" style="16" customWidth="1"/>
+    <col min="2" max="2" width="12.1640625" style="16" customWidth="1"/>
+    <col min="3" max="3" width="16.5" style="16" customWidth="1"/>
+    <col min="4" max="4" width="26.6640625" style="16" customWidth="1"/>
+    <col min="5" max="5" width="18.6640625" style="16" customWidth="1"/>
+    <col min="6" max="6" width="32" style="16" customWidth="1"/>
+    <col min="7" max="8" width="32.83203125" style="16" customWidth="1"/>
+    <col min="9" max="9" width="46.1640625" style="16" customWidth="1"/>
     <col min="10" max="10" width="17.1640625" customWidth="1"/>
     <col min="11" max="11" width="10.5" customWidth="1"/>
     <col min="12" max="12" width="11.1640625" customWidth="1"/>
@@ -2496,7 +2522,7 @@
       <c r="G1" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="H1" s="47" t="s">
+      <c r="H1" s="46" t="s">
         <v>105</v>
       </c>
       <c r="I1" s="11" t="s">
@@ -2523,12 +2549,12 @@
         <v>27</v>
       </c>
       <c r="G2" s="10"/>
-      <c r="H2" s="50" t="s">
+      <c r="H2" s="49" t="s">
         <v>106</v>
       </c>
       <c r="I2" s="10"/>
-      <c r="K2" s="49"/>
-      <c r="L2" s="48"/>
+      <c r="K2" s="48"/>
+      <c r="L2" s="47"/>
     </row>
     <row r="3" spans="1:12" ht="147" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
@@ -2550,12 +2576,12 @@
         <v>29</v>
       </c>
       <c r="G3" s="10"/>
-      <c r="H3" s="50" t="s">
+      <c r="H3" s="49" t="s">
         <v>107</v>
       </c>
       <c r="I3" s="10"/>
-      <c r="K3" s="49"/>
-      <c r="L3" s="48"/>
+      <c r="K3" s="48"/>
+      <c r="L3" s="47"/>
     </row>
     <row r="4" spans="1:12" ht="147" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
@@ -2567,7 +2593,7 @@
       <c r="C4" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="D4" s="15" t="s">
         <v>32</v>
       </c>
       <c r="E4" s="9" t="s">
@@ -2577,12 +2603,12 @@
         <v>33</v>
       </c>
       <c r="G4" s="10"/>
-      <c r="H4" s="50" t="s">
+      <c r="H4" s="49" t="s">
         <v>108</v>
       </c>
       <c r="I4" s="10"/>
-      <c r="K4" s="49"/>
-      <c r="L4" s="48"/>
+      <c r="K4" s="48"/>
+      <c r="L4" s="47"/>
     </row>
     <row r="5" spans="1:12" ht="147" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
@@ -2604,12 +2630,12 @@
         <v>34</v>
       </c>
       <c r="G5" s="10"/>
-      <c r="H5" s="50" t="s">
+      <c r="H5" s="49" t="s">
         <v>108</v>
       </c>
       <c r="I5" s="10"/>
-      <c r="K5" s="49"/>
-      <c r="L5" s="48"/>
+      <c r="K5" s="48"/>
+      <c r="L5" s="47"/>
     </row>
     <row r="6" spans="1:12" ht="147" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
@@ -2631,12 +2657,12 @@
         <v>36</v>
       </c>
       <c r="G6" s="10"/>
-      <c r="H6" s="50" t="s">
+      <c r="H6" s="49" t="s">
         <v>108</v>
       </c>
       <c r="I6" s="11"/>
-      <c r="K6" s="49"/>
-      <c r="L6" s="48"/>
+      <c r="K6" s="48"/>
+      <c r="L6" s="47"/>
     </row>
     <row r="7" spans="1:12" ht="147" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
@@ -2658,12 +2684,12 @@
         <v>38</v>
       </c>
       <c r="G7" s="10"/>
-      <c r="H7" s="50" t="s">
+      <c r="H7" s="49" t="s">
         <v>108</v>
       </c>
       <c r="I7" s="10"/>
-      <c r="K7" s="49"/>
-      <c r="L7" s="48"/>
+      <c r="K7" s="48"/>
+      <c r="L7" s="47"/>
     </row>
     <row r="8" spans="1:12" ht="147" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
@@ -2685,12 +2711,12 @@
         <v>27</v>
       </c>
       <c r="G8" s="10"/>
-      <c r="H8" s="50" t="s">
+      <c r="H8" s="49" t="s">
         <v>106</v>
       </c>
       <c r="I8" s="10"/>
-      <c r="K8" s="49"/>
-      <c r="L8" s="48"/>
+      <c r="K8" s="48"/>
+      <c r="L8" s="47"/>
     </row>
     <row r="9" spans="1:12" ht="147" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
@@ -2712,13 +2738,13 @@
         <v>71</v>
       </c>
       <c r="G9" s="10"/>
-      <c r="H9" s="50" t="s">
+      <c r="H9" s="49" t="s">
         <v>109</v>
       </c>
       <c r="I9" s="10"/>
       <c r="J9" s="7"/>
-      <c r="K9" s="49"/>
-      <c r="L9" s="48"/>
+      <c r="K9" s="48"/>
+      <c r="L9" s="47"/>
     </row>
     <row r="10" spans="1:12" ht="147" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
@@ -2740,13 +2766,13 @@
         <v>43</v>
       </c>
       <c r="G10" s="10"/>
-      <c r="H10" s="50" t="s">
+      <c r="H10" s="49" t="s">
         <v>110</v>
       </c>
       <c r="I10" s="10"/>
       <c r="J10" s="7"/>
-      <c r="K10" s="49"/>
-      <c r="L10" s="48"/>
+      <c r="K10" s="48"/>
+      <c r="L10" s="47"/>
     </row>
     <row r="11" spans="1:12" ht="147" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
@@ -2768,13 +2794,13 @@
         <v>45</v>
       </c>
       <c r="G11" s="10"/>
-      <c r="H11" s="50" t="s">
+      <c r="H11" s="49" t="s">
         <v>111</v>
       </c>
       <c r="I11" s="10"/>
       <c r="J11" s="7"/>
-      <c r="K11" s="49"/>
-      <c r="L11" s="48"/>
+      <c r="K11" s="48"/>
+      <c r="L11" s="47"/>
     </row>
     <row r="12" spans="1:12" ht="147" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
@@ -2796,13 +2822,13 @@
         <v>45</v>
       </c>
       <c r="G12" s="10"/>
-      <c r="H12" s="50" t="s">
+      <c r="H12" s="49" t="s">
         <v>112</v>
       </c>
       <c r="I12" s="10"/>
       <c r="J12" s="7"/>
-      <c r="K12" s="49"/>
-      <c r="L12" s="48"/>
+      <c r="K12" s="48"/>
+      <c r="L12" s="47"/>
     </row>
     <row r="13" spans="1:12" ht="147" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
@@ -2823,18 +2849,18 @@
       <c r="F13" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="G13" s="16" t="s">
+      <c r="G13" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="H13" s="50" t="s">
+      <c r="H13" s="49" t="s">
         <v>113</v>
       </c>
-      <c r="I13" s="16" t="s">
+      <c r="I13" s="15" t="s">
         <v>73</v>
       </c>
       <c r="J13" s="6"/>
-      <c r="K13" s="49"/>
-      <c r="L13" s="48"/>
+      <c r="K13" s="48"/>
+      <c r="L13" s="47"/>
     </row>
     <row r="14" spans="1:12" ht="147" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
@@ -2856,13 +2882,13 @@
         <v>47</v>
       </c>
       <c r="G14" s="10"/>
-      <c r="H14" s="50" t="s">
+      <c r="H14" s="49" t="s">
         <v>114</v>
       </c>
-      <c r="I14" s="14"/>
+      <c r="I14" s="13"/>
       <c r="J14" s="6"/>
-      <c r="K14" s="49"/>
-      <c r="L14" s="48"/>
+      <c r="K14" s="48"/>
+      <c r="L14" s="47"/>
     </row>
     <row r="15" spans="1:12" ht="147" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
@@ -2884,13 +2910,13 @@
         <v>76</v>
       </c>
       <c r="G15" s="10"/>
-      <c r="H15" s="50" t="s">
+      <c r="H15" s="49" t="s">
         <v>114</v>
       </c>
-      <c r="I15" s="14"/>
+      <c r="I15" s="13"/>
       <c r="J15" s="6"/>
-      <c r="K15" s="49"/>
-      <c r="L15" s="48"/>
+      <c r="K15" s="48"/>
+      <c r="L15" s="47"/>
     </row>
     <row r="16" spans="1:12" ht="147" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
@@ -2912,13 +2938,13 @@
         <v>49</v>
       </c>
       <c r="G16" s="10"/>
-      <c r="H16" s="50" t="s">
+      <c r="H16" s="49" t="s">
         <v>115</v>
       </c>
       <c r="I16" s="10"/>
       <c r="J16" s="6"/>
-      <c r="K16" s="49"/>
-      <c r="L16" s="48"/>
+      <c r="K16" s="48"/>
+      <c r="L16" s="47"/>
     </row>
     <row r="17" spans="1:12" ht="147" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
@@ -2940,13 +2966,13 @@
         <v>52</v>
       </c>
       <c r="G17" s="10"/>
-      <c r="H17" s="50" t="s">
+      <c r="H17" s="49" t="s">
         <v>116</v>
       </c>
       <c r="I17" s="10"/>
       <c r="J17" s="7"/>
-      <c r="K17" s="49"/>
-      <c r="L17" s="48"/>
+      <c r="K17" s="48"/>
+      <c r="L17" s="47"/>
     </row>
     <row r="18" spans="1:12" ht="147" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
@@ -2968,13 +2994,13 @@
         <v>54</v>
       </c>
       <c r="G18" s="10"/>
-      <c r="H18" s="50" t="s">
+      <c r="H18" s="49" t="s">
         <v>117</v>
       </c>
       <c r="I18" s="10"/>
       <c r="J18" s="7"/>
-      <c r="K18" s="49"/>
-      <c r="L18" s="48"/>
+      <c r="K18" s="48"/>
+      <c r="L18" s="47"/>
     </row>
     <row r="19" spans="1:12" ht="147" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
@@ -2996,13 +3022,13 @@
         <v>56</v>
       </c>
       <c r="G19" s="10"/>
-      <c r="H19" s="50" t="s">
+      <c r="H19" s="49" t="s">
         <v>118</v>
       </c>
       <c r="I19" s="10"/>
       <c r="J19" s="7"/>
-      <c r="K19" s="49"/>
-      <c r="L19" s="48"/>
+      <c r="K19" s="48"/>
+      <c r="L19" s="47"/>
     </row>
     <row r="20" spans="1:12" ht="147" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
@@ -3024,13 +3050,13 @@
         <v>58</v>
       </c>
       <c r="G20" s="10"/>
-      <c r="H20" s="50" t="s">
+      <c r="H20" s="49" t="s">
         <v>119</v>
       </c>
       <c r="I20" s="10"/>
       <c r="J20" s="7"/>
-      <c r="K20" s="49"/>
-      <c r="L20" s="48"/>
+      <c r="K20" s="48"/>
+      <c r="L20" s="47"/>
     </row>
     <row r="21" spans="1:12" ht="147" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
@@ -3052,13 +3078,13 @@
         <v>71</v>
       </c>
       <c r="G21" s="10"/>
-      <c r="H21" s="50" t="s">
+      <c r="H21" s="49" t="s">
         <v>120</v>
       </c>
       <c r="I21" s="10"/>
       <c r="J21" s="7"/>
-      <c r="K21" s="49"/>
-      <c r="L21" s="48"/>
+      <c r="K21" s="48"/>
+      <c r="L21" s="47"/>
     </row>
     <row r="22" spans="1:12" ht="147" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
@@ -3079,16 +3105,16 @@
       <c r="F22" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="G22" s="16" t="s">
+      <c r="G22" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="H22" s="50" t="s">
+      <c r="H22" s="49" t="s">
         <v>121</v>
       </c>
       <c r="I22" s="10"/>
       <c r="J22" s="7"/>
-      <c r="K22" s="49"/>
-      <c r="L22" s="48"/>
+      <c r="K22" s="48"/>
+      <c r="L22" s="47"/>
     </row>
     <row r="23" spans="1:12" ht="147" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
@@ -3103,1796 +3129,1806 @@
       <c r="D23" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="E23" s="51" t="s">
+      <c r="E23" s="50" t="s">
         <v>6</v>
       </c>
       <c r="F23" s="9" t="s">
         <v>64</v>
       </c>
       <c r="G23" s="10"/>
-      <c r="H23" s="50" t="s">
+      <c r="H23" s="49" t="s">
         <v>122</v>
       </c>
       <c r="I23" s="10"/>
       <c r="J23" s="6"/>
-      <c r="K23" s="49"/>
-      <c r="L23" s="48"/>
+      <c r="K23" s="48"/>
+      <c r="L23" s="47"/>
     </row>
     <row r="24" spans="1:12" ht="147" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="18"/>
-      <c r="C24" s="18"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="18"/>
-      <c r="F24" s="18"/>
-      <c r="G24" s="18"/>
-      <c r="H24" s="18"/>
+      <c r="B24" s="17"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="17"/>
+      <c r="G24" s="17"/>
+      <c r="H24" s="17"/>
       <c r="J24" s="6"/>
     </row>
     <row r="25" spans="1:12" ht="147" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="19" t="s">
+      <c r="A25" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="B25" s="46" t="s">
+      <c r="B25" s="45" t="s">
         <v>80</v>
       </c>
-      <c r="C25" s="46"/>
-      <c r="D25" s="46"/>
-      <c r="E25" s="46"/>
-      <c r="F25" s="18"/>
-      <c r="G25" s="24" t="s">
+      <c r="C25" s="45"/>
+      <c r="D25" s="45"/>
+      <c r="E25" s="45"/>
+      <c r="F25" s="17"/>
+      <c r="G25" s="23" t="s">
         <v>102</v>
       </c>
-      <c r="H25" s="24"/>
-      <c r="I25" s="23"/>
-      <c r="J25" s="23"/>
+      <c r="H25" s="23"/>
+      <c r="I25" s="22"/>
+      <c r="J25" s="22"/>
     </row>
     <row r="26" spans="1:12" ht="147" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="20" t="s">
+      <c r="A26" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="B26" s="45">
+      <c r="B26" s="44">
         <v>260987027</v>
       </c>
-      <c r="C26" s="45"/>
-      <c r="D26" s="45"/>
-      <c r="E26" s="45"/>
-      <c r="F26" s="18"/>
-      <c r="G26" s="23"/>
-      <c r="H26" s="23"/>
-      <c r="I26" s="23"/>
-      <c r="J26" s="23"/>
+      <c r="C26" s="44"/>
+      <c r="D26" s="44"/>
+      <c r="E26" s="44"/>
+      <c r="F26" s="17"/>
+      <c r="G26" s="22"/>
+      <c r="H26" s="22"/>
+      <c r="I26" s="22"/>
+      <c r="J26" s="22"/>
     </row>
     <row r="27" spans="1:12" ht="147" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="20" t="s">
+      <c r="A27" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="B27" s="43" t="s">
+      <c r="B27" s="42" t="s">
         <v>81</v>
       </c>
-      <c r="C27" s="44"/>
-      <c r="D27" s="44"/>
-      <c r="E27" s="44"/>
-      <c r="F27" s="18"/>
-      <c r="G27" s="23"/>
-      <c r="H27" s="23"/>
-      <c r="I27" s="23"/>
-      <c r="J27" s="23"/>
+      <c r="C27" s="43"/>
+      <c r="D27" s="43"/>
+      <c r="E27" s="43"/>
+      <c r="F27" s="17"/>
+      <c r="G27" s="22"/>
+      <c r="H27" s="22"/>
+      <c r="I27" s="22"/>
+      <c r="J27" s="22"/>
     </row>
     <row r="28" spans="1:12" ht="147" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="18"/>
-      <c r="B28" s="18"/>
-      <c r="C28" s="18"/>
-      <c r="D28" s="18"/>
-      <c r="E28" s="18"/>
-      <c r="F28" s="18"/>
-      <c r="G28" s="18"/>
-      <c r="H28" s="18"/>
+      <c r="A28" s="17"/>
+      <c r="B28" s="17"/>
+      <c r="C28" s="17"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="17"/>
+      <c r="G28" s="17"/>
+      <c r="H28" s="17"/>
       <c r="J28" s="7"/>
     </row>
     <row r="29" spans="1:12" ht="147" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="18"/>
-      <c r="C29" s="18"/>
-      <c r="D29" s="18"/>
-      <c r="E29" s="18"/>
-      <c r="F29" s="18"/>
-      <c r="G29" s="18"/>
-      <c r="H29" s="18"/>
+      <c r="B29" s="17"/>
+      <c r="C29" s="17"/>
+      <c r="D29" s="17"/>
+      <c r="E29" s="17"/>
+      <c r="F29" s="17"/>
+      <c r="G29" s="17"/>
+      <c r="H29" s="17"/>
       <c r="J29" s="7"/>
     </row>
     <row r="30" spans="1:12" ht="147" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C30" s="42" t="s">
+      <c r="C30" s="41" t="s">
         <v>82</v>
       </c>
-      <c r="D30" s="42"/>
-      <c r="E30" s="42"/>
-      <c r="F30" s="42"/>
-      <c r="G30" s="42"/>
-      <c r="H30" s="42"/>
-      <c r="I30" s="42"/>
-      <c r="J30" s="42"/>
-      <c r="K30" s="42"/>
+      <c r="D30" s="41"/>
+      <c r="E30" s="41"/>
+      <c r="F30" s="41"/>
+      <c r="G30" s="41"/>
+      <c r="H30" s="41"/>
+      <c r="I30" s="41"/>
+      <c r="J30" s="41"/>
+      <c r="K30" s="41"/>
     </row>
     <row r="31" spans="1:12" ht="147" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C31" s="28" t="s">
+      <c r="C31" s="27" t="s">
         <v>83</v>
       </c>
-      <c r="D31" s="28"/>
-      <c r="E31" s="40" t="s">
+      <c r="D31" s="27"/>
+      <c r="E31" s="39" t="s">
         <v>96</v>
       </c>
-      <c r="F31" s="40"/>
-      <c r="G31" s="40"/>
-      <c r="H31" s="40"/>
-      <c r="I31" s="40"/>
-      <c r="J31" s="40"/>
-      <c r="K31" s="40"/>
+      <c r="F31" s="39"/>
+      <c r="G31" s="39"/>
+      <c r="H31" s="39"/>
+      <c r="I31" s="39"/>
+      <c r="J31" s="39"/>
+      <c r="K31" s="39"/>
     </row>
     <row r="32" spans="1:12" ht="147" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="18"/>
-      <c r="C32" s="29" t="s">
+      <c r="B32" s="17"/>
+      <c r="C32" s="28" t="s">
         <v>103</v>
       </c>
-      <c r="D32" s="29"/>
-      <c r="E32" s="29"/>
-      <c r="F32" s="29"/>
-      <c r="G32" s="29"/>
-      <c r="H32" s="29"/>
-      <c r="I32" s="29"/>
-      <c r="J32" s="29"/>
-      <c r="K32" s="29"/>
+      <c r="D32" s="28"/>
+      <c r="E32" s="28"/>
+      <c r="F32" s="28"/>
+      <c r="G32" s="28"/>
+      <c r="H32" s="28"/>
+      <c r="I32" s="28"/>
+      <c r="J32" s="28"/>
+      <c r="K32" s="28"/>
     </row>
     <row r="33" spans="1:11" ht="147" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="18"/>
-      <c r="C33" s="18"/>
-      <c r="D33" s="31" t="s">
+      <c r="B33" s="17"/>
+      <c r="C33" s="17"/>
+      <c r="D33" s="30" t="s">
         <v>84</v>
       </c>
-      <c r="E33" s="31"/>
-      <c r="F33" s="41" t="s">
+      <c r="E33" s="30"/>
+      <c r="F33" s="40" t="s">
         <v>85</v>
       </c>
-      <c r="G33" s="41"/>
-      <c r="H33" s="41"/>
-      <c r="I33" s="41"/>
-      <c r="J33" s="41"/>
-      <c r="K33" s="41"/>
+      <c r="G33" s="40"/>
+      <c r="H33" s="40"/>
+      <c r="I33" s="40"/>
+      <c r="J33" s="40"/>
+      <c r="K33" s="40"/>
     </row>
     <row r="34" spans="1:11" ht="147" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="18"/>
-      <c r="C34" s="18"/>
-      <c r="D34" s="32" t="s">
+      <c r="B34" s="17"/>
+      <c r="C34" s="17"/>
+      <c r="D34" s="31" t="s">
         <v>86</v>
       </c>
-      <c r="E34" s="32"/>
-      <c r="F34" s="25" t="s">
+      <c r="E34" s="31"/>
+      <c r="F34" s="24" t="s">
         <v>97</v>
       </c>
-      <c r="G34" s="25"/>
-      <c r="H34" s="25"/>
-      <c r="I34" s="25"/>
-      <c r="J34" s="25"/>
-      <c r="K34" s="25"/>
+      <c r="G34" s="24"/>
+      <c r="H34" s="24"/>
+      <c r="I34" s="24"/>
+      <c r="J34" s="24"/>
+      <c r="K34" s="24"/>
     </row>
     <row r="35" spans="1:11" ht="147" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="18"/>
-      <c r="C35" s="18"/>
-      <c r="D35" s="32"/>
-      <c r="E35" s="32"/>
-      <c r="F35" s="25" t="s">
+      <c r="B35" s="17"/>
+      <c r="C35" s="17"/>
+      <c r="D35" s="31"/>
+      <c r="E35" s="31"/>
+      <c r="F35" s="24" t="s">
         <v>87</v>
       </c>
-      <c r="G35" s="25"/>
-      <c r="H35" s="25"/>
-      <c r="I35" s="25"/>
-      <c r="J35" s="25"/>
-      <c r="K35" s="25"/>
+      <c r="G35" s="24"/>
+      <c r="H35" s="24"/>
+      <c r="I35" s="24"/>
+      <c r="J35" s="24"/>
+      <c r="K35" s="24"/>
     </row>
     <row r="36" spans="1:11" ht="147" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="18"/>
-      <c r="C36" s="18"/>
-      <c r="D36" s="33" t="s">
+      <c r="B36" s="17"/>
+      <c r="C36" s="17"/>
+      <c r="D36" s="32" t="s">
         <v>88</v>
       </c>
-      <c r="E36" s="33"/>
-      <c r="F36" s="35" t="s">
+      <c r="E36" s="32"/>
+      <c r="F36" s="34" t="s">
         <v>98</v>
       </c>
-      <c r="G36" s="35"/>
-      <c r="H36" s="35"/>
-      <c r="I36" s="35"/>
-      <c r="J36" s="35"/>
-      <c r="K36" s="35"/>
+      <c r="G36" s="34"/>
+      <c r="H36" s="34"/>
+      <c r="I36" s="34"/>
+      <c r="J36" s="34"/>
+      <c r="K36" s="34"/>
     </row>
     <row r="37" spans="1:11" ht="147" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B37" s="18"/>
-      <c r="C37" s="18"/>
-      <c r="D37" s="33"/>
-      <c r="E37" s="33"/>
-      <c r="F37" s="36" t="s">
+      <c r="B37" s="17"/>
+      <c r="C37" s="17"/>
+      <c r="D37" s="32"/>
+      <c r="E37" s="32"/>
+      <c r="F37" s="35" t="s">
         <v>89</v>
       </c>
-      <c r="G37" s="36"/>
-      <c r="H37" s="36"/>
-      <c r="I37" s="36"/>
-      <c r="J37" s="36"/>
-      <c r="K37" s="36"/>
+      <c r="G37" s="35"/>
+      <c r="H37" s="35"/>
+      <c r="I37" s="35"/>
+      <c r="J37" s="35"/>
+      <c r="K37" s="35"/>
     </row>
     <row r="38" spans="1:11" ht="147" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B38" s="18"/>
-      <c r="C38" s="18"/>
-      <c r="D38" s="34" t="s">
+      <c r="B38" s="17"/>
+      <c r="C38" s="17"/>
+      <c r="D38" s="33" t="s">
         <v>90</v>
       </c>
-      <c r="E38" s="34"/>
-      <c r="F38" s="37" t="s">
+      <c r="E38" s="33"/>
+      <c r="F38" s="36" t="s">
         <v>99</v>
       </c>
-      <c r="G38" s="37"/>
-      <c r="H38" s="37"/>
-      <c r="I38" s="37"/>
-      <c r="J38" s="37"/>
-      <c r="K38" s="37"/>
+      <c r="G38" s="36"/>
+      <c r="H38" s="36"/>
+      <c r="I38" s="36"/>
+      <c r="J38" s="36"/>
+      <c r="K38" s="36"/>
     </row>
     <row r="39" spans="1:11" ht="147" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B39" s="18"/>
-      <c r="C39" s="18"/>
-      <c r="D39" s="39" t="s">
+      <c r="B39" s="17"/>
+      <c r="C39" s="17"/>
+      <c r="D39" s="38" t="s">
         <v>91</v>
       </c>
-      <c r="E39" s="39"/>
-      <c r="F39" s="38" t="s">
+      <c r="E39" s="38"/>
+      <c r="F39" s="37" t="s">
         <v>100</v>
       </c>
-      <c r="G39" s="38"/>
-      <c r="H39" s="38"/>
-      <c r="I39" s="38"/>
-      <c r="J39" s="38"/>
-      <c r="K39" s="38"/>
+      <c r="G39" s="37"/>
+      <c r="H39" s="37"/>
+      <c r="I39" s="37"/>
+      <c r="J39" s="37"/>
+      <c r="K39" s="37"/>
     </row>
     <row r="40" spans="1:11" ht="147" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B40" s="18"/>
-      <c r="C40" s="18"/>
-      <c r="D40" s="12"/>
+      <c r="B40" s="17"/>
+      <c r="C40" s="51" t="s">
+        <v>123</v>
+      </c>
+      <c r="D40" s="51"/>
+      <c r="E40" s="51"/>
+      <c r="F40" s="51"/>
+      <c r="G40" s="51"/>
+      <c r="H40" s="51"/>
+      <c r="I40" s="51"/>
+      <c r="J40" s="51"/>
+      <c r="K40" s="51"/>
     </row>
     <row r="41" spans="1:11" ht="147" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B41" s="18"/>
-      <c r="C41" s="18"/>
-      <c r="D41" s="13"/>
+      <c r="B41" s="17"/>
+      <c r="C41" s="17"/>
+      <c r="D41" s="12"/>
       <c r="E41"/>
       <c r="F41"/>
       <c r="G41"/>
       <c r="H41"/>
-      <c r="I41" s="21"/>
-      <c r="J41" s="22"/>
-      <c r="K41" s="15"/>
+      <c r="I41" s="20"/>
+      <c r="J41" s="21"/>
+      <c r="K41" s="14"/>
     </row>
     <row r="42" spans="1:11" ht="147" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="26" t="s">
+      <c r="A42" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="B42" s="26"/>
-      <c r="C42" s="26"/>
-      <c r="D42" s="26"/>
-      <c r="E42" s="30" t="s">
+      <c r="B42" s="25"/>
+      <c r="C42" s="25"/>
+      <c r="D42" s="25"/>
+      <c r="E42" s="29" t="s">
         <v>93</v>
       </c>
-      <c r="F42" s="30"/>
-      <c r="G42" s="30"/>
-      <c r="H42" s="30"/>
-      <c r="I42" s="30"/>
-      <c r="J42" s="30"/>
-      <c r="K42" s="15"/>
+      <c r="F42" s="29"/>
+      <c r="G42" s="29"/>
+      <c r="H42" s="29"/>
+      <c r="I42" s="29"/>
+      <c r="J42" s="29"/>
+      <c r="K42" s="14"/>
     </row>
     <row r="43" spans="1:11" ht="147" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="26"/>
-      <c r="B43" s="26"/>
-      <c r="C43" s="26"/>
-      <c r="D43" s="26"/>
-      <c r="E43" s="25" t="s">
+      <c r="A43" s="25"/>
+      <c r="B43" s="25"/>
+      <c r="C43" s="25"/>
+      <c r="D43" s="25"/>
+      <c r="E43" s="24" t="s">
         <v>101</v>
       </c>
-      <c r="F43" s="25"/>
-      <c r="G43" s="25"/>
-      <c r="H43" s="25"/>
-      <c r="I43" s="25"/>
-      <c r="J43" s="25"/>
-      <c r="K43" s="15"/>
+      <c r="F43" s="24"/>
+      <c r="G43" s="24"/>
+      <c r="H43" s="24"/>
+      <c r="I43" s="24"/>
+      <c r="J43" s="24"/>
+      <c r="K43" s="14"/>
     </row>
     <row r="44" spans="1:11" ht="147" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="26"/>
-      <c r="B44" s="26"/>
-      <c r="C44" s="26"/>
-      <c r="D44" s="26"/>
-      <c r="E44" s="30" t="s">
+      <c r="A44" s="25"/>
+      <c r="B44" s="25"/>
+      <c r="C44" s="25"/>
+      <c r="D44" s="25"/>
+      <c r="E44" s="29" t="s">
         <v>94</v>
       </c>
-      <c r="F44" s="30"/>
-      <c r="G44" s="30"/>
-      <c r="H44" s="30"/>
-      <c r="I44" s="30"/>
-      <c r="J44" s="30"/>
-      <c r="K44" s="15"/>
+      <c r="F44" s="29"/>
+      <c r="G44" s="29"/>
+      <c r="H44" s="29"/>
+      <c r="I44" s="29"/>
+      <c r="J44" s="29"/>
+      <c r="K44" s="14"/>
     </row>
     <row r="45" spans="1:11" ht="147" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="26"/>
-      <c r="B45" s="26"/>
-      <c r="C45" s="26"/>
-      <c r="D45" s="26"/>
-      <c r="E45" s="25" t="s">
+      <c r="A45" s="25"/>
+      <c r="B45" s="25"/>
+      <c r="C45" s="25"/>
+      <c r="D45" s="25"/>
+      <c r="E45" s="24" t="s">
         <v>104</v>
       </c>
-      <c r="F45" s="25"/>
-      <c r="G45" s="25"/>
-      <c r="H45" s="25"/>
-      <c r="I45" s="25"/>
-      <c r="J45" s="25"/>
-      <c r="K45" s="15"/>
+      <c r="F45" s="24"/>
+      <c r="G45" s="24"/>
+      <c r="H45" s="24"/>
+      <c r="I45" s="24"/>
+      <c r="J45" s="24"/>
+      <c r="K45" s="14"/>
     </row>
     <row r="47" spans="1:11" ht="147" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="27" t="s">
+      <c r="A47" s="26" t="s">
         <v>95</v>
       </c>
-      <c r="B47" s="27"/>
-      <c r="C47" s="27"/>
-      <c r="D47" s="27"/>
-      <c r="E47" s="27"/>
-      <c r="F47" s="27"/>
-      <c r="G47" s="27"/>
-      <c r="H47" s="27"/>
-      <c r="I47" s="27"/>
-      <c r="J47" s="27"/>
-      <c r="K47" s="27"/>
+      <c r="B47" s="26"/>
+      <c r="C47" s="26"/>
+      <c r="D47" s="26"/>
+      <c r="E47" s="26"/>
+      <c r="F47" s="26"/>
+      <c r="G47" s="26"/>
+      <c r="H47" s="26"/>
+      <c r="I47" s="26"/>
+      <c r="J47" s="26"/>
+      <c r="K47" s="26"/>
     </row>
     <row r="48" spans="1:11" ht="147" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B48" s="18"/>
-      <c r="C48" s="18"/>
-      <c r="D48" s="18"/>
-      <c r="E48" s="18"/>
-      <c r="F48" s="18"/>
-      <c r="G48" s="18"/>
-      <c r="H48" s="18"/>
+      <c r="B48" s="17"/>
+      <c r="C48" s="17"/>
+      <c r="D48" s="17"/>
+      <c r="E48" s="17"/>
+      <c r="F48" s="17"/>
+      <c r="G48" s="17"/>
+      <c r="H48" s="17"/>
       <c r="J48" s="6"/>
     </row>
     <row r="49" spans="2:10" ht="147" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B49" s="18"/>
-      <c r="C49" s="18"/>
-      <c r="D49" s="18"/>
-      <c r="E49" s="18"/>
-      <c r="F49" s="18"/>
-      <c r="G49" s="18"/>
-      <c r="H49" s="18"/>
+      <c r="B49" s="17"/>
+      <c r="C49" s="17"/>
+      <c r="D49" s="17"/>
+      <c r="E49" s="17"/>
+      <c r="F49" s="17"/>
+      <c r="G49" s="17"/>
+      <c r="H49" s="17"/>
       <c r="J49" s="7"/>
     </row>
     <row r="50" spans="2:10" ht="147" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B50" s="18"/>
-      <c r="C50" s="18"/>
-      <c r="D50" s="18"/>
-      <c r="E50" s="18"/>
-      <c r="F50" s="18"/>
-      <c r="G50" s="18"/>
-      <c r="H50" s="18"/>
+      <c r="B50" s="17"/>
+      <c r="C50" s="17"/>
+      <c r="D50" s="17"/>
+      <c r="E50" s="17"/>
+      <c r="F50" s="17"/>
+      <c r="G50" s="17"/>
+      <c r="H50" s="17"/>
       <c r="J50" s="7"/>
     </row>
     <row r="51" spans="2:10" ht="147" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B51" s="18"/>
-      <c r="C51" s="18"/>
-      <c r="D51" s="18"/>
-      <c r="E51" s="18"/>
-      <c r="F51" s="18"/>
-      <c r="G51" s="18"/>
-      <c r="H51" s="18"/>
+      <c r="B51" s="17"/>
+      <c r="C51" s="17"/>
+      <c r="D51" s="17"/>
+      <c r="E51" s="17"/>
+      <c r="F51" s="17"/>
+      <c r="G51" s="17"/>
+      <c r="H51" s="17"/>
       <c r="J51" s="7"/>
     </row>
     <row r="52" spans="2:10" ht="147" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B52" s="18"/>
-      <c r="C52" s="18"/>
-      <c r="D52" s="18"/>
-      <c r="E52" s="18"/>
-      <c r="F52" s="18"/>
-      <c r="G52" s="18"/>
-      <c r="H52" s="18"/>
+      <c r="B52" s="17"/>
+      <c r="C52" s="17"/>
+      <c r="D52" s="17"/>
+      <c r="E52" s="17"/>
+      <c r="F52" s="17"/>
+      <c r="G52" s="17"/>
+      <c r="H52" s="17"/>
     </row>
     <row r="53" spans="2:10" ht="147" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B53" s="18"/>
-      <c r="C53" s="18"/>
-      <c r="D53" s="18"/>
-      <c r="E53" s="18"/>
-      <c r="F53" s="18"/>
-      <c r="G53" s="18"/>
-      <c r="H53" s="18"/>
+      <c r="B53" s="17"/>
+      <c r="C53" s="17"/>
+      <c r="D53" s="17"/>
+      <c r="E53" s="17"/>
+      <c r="F53" s="17"/>
+      <c r="G53" s="17"/>
+      <c r="H53" s="17"/>
     </row>
     <row r="54" spans="2:10" ht="147" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B54" s="18"/>
-      <c r="C54" s="18"/>
-      <c r="D54" s="18"/>
-      <c r="E54" s="18"/>
-      <c r="F54" s="18"/>
-      <c r="G54" s="18"/>
-      <c r="H54" s="18"/>
+      <c r="B54" s="17"/>
+      <c r="C54" s="17"/>
+      <c r="D54" s="17"/>
+      <c r="E54" s="17"/>
+      <c r="F54" s="17"/>
+      <c r="G54" s="17"/>
+      <c r="H54" s="17"/>
     </row>
     <row r="55" spans="2:10" ht="147" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B55" s="18"/>
-      <c r="C55" s="18"/>
-      <c r="D55" s="18"/>
-      <c r="E55" s="18"/>
-      <c r="F55" s="18"/>
-      <c r="G55" s="18"/>
-      <c r="H55" s="18"/>
+      <c r="B55" s="17"/>
+      <c r="C55" s="17"/>
+      <c r="D55" s="17"/>
+      <c r="E55" s="17"/>
+      <c r="F55" s="17"/>
+      <c r="G55" s="17"/>
+      <c r="H55" s="17"/>
     </row>
     <row r="56" spans="2:10" ht="147" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B56" s="18"/>
-      <c r="C56" s="18"/>
-      <c r="D56" s="18"/>
-      <c r="E56" s="18"/>
-      <c r="F56" s="18"/>
-      <c r="G56" s="18"/>
-      <c r="H56" s="18"/>
+      <c r="B56" s="17"/>
+      <c r="C56" s="17"/>
+      <c r="D56" s="17"/>
+      <c r="E56" s="17"/>
+      <c r="F56" s="17"/>
+      <c r="G56" s="17"/>
+      <c r="H56" s="17"/>
     </row>
     <row r="57" spans="2:10" ht="147" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B57" s="18"/>
-      <c r="C57" s="18"/>
-      <c r="D57" s="18"/>
-      <c r="E57" s="18"/>
-      <c r="F57" s="18"/>
-      <c r="G57" s="18"/>
-      <c r="H57" s="18"/>
+      <c r="B57" s="17"/>
+      <c r="C57" s="17"/>
+      <c r="D57" s="17"/>
+      <c r="E57" s="17"/>
+      <c r="F57" s="17"/>
+      <c r="G57" s="17"/>
+      <c r="H57" s="17"/>
     </row>
     <row r="58" spans="2:10" ht="147" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B58" s="18"/>
-      <c r="C58" s="18"/>
-      <c r="D58" s="18"/>
-      <c r="E58" s="18"/>
-      <c r="F58" s="18"/>
-      <c r="G58" s="18"/>
-      <c r="H58" s="18"/>
+      <c r="B58" s="17"/>
+      <c r="C58" s="17"/>
+      <c r="D58" s="17"/>
+      <c r="E58" s="17"/>
+      <c r="F58" s="17"/>
+      <c r="G58" s="17"/>
+      <c r="H58" s="17"/>
     </row>
     <row r="59" spans="2:10" ht="147" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B59" s="18"/>
-      <c r="C59" s="18"/>
-      <c r="D59" s="18"/>
-      <c r="E59" s="18"/>
-      <c r="F59" s="18"/>
-      <c r="G59" s="18"/>
-      <c r="H59" s="18"/>
+      <c r="B59" s="17"/>
+      <c r="C59" s="17"/>
+      <c r="D59" s="17"/>
+      <c r="E59" s="17"/>
+      <c r="F59" s="17"/>
+      <c r="G59" s="17"/>
+      <c r="H59" s="17"/>
     </row>
     <row r="60" spans="2:10" ht="147" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B60" s="18"/>
-      <c r="C60" s="18"/>
-      <c r="D60" s="18"/>
-      <c r="E60" s="18"/>
-      <c r="F60" s="18"/>
-      <c r="G60" s="18"/>
-      <c r="H60" s="18"/>
+      <c r="B60" s="17"/>
+      <c r="C60" s="17"/>
+      <c r="D60" s="17"/>
+      <c r="E60" s="17"/>
+      <c r="F60" s="17"/>
+      <c r="G60" s="17"/>
+      <c r="H60" s="17"/>
     </row>
     <row r="61" spans="2:10" ht="147" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B61" s="18"/>
-      <c r="C61" s="18"/>
-      <c r="D61" s="18"/>
-      <c r="E61" s="18"/>
-      <c r="F61" s="18"/>
-      <c r="G61" s="18"/>
-      <c r="H61" s="18"/>
+      <c r="B61" s="17"/>
+      <c r="C61" s="17"/>
+      <c r="D61" s="17"/>
+      <c r="E61" s="17"/>
+      <c r="F61" s="17"/>
+      <c r="G61" s="17"/>
+      <c r="H61" s="17"/>
     </row>
     <row r="62" spans="2:10" ht="147" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B62" s="18"/>
-      <c r="C62" s="18"/>
-      <c r="D62" s="18"/>
-      <c r="E62" s="18"/>
-      <c r="F62" s="18"/>
-      <c r="G62" s="18"/>
-      <c r="H62" s="18"/>
+      <c r="B62" s="17"/>
+      <c r="C62" s="17"/>
+      <c r="D62" s="17"/>
+      <c r="E62" s="17"/>
+      <c r="F62" s="17"/>
+      <c r="G62" s="17"/>
+      <c r="H62" s="17"/>
     </row>
     <row r="63" spans="2:10" ht="147" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B63" s="18"/>
-      <c r="C63" s="18"/>
-      <c r="D63" s="18"/>
-      <c r="E63" s="18"/>
-      <c r="F63" s="18"/>
-      <c r="G63" s="18"/>
-      <c r="H63" s="18"/>
+      <c r="B63" s="17"/>
+      <c r="C63" s="17"/>
+      <c r="D63" s="17"/>
+      <c r="E63" s="17"/>
+      <c r="F63" s="17"/>
+      <c r="G63" s="17"/>
+      <c r="H63" s="17"/>
     </row>
     <row r="64" spans="2:10" ht="147" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B64" s="18"/>
-      <c r="C64" s="18"/>
-      <c r="D64" s="18"/>
-      <c r="E64" s="18"/>
-      <c r="F64" s="18"/>
-      <c r="G64" s="18"/>
-      <c r="H64" s="18"/>
+      <c r="B64" s="17"/>
+      <c r="C64" s="17"/>
+      <c r="D64" s="17"/>
+      <c r="E64" s="17"/>
+      <c r="F64" s="17"/>
+      <c r="G64" s="17"/>
+      <c r="H64" s="17"/>
     </row>
     <row r="65" spans="2:8" ht="147" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B65" s="18"/>
-      <c r="C65" s="18"/>
-      <c r="D65" s="18"/>
-      <c r="E65" s="18"/>
-      <c r="F65" s="18"/>
-      <c r="G65" s="18"/>
-      <c r="H65" s="18"/>
+      <c r="B65" s="17"/>
+      <c r="C65" s="17"/>
+      <c r="D65" s="17"/>
+      <c r="E65" s="17"/>
+      <c r="F65" s="17"/>
+      <c r="G65" s="17"/>
+      <c r="H65" s="17"/>
     </row>
     <row r="66" spans="2:8" ht="147" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B66" s="18"/>
-      <c r="C66" s="18"/>
-      <c r="D66" s="18"/>
-      <c r="E66" s="18"/>
-      <c r="F66" s="18"/>
-      <c r="G66" s="18"/>
-      <c r="H66" s="18"/>
+      <c r="B66" s="17"/>
+      <c r="C66" s="17"/>
+      <c r="D66" s="17"/>
+      <c r="E66" s="17"/>
+      <c r="F66" s="17"/>
+      <c r="G66" s="17"/>
+      <c r="H66" s="17"/>
     </row>
     <row r="67" spans="2:8" ht="147" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B67" s="18"/>
-      <c r="C67" s="18"/>
-      <c r="D67" s="18"/>
-      <c r="E67" s="18"/>
-      <c r="F67" s="18"/>
-      <c r="G67" s="18"/>
-      <c r="H67" s="18"/>
+      <c r="B67" s="17"/>
+      <c r="C67" s="17"/>
+      <c r="D67" s="17"/>
+      <c r="E67" s="17"/>
+      <c r="F67" s="17"/>
+      <c r="G67" s="17"/>
+      <c r="H67" s="17"/>
     </row>
     <row r="68" spans="2:8" ht="147" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B68" s="18"/>
-      <c r="C68" s="18"/>
-      <c r="D68" s="18"/>
-      <c r="E68" s="18"/>
-      <c r="F68" s="18"/>
-      <c r="G68" s="18"/>
-      <c r="H68" s="18"/>
+      <c r="B68" s="17"/>
+      <c r="C68" s="17"/>
+      <c r="D68" s="17"/>
+      <c r="E68" s="17"/>
+      <c r="F68" s="17"/>
+      <c r="G68" s="17"/>
+      <c r="H68" s="17"/>
     </row>
     <row r="69" spans="2:8" ht="147" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B69" s="18"/>
-      <c r="C69" s="18"/>
-      <c r="D69" s="18"/>
-      <c r="E69" s="18"/>
-      <c r="F69" s="18"/>
-      <c r="G69" s="18"/>
-      <c r="H69" s="18"/>
+      <c r="B69" s="17"/>
+      <c r="C69" s="17"/>
+      <c r="D69" s="17"/>
+      <c r="E69" s="17"/>
+      <c r="F69" s="17"/>
+      <c r="G69" s="17"/>
+      <c r="H69" s="17"/>
     </row>
     <row r="70" spans="2:8" ht="147" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B70" s="18"/>
-      <c r="C70" s="18"/>
-      <c r="D70" s="18"/>
-      <c r="E70" s="18"/>
-      <c r="F70" s="18"/>
-      <c r="G70" s="18"/>
-      <c r="H70" s="18"/>
+      <c r="B70" s="17"/>
+      <c r="C70" s="17"/>
+      <c r="D70" s="17"/>
+      <c r="E70" s="17"/>
+      <c r="F70" s="17"/>
+      <c r="G70" s="17"/>
+      <c r="H70" s="17"/>
     </row>
     <row r="71" spans="2:8" ht="147" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B71" s="18"/>
-      <c r="C71" s="18"/>
-      <c r="D71" s="18"/>
-      <c r="E71" s="18"/>
-      <c r="F71" s="18"/>
-      <c r="G71" s="18"/>
-      <c r="H71" s="18"/>
+      <c r="B71" s="17"/>
+      <c r="C71" s="17"/>
+      <c r="D71" s="17"/>
+      <c r="E71" s="17"/>
+      <c r="F71" s="17"/>
+      <c r="G71" s="17"/>
+      <c r="H71" s="17"/>
     </row>
     <row r="72" spans="2:8" ht="147" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B72" s="18"/>
-      <c r="C72" s="18"/>
-      <c r="D72" s="18"/>
-      <c r="E72" s="18"/>
-      <c r="F72" s="18"/>
-      <c r="G72" s="18"/>
-      <c r="H72" s="18"/>
+      <c r="B72" s="17"/>
+      <c r="C72" s="17"/>
+      <c r="D72" s="17"/>
+      <c r="E72" s="17"/>
+      <c r="F72" s="17"/>
+      <c r="G72" s="17"/>
+      <c r="H72" s="17"/>
     </row>
     <row r="73" spans="2:8" ht="147" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B73" s="18"/>
-      <c r="C73" s="18"/>
-      <c r="D73" s="18"/>
-      <c r="E73" s="18"/>
-      <c r="F73" s="18"/>
-      <c r="G73" s="18"/>
-      <c r="H73" s="18"/>
+      <c r="B73" s="17"/>
+      <c r="C73" s="17"/>
+      <c r="D73" s="17"/>
+      <c r="E73" s="17"/>
+      <c r="F73" s="17"/>
+      <c r="G73" s="17"/>
+      <c r="H73" s="17"/>
     </row>
     <row r="74" spans="2:8" ht="147" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B74" s="18"/>
-      <c r="C74" s="18"/>
-      <c r="D74" s="18"/>
-      <c r="E74" s="18"/>
-      <c r="F74" s="18"/>
-      <c r="G74" s="18"/>
-      <c r="H74" s="18"/>
+      <c r="B74" s="17"/>
+      <c r="C74" s="17"/>
+      <c r="D74" s="17"/>
+      <c r="E74" s="17"/>
+      <c r="F74" s="17"/>
+      <c r="G74" s="17"/>
+      <c r="H74" s="17"/>
     </row>
     <row r="75" spans="2:8" ht="147" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B75" s="18"/>
-      <c r="C75" s="18"/>
-      <c r="D75" s="18"/>
-      <c r="E75" s="18"/>
-      <c r="F75" s="18"/>
-      <c r="G75" s="18"/>
-      <c r="H75" s="18"/>
+      <c r="B75" s="17"/>
+      <c r="C75" s="17"/>
+      <c r="D75" s="17"/>
+      <c r="E75" s="17"/>
+      <c r="F75" s="17"/>
+      <c r="G75" s="17"/>
+      <c r="H75" s="17"/>
     </row>
     <row r="76" spans="2:8" ht="147" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B76" s="18"/>
-      <c r="C76" s="18"/>
-      <c r="D76" s="18"/>
-      <c r="E76" s="18"/>
-      <c r="F76" s="18"/>
-      <c r="G76" s="18"/>
-      <c r="H76" s="18"/>
+      <c r="B76" s="17"/>
+      <c r="C76" s="17"/>
+      <c r="D76" s="17"/>
+      <c r="E76" s="17"/>
+      <c r="F76" s="17"/>
+      <c r="G76" s="17"/>
+      <c r="H76" s="17"/>
     </row>
     <row r="77" spans="2:8" ht="147" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B77" s="18"/>
-      <c r="C77" s="18"/>
-      <c r="D77" s="18"/>
-      <c r="E77" s="18"/>
-      <c r="F77" s="18"/>
-      <c r="G77" s="18"/>
-      <c r="H77" s="18"/>
+      <c r="B77" s="17"/>
+      <c r="C77" s="17"/>
+      <c r="D77" s="17"/>
+      <c r="E77" s="17"/>
+      <c r="F77" s="17"/>
+      <c r="G77" s="17"/>
+      <c r="H77" s="17"/>
     </row>
     <row r="78" spans="2:8" ht="147" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B78" s="18"/>
-      <c r="C78" s="18"/>
-      <c r="D78" s="18"/>
-      <c r="E78" s="18"/>
-      <c r="F78" s="18"/>
-      <c r="G78" s="18"/>
-      <c r="H78" s="18"/>
+      <c r="B78" s="17"/>
+      <c r="C78" s="17"/>
+      <c r="D78" s="17"/>
+      <c r="E78" s="17"/>
+      <c r="F78" s="17"/>
+      <c r="G78" s="17"/>
+      <c r="H78" s="17"/>
     </row>
     <row r="79" spans="2:8" ht="147" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B79" s="18"/>
-      <c r="C79" s="18"/>
-      <c r="D79" s="18"/>
-      <c r="E79" s="18"/>
-      <c r="F79" s="18"/>
-      <c r="G79" s="18"/>
-      <c r="H79" s="18"/>
+      <c r="B79" s="17"/>
+      <c r="C79" s="17"/>
+      <c r="D79" s="17"/>
+      <c r="E79" s="17"/>
+      <c r="F79" s="17"/>
+      <c r="G79" s="17"/>
+      <c r="H79" s="17"/>
     </row>
     <row r="80" spans="2:8" ht="147" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B80" s="18"/>
-      <c r="C80" s="18"/>
-      <c r="D80" s="18"/>
-      <c r="E80" s="18"/>
-      <c r="F80" s="18"/>
-      <c r="G80" s="18"/>
-      <c r="H80" s="18"/>
+      <c r="B80" s="17"/>
+      <c r="C80" s="17"/>
+      <c r="D80" s="17"/>
+      <c r="E80" s="17"/>
+      <c r="F80" s="17"/>
+      <c r="G80" s="17"/>
+      <c r="H80" s="17"/>
     </row>
     <row r="81" spans="2:8" ht="147" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B81" s="18"/>
-      <c r="C81" s="18"/>
-      <c r="D81" s="18"/>
-      <c r="E81" s="18"/>
-      <c r="F81" s="18"/>
-      <c r="G81" s="18"/>
-      <c r="H81" s="18"/>
+      <c r="B81" s="17"/>
+      <c r="C81" s="17"/>
+      <c r="D81" s="17"/>
+      <c r="E81" s="17"/>
+      <c r="F81" s="17"/>
+      <c r="G81" s="17"/>
+      <c r="H81" s="17"/>
     </row>
     <row r="82" spans="2:8" ht="147" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B82" s="18"/>
-      <c r="C82" s="18"/>
-      <c r="D82" s="18"/>
-      <c r="E82" s="18"/>
-      <c r="F82" s="18"/>
-      <c r="G82" s="18"/>
-      <c r="H82" s="18"/>
+      <c r="B82" s="17"/>
+      <c r="C82" s="17"/>
+      <c r="D82" s="17"/>
+      <c r="E82" s="17"/>
+      <c r="F82" s="17"/>
+      <c r="G82" s="17"/>
+      <c r="H82" s="17"/>
     </row>
     <row r="83" spans="2:8" ht="147" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B83" s="18"/>
-      <c r="C83" s="18"/>
-      <c r="D83" s="18"/>
-      <c r="E83" s="18"/>
-      <c r="F83" s="18"/>
-      <c r="G83" s="18"/>
-      <c r="H83" s="18"/>
+      <c r="B83" s="17"/>
+      <c r="C83" s="17"/>
+      <c r="D83" s="17"/>
+      <c r="E83" s="17"/>
+      <c r="F83" s="17"/>
+      <c r="G83" s="17"/>
+      <c r="H83" s="17"/>
     </row>
     <row r="84" spans="2:8" ht="147" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B84" s="18"/>
-      <c r="C84" s="18"/>
-      <c r="D84" s="18"/>
-      <c r="E84" s="18"/>
-      <c r="F84" s="18"/>
-      <c r="G84" s="18"/>
-      <c r="H84" s="18"/>
+      <c r="B84" s="17"/>
+      <c r="C84" s="17"/>
+      <c r="D84" s="17"/>
+      <c r="E84" s="17"/>
+      <c r="F84" s="17"/>
+      <c r="G84" s="17"/>
+      <c r="H84" s="17"/>
     </row>
     <row r="85" spans="2:8" ht="147" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B85" s="18"/>
-      <c r="C85" s="18"/>
-      <c r="D85" s="18"/>
-      <c r="E85" s="18"/>
-      <c r="F85" s="18"/>
-      <c r="G85" s="18"/>
-      <c r="H85" s="18"/>
+      <c r="B85" s="17"/>
+      <c r="C85" s="17"/>
+      <c r="D85" s="17"/>
+      <c r="E85" s="17"/>
+      <c r="F85" s="17"/>
+      <c r="G85" s="17"/>
+      <c r="H85" s="17"/>
     </row>
     <row r="86" spans="2:8" ht="147" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B86" s="18"/>
-      <c r="C86" s="18"/>
-      <c r="D86" s="18"/>
-      <c r="E86" s="18"/>
-      <c r="F86" s="18"/>
-      <c r="G86" s="18"/>
-      <c r="H86" s="18"/>
+      <c r="B86" s="17"/>
+      <c r="C86" s="17"/>
+      <c r="D86" s="17"/>
+      <c r="E86" s="17"/>
+      <c r="F86" s="17"/>
+      <c r="G86" s="17"/>
+      <c r="H86" s="17"/>
     </row>
     <row r="87" spans="2:8" ht="147" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B87" s="18"/>
-      <c r="C87" s="18"/>
-      <c r="D87" s="18"/>
-      <c r="E87" s="18"/>
-      <c r="F87" s="18"/>
-      <c r="G87" s="18"/>
-      <c r="H87" s="18"/>
+      <c r="B87" s="17"/>
+      <c r="C87" s="17"/>
+      <c r="D87" s="17"/>
+      <c r="E87" s="17"/>
+      <c r="F87" s="17"/>
+      <c r="G87" s="17"/>
+      <c r="H87" s="17"/>
     </row>
     <row r="88" spans="2:8" ht="147" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B88" s="18"/>
-      <c r="C88" s="18"/>
-      <c r="D88" s="18"/>
-      <c r="E88" s="18"/>
-      <c r="F88" s="18"/>
-      <c r="G88" s="18"/>
-      <c r="H88" s="18"/>
+      <c r="B88" s="17"/>
+      <c r="C88" s="17"/>
+      <c r="D88" s="17"/>
+      <c r="E88" s="17"/>
+      <c r="F88" s="17"/>
+      <c r="G88" s="17"/>
+      <c r="H88" s="17"/>
     </row>
     <row r="89" spans="2:8" ht="147" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B89" s="18"/>
-      <c r="C89" s="18"/>
-      <c r="D89" s="18"/>
-      <c r="E89" s="18"/>
-      <c r="F89" s="18"/>
-      <c r="G89" s="18"/>
-      <c r="H89" s="18"/>
+      <c r="B89" s="17"/>
+      <c r="C89" s="17"/>
+      <c r="D89" s="17"/>
+      <c r="E89" s="17"/>
+      <c r="F89" s="17"/>
+      <c r="G89" s="17"/>
+      <c r="H89" s="17"/>
     </row>
     <row r="90" spans="2:8" ht="147" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B90" s="18"/>
-      <c r="C90" s="18"/>
-      <c r="D90" s="18"/>
-      <c r="E90" s="18"/>
-      <c r="F90" s="18"/>
-      <c r="G90" s="18"/>
-      <c r="H90" s="18"/>
+      <c r="B90" s="17"/>
+      <c r="C90" s="17"/>
+      <c r="D90" s="17"/>
+      <c r="E90" s="17"/>
+      <c r="F90" s="17"/>
+      <c r="G90" s="17"/>
+      <c r="H90" s="17"/>
     </row>
     <row r="91" spans="2:8" ht="147" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B91" s="18"/>
-      <c r="C91" s="18"/>
-      <c r="D91" s="18"/>
-      <c r="E91" s="18"/>
-      <c r="F91" s="18"/>
-      <c r="G91" s="18"/>
-      <c r="H91" s="18"/>
+      <c r="B91" s="17"/>
+      <c r="C91" s="17"/>
+      <c r="D91" s="17"/>
+      <c r="E91" s="17"/>
+      <c r="F91" s="17"/>
+      <c r="G91" s="17"/>
+      <c r="H91" s="17"/>
     </row>
     <row r="92" spans="2:8" ht="147" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B92" s="18"/>
-      <c r="C92" s="18"/>
-      <c r="D92" s="18"/>
-      <c r="E92" s="18"/>
-      <c r="F92" s="18"/>
-      <c r="G92" s="18"/>
-      <c r="H92" s="18"/>
+      <c r="B92" s="17"/>
+      <c r="C92" s="17"/>
+      <c r="D92" s="17"/>
+      <c r="E92" s="17"/>
+      <c r="F92" s="17"/>
+      <c r="G92" s="17"/>
+      <c r="H92" s="17"/>
     </row>
     <row r="93" spans="2:8" ht="147" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B93" s="18"/>
-      <c r="C93" s="18"/>
-      <c r="D93" s="18"/>
-      <c r="E93" s="18"/>
-      <c r="F93" s="18"/>
-      <c r="G93" s="18"/>
-      <c r="H93" s="18"/>
+      <c r="B93" s="17"/>
+      <c r="C93" s="17"/>
+      <c r="D93" s="17"/>
+      <c r="E93" s="17"/>
+      <c r="F93" s="17"/>
+      <c r="G93" s="17"/>
+      <c r="H93" s="17"/>
     </row>
     <row r="94" spans="2:8" ht="147" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B94" s="18"/>
-      <c r="C94" s="18"/>
-      <c r="D94" s="18"/>
-      <c r="E94" s="18"/>
-      <c r="F94" s="18"/>
-      <c r="G94" s="18"/>
-      <c r="H94" s="18"/>
+      <c r="B94" s="17"/>
+      <c r="C94" s="17"/>
+      <c r="D94" s="17"/>
+      <c r="E94" s="17"/>
+      <c r="F94" s="17"/>
+      <c r="G94" s="17"/>
+      <c r="H94" s="17"/>
     </row>
     <row r="95" spans="2:8" ht="147" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B95" s="18"/>
-      <c r="C95" s="18"/>
-      <c r="D95" s="18"/>
-      <c r="E95" s="18"/>
-      <c r="F95" s="18"/>
-      <c r="G95" s="18"/>
-      <c r="H95" s="18"/>
+      <c r="B95" s="17"/>
+      <c r="C95" s="17"/>
+      <c r="D95" s="17"/>
+      <c r="E95" s="17"/>
+      <c r="F95" s="17"/>
+      <c r="G95" s="17"/>
+      <c r="H95" s="17"/>
     </row>
     <row r="96" spans="2:8" ht="147" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B96" s="18"/>
-      <c r="C96" s="18"/>
-      <c r="D96" s="18"/>
-      <c r="E96" s="18"/>
-      <c r="F96" s="18"/>
-      <c r="G96" s="18"/>
-      <c r="H96" s="18"/>
+      <c r="B96" s="17"/>
+      <c r="C96" s="17"/>
+      <c r="D96" s="17"/>
+      <c r="E96" s="17"/>
+      <c r="F96" s="17"/>
+      <c r="G96" s="17"/>
+      <c r="H96" s="17"/>
     </row>
     <row r="97" spans="2:8" ht="147" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B97" s="18"/>
-      <c r="C97" s="18"/>
-      <c r="D97" s="18"/>
-      <c r="E97" s="18"/>
-      <c r="F97" s="18"/>
-      <c r="G97" s="18"/>
-      <c r="H97" s="18"/>
+      <c r="B97" s="17"/>
+      <c r="C97" s="17"/>
+      <c r="D97" s="17"/>
+      <c r="E97" s="17"/>
+      <c r="F97" s="17"/>
+      <c r="G97" s="17"/>
+      <c r="H97" s="17"/>
     </row>
     <row r="98" spans="2:8" ht="147" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B98" s="18"/>
-      <c r="C98" s="18"/>
-      <c r="D98" s="18"/>
-      <c r="E98" s="18"/>
-      <c r="F98" s="18"/>
-      <c r="G98" s="18"/>
-      <c r="H98" s="18"/>
+      <c r="B98" s="17"/>
+      <c r="C98" s="17"/>
+      <c r="D98" s="17"/>
+      <c r="E98" s="17"/>
+      <c r="F98" s="17"/>
+      <c r="G98" s="17"/>
+      <c r="H98" s="17"/>
     </row>
     <row r="99" spans="2:8" ht="147" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B99" s="18"/>
-      <c r="C99" s="18"/>
-      <c r="D99" s="18"/>
-      <c r="E99" s="18"/>
-      <c r="F99" s="18"/>
-      <c r="G99" s="18"/>
-      <c r="H99" s="18"/>
+      <c r="B99" s="17"/>
+      <c r="C99" s="17"/>
+      <c r="D99" s="17"/>
+      <c r="E99" s="17"/>
+      <c r="F99" s="17"/>
+      <c r="G99" s="17"/>
+      <c r="H99" s="17"/>
     </row>
     <row r="100" spans="2:8" ht="147" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B100" s="18"/>
-      <c r="C100" s="18"/>
-      <c r="D100" s="18"/>
-      <c r="E100" s="18"/>
-      <c r="F100" s="18"/>
-      <c r="G100" s="18"/>
-      <c r="H100" s="18"/>
+      <c r="B100" s="17"/>
+      <c r="C100" s="17"/>
+      <c r="D100" s="17"/>
+      <c r="E100" s="17"/>
+      <c r="F100" s="17"/>
+      <c r="G100" s="17"/>
+      <c r="H100" s="17"/>
     </row>
     <row r="101" spans="2:8" ht="147" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B101" s="18"/>
-      <c r="C101" s="18"/>
-      <c r="D101" s="18"/>
-      <c r="E101" s="18"/>
-      <c r="F101" s="18"/>
-      <c r="G101" s="18"/>
-      <c r="H101" s="18"/>
+      <c r="B101" s="17"/>
+      <c r="C101" s="17"/>
+      <c r="D101" s="17"/>
+      <c r="E101" s="17"/>
+      <c r="F101" s="17"/>
+      <c r="G101" s="17"/>
+      <c r="H101" s="17"/>
     </row>
     <row r="102" spans="2:8" ht="147" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B102" s="18"/>
-      <c r="C102" s="18"/>
-      <c r="D102" s="18"/>
-      <c r="E102" s="18"/>
-      <c r="F102" s="18"/>
-      <c r="G102" s="18"/>
-      <c r="H102" s="18"/>
+      <c r="B102" s="17"/>
+      <c r="C102" s="17"/>
+      <c r="D102" s="17"/>
+      <c r="E102" s="17"/>
+      <c r="F102" s="17"/>
+      <c r="G102" s="17"/>
+      <c r="H102" s="17"/>
     </row>
     <row r="103" spans="2:8" ht="147" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B103" s="18"/>
-      <c r="C103" s="18"/>
-      <c r="D103" s="18"/>
-      <c r="E103" s="18"/>
-      <c r="F103" s="18"/>
-      <c r="G103" s="18"/>
-      <c r="H103" s="18"/>
+      <c r="B103" s="17"/>
+      <c r="C103" s="17"/>
+      <c r="D103" s="17"/>
+      <c r="E103" s="17"/>
+      <c r="F103" s="17"/>
+      <c r="G103" s="17"/>
+      <c r="H103" s="17"/>
     </row>
     <row r="104" spans="2:8" ht="147" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B104" s="18"/>
-      <c r="C104" s="18"/>
-      <c r="D104" s="18"/>
-      <c r="E104" s="18"/>
-      <c r="F104" s="18"/>
-      <c r="G104" s="18"/>
-      <c r="H104" s="18"/>
+      <c r="B104" s="17"/>
+      <c r="C104" s="17"/>
+      <c r="D104" s="17"/>
+      <c r="E104" s="17"/>
+      <c r="F104" s="17"/>
+      <c r="G104" s="17"/>
+      <c r="H104" s="17"/>
     </row>
     <row r="105" spans="2:8" ht="147" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B105" s="18"/>
-      <c r="C105" s="18"/>
-      <c r="D105" s="18"/>
-      <c r="E105" s="18"/>
-      <c r="F105" s="18"/>
-      <c r="G105" s="18"/>
-      <c r="H105" s="18"/>
+      <c r="B105" s="17"/>
+      <c r="C105" s="17"/>
+      <c r="D105" s="17"/>
+      <c r="E105" s="17"/>
+      <c r="F105" s="17"/>
+      <c r="G105" s="17"/>
+      <c r="H105" s="17"/>
     </row>
     <row r="106" spans="2:8" ht="147" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B106" s="18"/>
-      <c r="C106" s="18"/>
-      <c r="D106" s="18"/>
-      <c r="E106" s="18"/>
-      <c r="F106" s="18"/>
-      <c r="G106" s="18"/>
-      <c r="H106" s="18"/>
+      <c r="B106" s="17"/>
+      <c r="C106" s="17"/>
+      <c r="D106" s="17"/>
+      <c r="E106" s="17"/>
+      <c r="F106" s="17"/>
+      <c r="G106" s="17"/>
+      <c r="H106" s="17"/>
     </row>
     <row r="107" spans="2:8" ht="147" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B107" s="18"/>
-      <c r="C107" s="18"/>
-      <c r="D107" s="18"/>
-      <c r="E107" s="18"/>
-      <c r="F107" s="18"/>
-      <c r="G107" s="18"/>
-      <c r="H107" s="18"/>
+      <c r="B107" s="17"/>
+      <c r="C107" s="17"/>
+      <c r="D107" s="17"/>
+      <c r="E107" s="17"/>
+      <c r="F107" s="17"/>
+      <c r="G107" s="17"/>
+      <c r="H107" s="17"/>
     </row>
     <row r="108" spans="2:8" ht="147" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B108" s="18"/>
-      <c r="C108" s="18"/>
-      <c r="D108" s="18"/>
-      <c r="E108" s="18"/>
-      <c r="F108" s="18"/>
-      <c r="G108" s="18"/>
-      <c r="H108" s="18"/>
+      <c r="B108" s="17"/>
+      <c r="C108" s="17"/>
+      <c r="D108" s="17"/>
+      <c r="E108" s="17"/>
+      <c r="F108" s="17"/>
+      <c r="G108" s="17"/>
+      <c r="H108" s="17"/>
     </row>
     <row r="109" spans="2:8" ht="147" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B109" s="18"/>
-      <c r="C109" s="18"/>
-      <c r="D109" s="18"/>
-      <c r="E109" s="18"/>
-      <c r="F109" s="18"/>
-      <c r="G109" s="18"/>
-      <c r="H109" s="18"/>
+      <c r="B109" s="17"/>
+      <c r="C109" s="17"/>
+      <c r="D109" s="17"/>
+      <c r="E109" s="17"/>
+      <c r="F109" s="17"/>
+      <c r="G109" s="17"/>
+      <c r="H109" s="17"/>
     </row>
     <row r="110" spans="2:8" ht="147" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B110" s="18"/>
-      <c r="C110" s="18"/>
-      <c r="D110" s="18"/>
-      <c r="E110" s="18"/>
-      <c r="F110" s="18"/>
-      <c r="G110" s="18"/>
-      <c r="H110" s="18"/>
+      <c r="B110" s="17"/>
+      <c r="C110" s="17"/>
+      <c r="D110" s="17"/>
+      <c r="E110" s="17"/>
+      <c r="F110" s="17"/>
+      <c r="G110" s="17"/>
+      <c r="H110" s="17"/>
     </row>
     <row r="111" spans="2:8" ht="147" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B111" s="18"/>
-      <c r="C111" s="18"/>
-      <c r="D111" s="18"/>
-      <c r="E111" s="18"/>
-      <c r="F111" s="18"/>
-      <c r="G111" s="18"/>
-      <c r="H111" s="18"/>
+      <c r="B111" s="17"/>
+      <c r="C111" s="17"/>
+      <c r="D111" s="17"/>
+      <c r="E111" s="17"/>
+      <c r="F111" s="17"/>
+      <c r="G111" s="17"/>
+      <c r="H111" s="17"/>
     </row>
     <row r="112" spans="2:8" ht="147" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B112" s="18"/>
-      <c r="C112" s="18"/>
-      <c r="D112" s="18"/>
-      <c r="E112" s="18"/>
-      <c r="F112" s="18"/>
-      <c r="G112" s="18"/>
-      <c r="H112" s="18"/>
+      <c r="B112" s="17"/>
+      <c r="C112" s="17"/>
+      <c r="D112" s="17"/>
+      <c r="E112" s="17"/>
+      <c r="F112" s="17"/>
+      <c r="G112" s="17"/>
+      <c r="H112" s="17"/>
     </row>
     <row r="113" spans="2:8" ht="147" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B113" s="18"/>
-      <c r="C113" s="18"/>
-      <c r="D113" s="18"/>
-      <c r="E113" s="18"/>
-      <c r="F113" s="18"/>
-      <c r="G113" s="18"/>
-      <c r="H113" s="18"/>
+      <c r="B113" s="17"/>
+      <c r="C113" s="17"/>
+      <c r="D113" s="17"/>
+      <c r="E113" s="17"/>
+      <c r="F113" s="17"/>
+      <c r="G113" s="17"/>
+      <c r="H113" s="17"/>
     </row>
     <row r="114" spans="2:8" ht="147" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B114" s="18"/>
-      <c r="C114" s="18"/>
-      <c r="D114" s="18"/>
-      <c r="E114" s="18"/>
-      <c r="F114" s="18"/>
-      <c r="G114" s="18"/>
-      <c r="H114" s="18"/>
+      <c r="B114" s="17"/>
+      <c r="C114" s="17"/>
+      <c r="D114" s="17"/>
+      <c r="E114" s="17"/>
+      <c r="F114" s="17"/>
+      <c r="G114" s="17"/>
+      <c r="H114" s="17"/>
     </row>
     <row r="115" spans="2:8" ht="147" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B115" s="18"/>
-      <c r="C115" s="18"/>
-      <c r="D115" s="18"/>
-      <c r="E115" s="18"/>
-      <c r="F115" s="18"/>
-      <c r="G115" s="18"/>
-      <c r="H115" s="18"/>
+      <c r="B115" s="17"/>
+      <c r="C115" s="17"/>
+      <c r="D115" s="17"/>
+      <c r="E115" s="17"/>
+      <c r="F115" s="17"/>
+      <c r="G115" s="17"/>
+      <c r="H115" s="17"/>
     </row>
     <row r="116" spans="2:8" ht="147" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B116" s="18"/>
-      <c r="C116" s="18"/>
-      <c r="D116" s="18"/>
-      <c r="E116" s="18"/>
-      <c r="F116" s="18"/>
-      <c r="G116" s="18"/>
-      <c r="H116" s="18"/>
+      <c r="B116" s="17"/>
+      <c r="C116" s="17"/>
+      <c r="D116" s="17"/>
+      <c r="E116" s="17"/>
+      <c r="F116" s="17"/>
+      <c r="G116" s="17"/>
+      <c r="H116" s="17"/>
     </row>
     <row r="117" spans="2:8" ht="147" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B117" s="18"/>
-      <c r="C117" s="18"/>
-      <c r="D117" s="18"/>
-      <c r="E117" s="18"/>
-      <c r="F117" s="18"/>
-      <c r="G117" s="18"/>
-      <c r="H117" s="18"/>
+      <c r="B117" s="17"/>
+      <c r="C117" s="17"/>
+      <c r="D117" s="17"/>
+      <c r="E117" s="17"/>
+      <c r="F117" s="17"/>
+      <c r="G117" s="17"/>
+      <c r="H117" s="17"/>
     </row>
     <row r="118" spans="2:8" ht="147" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B118" s="18"/>
-      <c r="C118" s="18"/>
-      <c r="D118" s="18"/>
-      <c r="E118" s="18"/>
-      <c r="F118" s="18"/>
-      <c r="G118" s="18"/>
-      <c r="H118" s="18"/>
+      <c r="B118" s="17"/>
+      <c r="C118" s="17"/>
+      <c r="D118" s="17"/>
+      <c r="E118" s="17"/>
+      <c r="F118" s="17"/>
+      <c r="G118" s="17"/>
+      <c r="H118" s="17"/>
     </row>
     <row r="119" spans="2:8" ht="147" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B119" s="18"/>
-      <c r="C119" s="18"/>
-      <c r="D119" s="18"/>
-      <c r="E119" s="18"/>
-      <c r="F119" s="18"/>
-      <c r="G119" s="18"/>
-      <c r="H119" s="18"/>
+      <c r="B119" s="17"/>
+      <c r="C119" s="17"/>
+      <c r="D119" s="17"/>
+      <c r="E119" s="17"/>
+      <c r="F119" s="17"/>
+      <c r="G119" s="17"/>
+      <c r="H119" s="17"/>
     </row>
     <row r="120" spans="2:8" ht="147" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B120" s="18"/>
-      <c r="C120" s="18"/>
-      <c r="D120" s="18"/>
-      <c r="E120" s="18"/>
-      <c r="F120" s="18"/>
-      <c r="G120" s="18"/>
-      <c r="H120" s="18"/>
+      <c r="B120" s="17"/>
+      <c r="C120" s="17"/>
+      <c r="D120" s="17"/>
+      <c r="E120" s="17"/>
+      <c r="F120" s="17"/>
+      <c r="G120" s="17"/>
+      <c r="H120" s="17"/>
     </row>
     <row r="121" spans="2:8" ht="147" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B121" s="18"/>
-      <c r="C121" s="18"/>
-      <c r="D121" s="18"/>
-      <c r="E121" s="18"/>
-      <c r="F121" s="18"/>
-      <c r="G121" s="18"/>
-      <c r="H121" s="18"/>
+      <c r="B121" s="17"/>
+      <c r="C121" s="17"/>
+      <c r="D121" s="17"/>
+      <c r="E121" s="17"/>
+      <c r="F121" s="17"/>
+      <c r="G121" s="17"/>
+      <c r="H121" s="17"/>
     </row>
     <row r="122" spans="2:8" ht="147" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B122" s="18"/>
-      <c r="C122" s="18"/>
-      <c r="D122" s="18"/>
-      <c r="E122" s="18"/>
-      <c r="F122" s="18"/>
-      <c r="G122" s="18"/>
-      <c r="H122" s="18"/>
+      <c r="B122" s="17"/>
+      <c r="C122" s="17"/>
+      <c r="D122" s="17"/>
+      <c r="E122" s="17"/>
+      <c r="F122" s="17"/>
+      <c r="G122" s="17"/>
+      <c r="H122" s="17"/>
     </row>
     <row r="123" spans="2:8" ht="147" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B123" s="18"/>
-      <c r="C123" s="18"/>
-      <c r="D123" s="18"/>
-      <c r="E123" s="18"/>
-      <c r="F123" s="18"/>
-      <c r="G123" s="18"/>
-      <c r="H123" s="18"/>
+      <c r="B123" s="17"/>
+      <c r="C123" s="17"/>
+      <c r="D123" s="17"/>
+      <c r="E123" s="17"/>
+      <c r="F123" s="17"/>
+      <c r="G123" s="17"/>
+      <c r="H123" s="17"/>
     </row>
     <row r="124" spans="2:8" ht="147" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B124" s="18"/>
-      <c r="C124" s="18"/>
-      <c r="D124" s="18"/>
-      <c r="E124" s="18"/>
-      <c r="F124" s="18"/>
-      <c r="G124" s="18"/>
-      <c r="H124" s="18"/>
+      <c r="B124" s="17"/>
+      <c r="C124" s="17"/>
+      <c r="D124" s="17"/>
+      <c r="E124" s="17"/>
+      <c r="F124" s="17"/>
+      <c r="G124" s="17"/>
+      <c r="H124" s="17"/>
     </row>
     <row r="125" spans="2:8" ht="147" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B125" s="18"/>
-      <c r="C125" s="18"/>
-      <c r="D125" s="18"/>
-      <c r="E125" s="18"/>
-      <c r="F125" s="18"/>
-      <c r="G125" s="18"/>
-      <c r="H125" s="18"/>
+      <c r="B125" s="17"/>
+      <c r="C125" s="17"/>
+      <c r="D125" s="17"/>
+      <c r="E125" s="17"/>
+      <c r="F125" s="17"/>
+      <c r="G125" s="17"/>
+      <c r="H125" s="17"/>
     </row>
     <row r="126" spans="2:8" ht="147" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B126" s="18"/>
-      <c r="C126" s="18"/>
-      <c r="D126" s="18"/>
-      <c r="E126" s="18"/>
-      <c r="F126" s="18"/>
-      <c r="G126" s="18"/>
-      <c r="H126" s="18"/>
+      <c r="B126" s="17"/>
+      <c r="C126" s="17"/>
+      <c r="D126" s="17"/>
+      <c r="E126" s="17"/>
+      <c r="F126" s="17"/>
+      <c r="G126" s="17"/>
+      <c r="H126" s="17"/>
     </row>
     <row r="127" spans="2:8" ht="147" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B127" s="18"/>
-      <c r="C127" s="18"/>
-      <c r="D127" s="18"/>
-      <c r="E127" s="18"/>
-      <c r="F127" s="18"/>
-      <c r="G127" s="18"/>
-      <c r="H127" s="18"/>
+      <c r="B127" s="17"/>
+      <c r="C127" s="17"/>
+      <c r="D127" s="17"/>
+      <c r="E127" s="17"/>
+      <c r="F127" s="17"/>
+      <c r="G127" s="17"/>
+      <c r="H127" s="17"/>
     </row>
     <row r="128" spans="2:8" ht="147" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B128" s="18"/>
-      <c r="C128" s="18"/>
-      <c r="D128" s="18"/>
-      <c r="E128" s="18"/>
-      <c r="F128" s="18"/>
-      <c r="G128" s="18"/>
-      <c r="H128" s="18"/>
+      <c r="B128" s="17"/>
+      <c r="C128" s="17"/>
+      <c r="D128" s="17"/>
+      <c r="E128" s="17"/>
+      <c r="F128" s="17"/>
+      <c r="G128" s="17"/>
+      <c r="H128" s="17"/>
     </row>
     <row r="129" spans="2:8" ht="147" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B129" s="18"/>
-      <c r="C129" s="18"/>
-      <c r="D129" s="18"/>
-      <c r="E129" s="18"/>
-      <c r="F129" s="18"/>
-      <c r="G129" s="18"/>
-      <c r="H129" s="18"/>
+      <c r="B129" s="17"/>
+      <c r="C129" s="17"/>
+      <c r="D129" s="17"/>
+      <c r="E129" s="17"/>
+      <c r="F129" s="17"/>
+      <c r="G129" s="17"/>
+      <c r="H129" s="17"/>
     </row>
     <row r="130" spans="2:8" ht="147" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B130" s="18"/>
-      <c r="C130" s="18"/>
-      <c r="D130" s="18"/>
-      <c r="E130" s="18"/>
-      <c r="F130" s="18"/>
-      <c r="G130" s="18"/>
-      <c r="H130" s="18"/>
+      <c r="B130" s="17"/>
+      <c r="C130" s="17"/>
+      <c r="D130" s="17"/>
+      <c r="E130" s="17"/>
+      <c r="F130" s="17"/>
+      <c r="G130" s="17"/>
+      <c r="H130" s="17"/>
     </row>
     <row r="131" spans="2:8" ht="147" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B131" s="18"/>
-      <c r="C131" s="18"/>
-      <c r="D131" s="18"/>
-      <c r="E131" s="18"/>
-      <c r="F131" s="18"/>
-      <c r="G131" s="18"/>
-      <c r="H131" s="18"/>
+      <c r="B131" s="17"/>
+      <c r="C131" s="17"/>
+      <c r="D131" s="17"/>
+      <c r="E131" s="17"/>
+      <c r="F131" s="17"/>
+      <c r="G131" s="17"/>
+      <c r="H131" s="17"/>
     </row>
     <row r="132" spans="2:8" ht="147" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B132" s="18"/>
-      <c r="C132" s="18"/>
-      <c r="D132" s="18"/>
-      <c r="E132" s="18"/>
-      <c r="F132" s="18"/>
-      <c r="G132" s="18"/>
-      <c r="H132" s="18"/>
+      <c r="B132" s="17"/>
+      <c r="C132" s="17"/>
+      <c r="D132" s="17"/>
+      <c r="E132" s="17"/>
+      <c r="F132" s="17"/>
+      <c r="G132" s="17"/>
+      <c r="H132" s="17"/>
     </row>
     <row r="133" spans="2:8" ht="147" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B133" s="18"/>
-      <c r="C133" s="18"/>
-      <c r="D133" s="18"/>
-      <c r="E133" s="18"/>
-      <c r="F133" s="18"/>
-      <c r="G133" s="18"/>
-      <c r="H133" s="18"/>
+      <c r="B133" s="17"/>
+      <c r="C133" s="17"/>
+      <c r="D133" s="17"/>
+      <c r="E133" s="17"/>
+      <c r="F133" s="17"/>
+      <c r="G133" s="17"/>
+      <c r="H133" s="17"/>
     </row>
     <row r="134" spans="2:8" ht="147" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B134" s="18"/>
-      <c r="C134" s="18"/>
-      <c r="D134" s="18"/>
-      <c r="E134" s="18"/>
-      <c r="F134" s="18"/>
-      <c r="G134" s="18"/>
-      <c r="H134" s="18"/>
+      <c r="B134" s="17"/>
+      <c r="C134" s="17"/>
+      <c r="D134" s="17"/>
+      <c r="E134" s="17"/>
+      <c r="F134" s="17"/>
+      <c r="G134" s="17"/>
+      <c r="H134" s="17"/>
     </row>
     <row r="135" spans="2:8" ht="147" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B135" s="18"/>
-      <c r="C135" s="18"/>
-      <c r="D135" s="18"/>
-      <c r="E135" s="18"/>
-      <c r="F135" s="18"/>
-      <c r="G135" s="18"/>
-      <c r="H135" s="18"/>
+      <c r="B135" s="17"/>
+      <c r="C135" s="17"/>
+      <c r="D135" s="17"/>
+      <c r="E135" s="17"/>
+      <c r="F135" s="17"/>
+      <c r="G135" s="17"/>
+      <c r="H135" s="17"/>
     </row>
     <row r="136" spans="2:8" ht="147" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B136" s="18"/>
-      <c r="C136" s="18"/>
-      <c r="D136" s="18"/>
-      <c r="E136" s="18"/>
-      <c r="F136" s="18"/>
-      <c r="G136" s="18"/>
-      <c r="H136" s="18"/>
+      <c r="B136" s="17"/>
+      <c r="C136" s="17"/>
+      <c r="D136" s="17"/>
+      <c r="E136" s="17"/>
+      <c r="F136" s="17"/>
+      <c r="G136" s="17"/>
+      <c r="H136" s="17"/>
     </row>
     <row r="137" spans="2:8" ht="147" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B137" s="18"/>
-      <c r="C137" s="18"/>
-      <c r="D137" s="18"/>
-      <c r="E137" s="18"/>
-      <c r="F137" s="18"/>
-      <c r="G137" s="18"/>
-      <c r="H137" s="18"/>
+      <c r="B137" s="17"/>
+      <c r="C137" s="17"/>
+      <c r="D137" s="17"/>
+      <c r="E137" s="17"/>
+      <c r="F137" s="17"/>
+      <c r="G137" s="17"/>
+      <c r="H137" s="17"/>
     </row>
     <row r="138" spans="2:8" ht="147" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B138" s="18"/>
-      <c r="C138" s="18"/>
-      <c r="D138" s="18"/>
-      <c r="E138" s="18"/>
-      <c r="F138" s="18"/>
-      <c r="G138" s="18"/>
-      <c r="H138" s="18"/>
+      <c r="B138" s="17"/>
+      <c r="C138" s="17"/>
+      <c r="D138" s="17"/>
+      <c r="E138" s="17"/>
+      <c r="F138" s="17"/>
+      <c r="G138" s="17"/>
+      <c r="H138" s="17"/>
     </row>
     <row r="139" spans="2:8" ht="147" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B139" s="18"/>
-      <c r="C139" s="18"/>
-      <c r="D139" s="18"/>
-      <c r="E139" s="18"/>
-      <c r="F139" s="18"/>
-      <c r="G139" s="18"/>
-      <c r="H139" s="18"/>
+      <c r="B139" s="17"/>
+      <c r="C139" s="17"/>
+      <c r="D139" s="17"/>
+      <c r="E139" s="17"/>
+      <c r="F139" s="17"/>
+      <c r="G139" s="17"/>
+      <c r="H139" s="17"/>
     </row>
     <row r="140" spans="2:8" ht="147" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B140" s="18"/>
-      <c r="C140" s="18"/>
-      <c r="D140" s="18"/>
-      <c r="E140" s="18"/>
-      <c r="F140" s="18"/>
-      <c r="G140" s="18"/>
-      <c r="H140" s="18"/>
+      <c r="B140" s="17"/>
+      <c r="C140" s="17"/>
+      <c r="D140" s="17"/>
+      <c r="E140" s="17"/>
+      <c r="F140" s="17"/>
+      <c r="G140" s="17"/>
+      <c r="H140" s="17"/>
     </row>
     <row r="141" spans="2:8" ht="147" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B141" s="18"/>
-      <c r="C141" s="18"/>
-      <c r="D141" s="18"/>
-      <c r="E141" s="18"/>
-      <c r="F141" s="18"/>
-      <c r="G141" s="18"/>
-      <c r="H141" s="18"/>
+      <c r="B141" s="17"/>
+      <c r="C141" s="17"/>
+      <c r="D141" s="17"/>
+      <c r="E141" s="17"/>
+      <c r="F141" s="17"/>
+      <c r="G141" s="17"/>
+      <c r="H141" s="17"/>
     </row>
     <row r="142" spans="2:8" ht="147" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B142" s="18"/>
-      <c r="C142" s="18"/>
-      <c r="D142" s="18"/>
-      <c r="E142" s="18"/>
-      <c r="F142" s="18"/>
-      <c r="G142" s="18"/>
-      <c r="H142" s="18"/>
+      <c r="B142" s="17"/>
+      <c r="C142" s="17"/>
+      <c r="D142" s="17"/>
+      <c r="E142" s="17"/>
+      <c r="F142" s="17"/>
+      <c r="G142" s="17"/>
+      <c r="H142" s="17"/>
     </row>
     <row r="143" spans="2:8" ht="147" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B143" s="18"/>
-      <c r="C143" s="18"/>
-      <c r="D143" s="18"/>
-      <c r="E143" s="18"/>
-      <c r="F143" s="18"/>
-      <c r="G143" s="18"/>
-      <c r="H143" s="18"/>
+      <c r="B143" s="17"/>
+      <c r="C143" s="17"/>
+      <c r="D143" s="17"/>
+      <c r="E143" s="17"/>
+      <c r="F143" s="17"/>
+      <c r="G143" s="17"/>
+      <c r="H143" s="17"/>
     </row>
     <row r="144" spans="2:8" ht="147" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B144" s="18"/>
-      <c r="C144" s="18"/>
-      <c r="D144" s="18"/>
-      <c r="E144" s="18"/>
-      <c r="F144" s="18"/>
-      <c r="G144" s="18"/>
-      <c r="H144" s="18"/>
+      <c r="B144" s="17"/>
+      <c r="C144" s="17"/>
+      <c r="D144" s="17"/>
+      <c r="E144" s="17"/>
+      <c r="F144" s="17"/>
+      <c r="G144" s="17"/>
+      <c r="H144" s="17"/>
     </row>
     <row r="145" spans="2:8" ht="147" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B145" s="18"/>
-      <c r="C145" s="18"/>
-      <c r="D145" s="18"/>
-      <c r="E145" s="18"/>
-      <c r="F145" s="18"/>
-      <c r="G145" s="18"/>
-      <c r="H145" s="18"/>
+      <c r="B145" s="17"/>
+      <c r="C145" s="17"/>
+      <c r="D145" s="17"/>
+      <c r="E145" s="17"/>
+      <c r="F145" s="17"/>
+      <c r="G145" s="17"/>
+      <c r="H145" s="17"/>
     </row>
     <row r="146" spans="2:8" ht="147" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B146" s="18"/>
-      <c r="C146" s="18"/>
-      <c r="D146" s="18"/>
-      <c r="E146" s="18"/>
-      <c r="F146" s="18"/>
-      <c r="G146" s="18"/>
-      <c r="H146" s="18"/>
+      <c r="B146" s="17"/>
+      <c r="C146" s="17"/>
+      <c r="D146" s="17"/>
+      <c r="E146" s="17"/>
+      <c r="F146" s="17"/>
+      <c r="G146" s="17"/>
+      <c r="H146" s="17"/>
     </row>
     <row r="147" spans="2:8" ht="147" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B147" s="18"/>
-      <c r="C147" s="18"/>
-      <c r="D147" s="18"/>
-      <c r="E147" s="18"/>
-      <c r="F147" s="18"/>
-      <c r="G147" s="18"/>
-      <c r="H147" s="18"/>
+      <c r="B147" s="17"/>
+      <c r="C147" s="17"/>
+      <c r="D147" s="17"/>
+      <c r="E147" s="17"/>
+      <c r="F147" s="17"/>
+      <c r="G147" s="17"/>
+      <c r="H147" s="17"/>
     </row>
     <row r="148" spans="2:8" ht="147" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B148" s="18"/>
-      <c r="C148" s="18"/>
-      <c r="D148" s="18"/>
-      <c r="E148" s="18"/>
-      <c r="F148" s="18"/>
-      <c r="G148" s="18"/>
-      <c r="H148" s="18"/>
+      <c r="B148" s="17"/>
+      <c r="C148" s="17"/>
+      <c r="D148" s="17"/>
+      <c r="E148" s="17"/>
+      <c r="F148" s="17"/>
+      <c r="G148" s="17"/>
+      <c r="H148" s="17"/>
     </row>
     <row r="149" spans="2:8" ht="147" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B149" s="18"/>
-      <c r="C149" s="18"/>
-      <c r="D149" s="18"/>
-      <c r="E149" s="18"/>
-      <c r="F149" s="18"/>
-      <c r="G149" s="18"/>
-      <c r="H149" s="18"/>
+      <c r="B149" s="17"/>
+      <c r="C149" s="17"/>
+      <c r="D149" s="17"/>
+      <c r="E149" s="17"/>
+      <c r="F149" s="17"/>
+      <c r="G149" s="17"/>
+      <c r="H149" s="17"/>
     </row>
     <row r="150" spans="2:8" ht="147" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B150" s="18"/>
-      <c r="C150" s="18"/>
-      <c r="D150" s="18"/>
-      <c r="E150" s="18"/>
-      <c r="F150" s="18"/>
-      <c r="G150" s="18"/>
-      <c r="H150" s="18"/>
+      <c r="B150" s="17"/>
+      <c r="C150" s="17"/>
+      <c r="D150" s="17"/>
+      <c r="E150" s="17"/>
+      <c r="F150" s="17"/>
+      <c r="G150" s="17"/>
+      <c r="H150" s="17"/>
     </row>
     <row r="151" spans="2:8" ht="147" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B151" s="18"/>
-      <c r="C151" s="18"/>
-      <c r="D151" s="18"/>
-      <c r="E151" s="18"/>
-      <c r="F151" s="18"/>
-      <c r="G151" s="18"/>
-      <c r="H151" s="18"/>
+      <c r="B151" s="17"/>
+      <c r="C151" s="17"/>
+      <c r="D151" s="17"/>
+      <c r="E151" s="17"/>
+      <c r="F151" s="17"/>
+      <c r="G151" s="17"/>
+      <c r="H151" s="17"/>
     </row>
     <row r="152" spans="2:8" ht="147" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B152" s="18"/>
-      <c r="C152" s="18"/>
-      <c r="D152" s="18"/>
-      <c r="E152" s="18"/>
-      <c r="F152" s="18"/>
-      <c r="G152" s="18"/>
-      <c r="H152" s="18"/>
+      <c r="B152" s="17"/>
+      <c r="C152" s="17"/>
+      <c r="D152" s="17"/>
+      <c r="E152" s="17"/>
+      <c r="F152" s="17"/>
+      <c r="G152" s="17"/>
+      <c r="H152" s="17"/>
     </row>
     <row r="153" spans="2:8" ht="147" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B153" s="18"/>
-      <c r="C153" s="18"/>
-      <c r="D153" s="18"/>
-      <c r="E153" s="18"/>
-      <c r="F153" s="18"/>
-      <c r="G153" s="18"/>
-      <c r="H153" s="18"/>
+      <c r="B153" s="17"/>
+      <c r="C153" s="17"/>
+      <c r="D153" s="17"/>
+      <c r="E153" s="17"/>
+      <c r="F153" s="17"/>
+      <c r="G153" s="17"/>
+      <c r="H153" s="17"/>
     </row>
     <row r="154" spans="2:8" ht="147" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B154" s="18"/>
-      <c r="C154" s="18"/>
-      <c r="D154" s="18"/>
-      <c r="E154" s="18"/>
-      <c r="F154" s="18"/>
-      <c r="G154" s="18"/>
-      <c r="H154" s="18"/>
+      <c r="B154" s="17"/>
+      <c r="C154" s="17"/>
+      <c r="D154" s="17"/>
+      <c r="E154" s="17"/>
+      <c r="F154" s="17"/>
+      <c r="G154" s="17"/>
+      <c r="H154" s="17"/>
     </row>
     <row r="155" spans="2:8" ht="147" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B155" s="18"/>
-      <c r="C155" s="18"/>
-      <c r="D155" s="18"/>
-      <c r="E155" s="18"/>
-      <c r="F155" s="18"/>
-      <c r="G155" s="18"/>
-      <c r="H155" s="18"/>
+      <c r="B155" s="17"/>
+      <c r="C155" s="17"/>
+      <c r="D155" s="17"/>
+      <c r="E155" s="17"/>
+      <c r="F155" s="17"/>
+      <c r="G155" s="17"/>
+      <c r="H155" s="17"/>
     </row>
     <row r="156" spans="2:8" ht="147" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B156" s="18"/>
-      <c r="C156" s="18"/>
-      <c r="D156" s="18"/>
-      <c r="E156" s="18"/>
-      <c r="F156" s="18"/>
-      <c r="G156" s="18"/>
-      <c r="H156" s="18"/>
+      <c r="B156" s="17"/>
+      <c r="C156" s="17"/>
+      <c r="D156" s="17"/>
+      <c r="E156" s="17"/>
+      <c r="F156" s="17"/>
+      <c r="G156" s="17"/>
+      <c r="H156" s="17"/>
     </row>
     <row r="157" spans="2:8" ht="147" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B157" s="18"/>
-      <c r="C157" s="18"/>
-      <c r="D157" s="18"/>
-      <c r="E157" s="18"/>
-      <c r="F157" s="18"/>
-      <c r="G157" s="18"/>
-      <c r="H157" s="18"/>
+      <c r="B157" s="17"/>
+      <c r="C157" s="17"/>
+      <c r="D157" s="17"/>
+      <c r="E157" s="17"/>
+      <c r="F157" s="17"/>
+      <c r="G157" s="17"/>
+      <c r="H157" s="17"/>
     </row>
     <row r="158" spans="2:8" ht="147" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B158" s="18"/>
-      <c r="C158" s="18"/>
-      <c r="D158" s="18"/>
-      <c r="E158" s="18"/>
-      <c r="F158" s="18"/>
-      <c r="G158" s="18"/>
-      <c r="H158" s="18"/>
+      <c r="B158" s="17"/>
+      <c r="C158" s="17"/>
+      <c r="D158" s="17"/>
+      <c r="E158" s="17"/>
+      <c r="F158" s="17"/>
+      <c r="G158" s="17"/>
+      <c r="H158" s="17"/>
     </row>
     <row r="159" spans="2:8" ht="147" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B159" s="18"/>
-      <c r="C159" s="18"/>
-      <c r="D159" s="18"/>
-      <c r="E159" s="18"/>
-      <c r="F159" s="18"/>
-      <c r="G159" s="18"/>
-      <c r="H159" s="18"/>
+      <c r="B159" s="17"/>
+      <c r="C159" s="17"/>
+      <c r="D159" s="17"/>
+      <c r="E159" s="17"/>
+      <c r="F159" s="17"/>
+      <c r="G159" s="17"/>
+      <c r="H159" s="17"/>
     </row>
     <row r="160" spans="2:8" ht="147" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B160" s="18"/>
-      <c r="C160" s="18"/>
-      <c r="D160" s="18"/>
-      <c r="E160" s="18"/>
-      <c r="F160" s="18"/>
-      <c r="G160" s="18"/>
-      <c r="H160" s="18"/>
+      <c r="B160" s="17"/>
+      <c r="C160" s="17"/>
+      <c r="D160" s="17"/>
+      <c r="E160" s="17"/>
+      <c r="F160" s="17"/>
+      <c r="G160" s="17"/>
+      <c r="H160" s="17"/>
     </row>
     <row r="161" spans="2:8" ht="147" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B161" s="18"/>
-      <c r="C161" s="18"/>
-      <c r="D161" s="18"/>
-      <c r="E161" s="18"/>
-      <c r="F161" s="18"/>
-      <c r="G161" s="18"/>
-      <c r="H161" s="18"/>
+      <c r="B161" s="17"/>
+      <c r="C161" s="17"/>
+      <c r="D161" s="17"/>
+      <c r="E161" s="17"/>
+      <c r="F161" s="17"/>
+      <c r="G161" s="17"/>
+      <c r="H161" s="17"/>
     </row>
     <row r="162" spans="2:8" ht="147" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B162" s="18"/>
-      <c r="C162" s="18"/>
-      <c r="D162" s="18"/>
-      <c r="E162" s="18"/>
-      <c r="F162" s="18"/>
-      <c r="G162" s="18"/>
-      <c r="H162" s="18"/>
+      <c r="B162" s="17"/>
+      <c r="C162" s="17"/>
+      <c r="D162" s="17"/>
+      <c r="E162" s="17"/>
+      <c r="F162" s="17"/>
+      <c r="G162" s="17"/>
+      <c r="H162" s="17"/>
     </row>
     <row r="163" spans="2:8" ht="147" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B163" s="18"/>
-      <c r="C163" s="18"/>
-      <c r="D163" s="18"/>
-      <c r="E163" s="18"/>
-      <c r="F163" s="18"/>
-      <c r="G163" s="18"/>
-      <c r="H163" s="18"/>
+      <c r="B163" s="17"/>
+      <c r="C163" s="17"/>
+      <c r="D163" s="17"/>
+      <c r="E163" s="17"/>
+      <c r="F163" s="17"/>
+      <c r="G163" s="17"/>
+      <c r="H163" s="17"/>
     </row>
     <row r="164" spans="2:8" ht="147" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B164" s="18"/>
-      <c r="C164" s="18"/>
-      <c r="D164" s="18"/>
-      <c r="E164" s="18"/>
-      <c r="F164" s="18"/>
-      <c r="G164" s="18"/>
-      <c r="H164" s="18"/>
+      <c r="B164" s="17"/>
+      <c r="C164" s="17"/>
+      <c r="D164" s="17"/>
+      <c r="E164" s="17"/>
+      <c r="F164" s="17"/>
+      <c r="G164" s="17"/>
+      <c r="H164" s="17"/>
     </row>
     <row r="165" spans="2:8" ht="147" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B165" s="18"/>
-      <c r="C165" s="18"/>
-      <c r="D165" s="18"/>
-      <c r="E165" s="18"/>
-      <c r="F165" s="18"/>
-      <c r="G165" s="18"/>
-      <c r="H165" s="18"/>
+      <c r="B165" s="17"/>
+      <c r="C165" s="17"/>
+      <c r="D165" s="17"/>
+      <c r="E165" s="17"/>
+      <c r="F165" s="17"/>
+      <c r="G165" s="17"/>
+      <c r="H165" s="17"/>
     </row>
     <row r="166" spans="2:8" ht="147" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B166" s="18"/>
-      <c r="C166" s="18"/>
-      <c r="D166" s="18"/>
-      <c r="E166" s="18"/>
-      <c r="F166" s="18"/>
-      <c r="G166" s="18"/>
-      <c r="H166" s="18"/>
+      <c r="B166" s="17"/>
+      <c r="C166" s="17"/>
+      <c r="D166" s="17"/>
+      <c r="E166" s="17"/>
+      <c r="F166" s="17"/>
+      <c r="G166" s="17"/>
+      <c r="H166" s="17"/>
     </row>
     <row r="167" spans="2:8" ht="147" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B167" s="18"/>
-      <c r="C167" s="18"/>
-      <c r="D167" s="18"/>
-      <c r="E167" s="18"/>
-      <c r="F167" s="18"/>
-      <c r="G167" s="18"/>
-      <c r="H167" s="18"/>
+      <c r="B167" s="17"/>
+      <c r="C167" s="17"/>
+      <c r="D167" s="17"/>
+      <c r="E167" s="17"/>
+      <c r="F167" s="17"/>
+      <c r="G167" s="17"/>
+      <c r="H167" s="17"/>
     </row>
     <row r="168" spans="2:8" ht="147" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B168" s="18"/>
-      <c r="C168" s="18"/>
-      <c r="D168" s="18"/>
-      <c r="E168" s="18"/>
-      <c r="F168" s="18"/>
-      <c r="G168" s="18"/>
-      <c r="H168" s="18"/>
+      <c r="B168" s="17"/>
+      <c r="C168" s="17"/>
+      <c r="D168" s="17"/>
+      <c r="E168" s="17"/>
+      <c r="F168" s="17"/>
+      <c r="G168" s="17"/>
+      <c r="H168" s="17"/>
     </row>
     <row r="169" spans="2:8" ht="147" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B169" s="18"/>
-      <c r="C169" s="18"/>
-      <c r="D169" s="18"/>
-      <c r="E169" s="18"/>
-      <c r="F169" s="18"/>
-      <c r="G169" s="18"/>
-      <c r="H169" s="18"/>
+      <c r="B169" s="17"/>
+      <c r="C169" s="17"/>
+      <c r="D169" s="17"/>
+      <c r="E169" s="17"/>
+      <c r="F169" s="17"/>
+      <c r="G169" s="17"/>
+      <c r="H169" s="17"/>
     </row>
     <row r="170" spans="2:8" ht="147" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B170" s="18"/>
-      <c r="C170" s="18"/>
-      <c r="D170" s="18"/>
-      <c r="E170" s="18"/>
-      <c r="F170" s="18"/>
-      <c r="G170" s="18"/>
-      <c r="H170" s="18"/>
+      <c r="B170" s="17"/>
+      <c r="C170" s="17"/>
+      <c r="D170" s="17"/>
+      <c r="E170" s="17"/>
+      <c r="F170" s="17"/>
+      <c r="G170" s="17"/>
+      <c r="H170" s="17"/>
     </row>
     <row r="171" spans="2:8" ht="147" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B171" s="18"/>
-      <c r="C171" s="18"/>
-      <c r="D171" s="18"/>
-      <c r="E171" s="18"/>
-      <c r="F171" s="18"/>
-      <c r="G171" s="18"/>
-      <c r="H171" s="18"/>
+      <c r="B171" s="17"/>
+      <c r="C171" s="17"/>
+      <c r="D171" s="17"/>
+      <c r="E171" s="17"/>
+      <c r="F171" s="17"/>
+      <c r="G171" s="17"/>
+      <c r="H171" s="17"/>
     </row>
     <row r="172" spans="2:8" ht="147" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B172" s="18"/>
-      <c r="C172" s="18"/>
-      <c r="D172" s="18"/>
-      <c r="E172" s="18"/>
-      <c r="F172" s="18"/>
-      <c r="G172" s="18"/>
-      <c r="H172" s="18"/>
+      <c r="B172" s="17"/>
+      <c r="C172" s="17"/>
+      <c r="D172" s="17"/>
+      <c r="E172" s="17"/>
+      <c r="F172" s="17"/>
+      <c r="G172" s="17"/>
+      <c r="H172" s="17"/>
     </row>
     <row r="173" spans="2:8" ht="147" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B173" s="18"/>
-      <c r="C173" s="18"/>
-      <c r="D173" s="18"/>
-      <c r="E173" s="18"/>
-      <c r="F173" s="18"/>
-      <c r="G173" s="18"/>
-      <c r="H173" s="18"/>
+      <c r="B173" s="17"/>
+      <c r="C173" s="17"/>
+      <c r="D173" s="17"/>
+      <c r="E173" s="17"/>
+      <c r="F173" s="17"/>
+      <c r="G173" s="17"/>
+      <c r="H173" s="17"/>
     </row>
     <row r="174" spans="2:8" ht="147" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B174" s="18"/>
-      <c r="C174" s="18"/>
-      <c r="D174" s="18"/>
-      <c r="E174" s="18"/>
-      <c r="F174" s="18"/>
-      <c r="G174" s="18"/>
-      <c r="H174" s="18"/>
+      <c r="B174" s="17"/>
+      <c r="C174" s="17"/>
+      <c r="D174" s="17"/>
+      <c r="E174" s="17"/>
+      <c r="F174" s="17"/>
+      <c r="G174" s="17"/>
+      <c r="H174" s="17"/>
     </row>
     <row r="175" spans="2:8" ht="147" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B175" s="18"/>
-      <c r="C175" s="18"/>
-      <c r="D175" s="18"/>
-      <c r="E175" s="18"/>
-      <c r="F175" s="18"/>
-      <c r="G175" s="18"/>
-      <c r="H175" s="18"/>
+      <c r="B175" s="17"/>
+      <c r="C175" s="17"/>
+      <c r="D175" s="17"/>
+      <c r="E175" s="17"/>
+      <c r="F175" s="17"/>
+      <c r="G175" s="17"/>
+      <c r="H175" s="17"/>
     </row>
     <row r="176" spans="2:8" ht="147" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B176" s="18"/>
-      <c r="C176" s="18"/>
-      <c r="D176" s="18"/>
-      <c r="E176" s="18"/>
-      <c r="F176" s="18"/>
-      <c r="G176" s="18"/>
-      <c r="H176" s="18"/>
+      <c r="B176" s="17"/>
+      <c r="C176" s="17"/>
+      <c r="D176" s="17"/>
+      <c r="E176" s="17"/>
+      <c r="F176" s="17"/>
+      <c r="G176" s="17"/>
+      <c r="H176" s="17"/>
     </row>
     <row r="177" spans="2:8" ht="147" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B177" s="18"/>
-      <c r="C177" s="18"/>
-      <c r="D177" s="18"/>
-      <c r="E177" s="18"/>
-      <c r="F177" s="18"/>
-      <c r="G177" s="18"/>
-      <c r="H177" s="18"/>
+      <c r="B177" s="17"/>
+      <c r="C177" s="17"/>
+      <c r="D177" s="17"/>
+      <c r="E177" s="17"/>
+      <c r="F177" s="17"/>
+      <c r="G177" s="17"/>
+      <c r="H177" s="17"/>
     </row>
     <row r="178" spans="2:8" ht="147" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B178" s="18"/>
-      <c r="C178" s="18"/>
-      <c r="D178" s="18"/>
-      <c r="E178" s="18"/>
-      <c r="F178" s="18"/>
-      <c r="G178" s="18"/>
-      <c r="H178" s="18"/>
+      <c r="B178" s="17"/>
+      <c r="C178" s="17"/>
+      <c r="D178" s="17"/>
+      <c r="E178" s="17"/>
+      <c r="F178" s="17"/>
+      <c r="G178" s="17"/>
+      <c r="H178" s="17"/>
     </row>
     <row r="179" spans="2:8" ht="147" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B179" s="18"/>
-      <c r="C179" s="18"/>
-      <c r="D179" s="18"/>
-      <c r="E179" s="18"/>
-      <c r="F179" s="18"/>
-      <c r="G179" s="18"/>
-      <c r="H179" s="18"/>
+      <c r="B179" s="17"/>
+      <c r="C179" s="17"/>
+      <c r="D179" s="17"/>
+      <c r="E179" s="17"/>
+      <c r="F179" s="17"/>
+      <c r="G179" s="17"/>
+      <c r="H179" s="17"/>
     </row>
     <row r="180" spans="2:8" ht="147" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B180" s="18"/>
-      <c r="C180" s="18"/>
-      <c r="D180" s="18"/>
-      <c r="E180" s="18"/>
-      <c r="F180" s="18"/>
-      <c r="G180" s="18"/>
-      <c r="H180" s="18"/>
+      <c r="B180" s="17"/>
+      <c r="C180" s="17"/>
+      <c r="D180" s="17"/>
+      <c r="E180" s="17"/>
+      <c r="F180" s="17"/>
+      <c r="G180" s="17"/>
+      <c r="H180" s="17"/>
     </row>
     <row r="181" spans="2:8" ht="147" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B181" s="18"/>
-      <c r="C181" s="18"/>
-      <c r="D181" s="18"/>
-      <c r="E181" s="18"/>
-      <c r="F181" s="18"/>
-      <c r="G181" s="18"/>
-      <c r="H181" s="18"/>
+      <c r="B181" s="17"/>
+      <c r="C181" s="17"/>
+      <c r="D181" s="17"/>
+      <c r="E181" s="17"/>
+      <c r="F181" s="17"/>
+      <c r="G181" s="17"/>
+      <c r="H181" s="17"/>
     </row>
     <row r="182" spans="2:8" ht="147" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B182" s="18"/>
-      <c r="C182" s="18"/>
-      <c r="D182" s="18"/>
-      <c r="E182" s="18"/>
-      <c r="F182" s="18"/>
-      <c r="G182" s="18"/>
-      <c r="H182" s="18"/>
+      <c r="B182" s="17"/>
+      <c r="C182" s="17"/>
+      <c r="D182" s="17"/>
+      <c r="E182" s="17"/>
+      <c r="F182" s="17"/>
+      <c r="G182" s="17"/>
+      <c r="H182" s="17"/>
     </row>
     <row r="183" spans="2:8" ht="147" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B183" s="18"/>
-      <c r="C183" s="18"/>
-      <c r="D183" s="18"/>
-      <c r="E183" s="18"/>
-      <c r="F183" s="18"/>
-      <c r="G183" s="18"/>
-      <c r="H183" s="18"/>
+      <c r="B183" s="17"/>
+      <c r="C183" s="17"/>
+      <c r="D183" s="17"/>
+      <c r="E183" s="17"/>
+      <c r="F183" s="17"/>
+      <c r="G183" s="17"/>
+      <c r="H183" s="17"/>
     </row>
     <row r="184" spans="2:8" ht="147" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B184" s="18"/>
-      <c r="C184" s="18"/>
-      <c r="D184" s="18"/>
-      <c r="E184" s="18"/>
-      <c r="F184" s="18"/>
-      <c r="G184" s="18"/>
-      <c r="H184" s="18"/>
+      <c r="B184" s="17"/>
+      <c r="C184" s="17"/>
+      <c r="D184" s="17"/>
+      <c r="E184" s="17"/>
+      <c r="F184" s="17"/>
+      <c r="G184" s="17"/>
+      <c r="H184" s="17"/>
     </row>
     <row r="185" spans="2:8" ht="147" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B185" s="18"/>
-      <c r="C185" s="18"/>
-      <c r="D185" s="18"/>
-      <c r="E185" s="18"/>
-      <c r="F185" s="18"/>
-      <c r="G185" s="18"/>
-      <c r="H185" s="18"/>
+      <c r="B185" s="17"/>
+      <c r="C185" s="17"/>
+      <c r="D185" s="17"/>
+      <c r="E185" s="17"/>
+      <c r="F185" s="17"/>
+      <c r="G185" s="17"/>
+      <c r="H185" s="17"/>
     </row>
     <row r="186" spans="2:8" ht="147" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B186" s="18"/>
-      <c r="C186" s="18"/>
-      <c r="D186" s="18"/>
-      <c r="E186" s="18"/>
-      <c r="F186" s="18"/>
-      <c r="G186" s="18"/>
-      <c r="H186" s="18"/>
+      <c r="B186" s="17"/>
+      <c r="C186" s="17"/>
+      <c r="D186" s="17"/>
+      <c r="E186" s="17"/>
+      <c r="F186" s="17"/>
+      <c r="G186" s="17"/>
+      <c r="H186" s="17"/>
     </row>
     <row r="187" spans="2:8" ht="147" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B187" s="18"/>
-      <c r="C187" s="18"/>
-      <c r="D187" s="18"/>
-      <c r="E187" s="18"/>
-      <c r="F187" s="18"/>
-      <c r="G187" s="18"/>
-      <c r="H187" s="18"/>
+      <c r="B187" s="17"/>
+      <c r="C187" s="17"/>
+      <c r="D187" s="17"/>
+      <c r="E187" s="17"/>
+      <c r="F187" s="17"/>
+      <c r="G187" s="17"/>
+      <c r="H187" s="17"/>
     </row>
     <row r="188" spans="2:8" ht="147" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B188" s="18"/>
-      <c r="C188" s="18"/>
-      <c r="D188" s="18"/>
-      <c r="E188" s="18"/>
-      <c r="F188" s="18"/>
-      <c r="G188" s="18"/>
-      <c r="H188" s="18"/>
+      <c r="B188" s="17"/>
+      <c r="C188" s="17"/>
+      <c r="D188" s="17"/>
+      <c r="E188" s="17"/>
+      <c r="F188" s="17"/>
+      <c r="G188" s="17"/>
+      <c r="H188" s="17"/>
     </row>
     <row r="189" spans="2:8" ht="147" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B189" s="18"/>
-      <c r="C189" s="18"/>
-      <c r="D189" s="18"/>
-      <c r="E189" s="18"/>
-      <c r="F189" s="18"/>
-      <c r="G189" s="18"/>
-      <c r="H189" s="18"/>
+      <c r="B189" s="17"/>
+      <c r="C189" s="17"/>
+      <c r="D189" s="17"/>
+      <c r="E189" s="17"/>
+      <c r="F189" s="17"/>
+      <c r="G189" s="17"/>
+      <c r="H189" s="17"/>
     </row>
     <row r="190" spans="2:8" ht="147" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B190" s="18"/>
-      <c r="C190" s="18"/>
-      <c r="D190" s="18"/>
-      <c r="E190" s="18"/>
-      <c r="F190" s="18"/>
-      <c r="G190" s="18"/>
-      <c r="H190" s="18"/>
+      <c r="B190" s="17"/>
+      <c r="C190" s="17"/>
+      <c r="D190" s="17"/>
+      <c r="E190" s="17"/>
+      <c r="F190" s="17"/>
+      <c r="G190" s="17"/>
+      <c r="H190" s="17"/>
     </row>
     <row r="191" spans="2:8" ht="147" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B191" s="18"/>
-      <c r="C191" s="18"/>
-      <c r="D191" s="18"/>
-      <c r="E191" s="18"/>
-      <c r="F191" s="18"/>
-      <c r="G191" s="18"/>
-      <c r="H191" s="18"/>
+      <c r="B191" s="17"/>
+      <c r="C191" s="17"/>
+      <c r="D191" s="17"/>
+      <c r="E191" s="17"/>
+      <c r="F191" s="17"/>
+      <c r="G191" s="17"/>
+      <c r="H191" s="17"/>
     </row>
     <row r="192" spans="2:8" ht="147" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B192" s="18"/>
-      <c r="C192" s="18"/>
-      <c r="D192" s="18"/>
-      <c r="E192" s="18"/>
-      <c r="F192" s="18"/>
-      <c r="G192" s="18"/>
-      <c r="H192" s="18"/>
+      <c r="B192" s="17"/>
+      <c r="C192" s="17"/>
+      <c r="D192" s="17"/>
+      <c r="E192" s="17"/>
+      <c r="F192" s="17"/>
+      <c r="G192" s="17"/>
+      <c r="H192" s="17"/>
     </row>
     <row r="193" spans="2:8" ht="147" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B193" s="18"/>
-      <c r="C193" s="18"/>
-      <c r="D193" s="18"/>
-      <c r="E193" s="18"/>
-      <c r="F193" s="18"/>
-      <c r="G193" s="18"/>
-      <c r="H193" s="18"/>
+      <c r="B193" s="17"/>
+      <c r="C193" s="17"/>
+      <c r="D193" s="17"/>
+      <c r="E193" s="17"/>
+      <c r="F193" s="17"/>
+      <c r="G193" s="17"/>
+      <c r="H193" s="17"/>
     </row>
     <row r="194" spans="2:8" ht="147" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B194" s="18"/>
-      <c r="C194" s="18"/>
-      <c r="D194" s="18"/>
-      <c r="E194" s="18"/>
-      <c r="F194" s="18"/>
-      <c r="G194" s="18"/>
-      <c r="H194" s="18"/>
+      <c r="B194" s="17"/>
+      <c r="C194" s="17"/>
+      <c r="D194" s="17"/>
+      <c r="E194" s="17"/>
+      <c r="F194" s="17"/>
+      <c r="G194" s="17"/>
+      <c r="H194" s="17"/>
     </row>
     <row r="195" spans="2:8" ht="147" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B195" s="18"/>
-      <c r="C195" s="18"/>
-      <c r="D195" s="18"/>
-      <c r="E195" s="18"/>
-      <c r="F195" s="18"/>
-      <c r="G195" s="18"/>
-      <c r="H195" s="18"/>
+      <c r="B195" s="17"/>
+      <c r="C195" s="17"/>
+      <c r="D195" s="17"/>
+      <c r="E195" s="17"/>
+      <c r="F195" s="17"/>
+      <c r="G195" s="17"/>
+      <c r="H195" s="17"/>
     </row>
     <row r="196" spans="2:8" ht="147" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B196" s="18"/>
-      <c r="C196" s="18"/>
-      <c r="D196" s="18"/>
-      <c r="E196" s="18"/>
-      <c r="F196" s="18"/>
-      <c r="G196" s="18"/>
-      <c r="H196" s="18"/>
+      <c r="B196" s="17"/>
+      <c r="C196" s="17"/>
+      <c r="D196" s="17"/>
+      <c r="E196" s="17"/>
+      <c r="F196" s="17"/>
+      <c r="G196" s="17"/>
+      <c r="H196" s="17"/>
     </row>
     <row r="197" spans="2:8" ht="147" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B197" s="18"/>
-      <c r="C197" s="18"/>
-      <c r="D197" s="18"/>
-      <c r="E197" s="18"/>
-      <c r="F197" s="18"/>
-      <c r="G197" s="18"/>
-      <c r="H197" s="18"/>
+      <c r="B197" s="17"/>
+      <c r="C197" s="17"/>
+      <c r="D197" s="17"/>
+      <c r="E197" s="17"/>
+      <c r="F197" s="17"/>
+      <c r="G197" s="17"/>
+      <c r="H197" s="17"/>
     </row>
     <row r="198" spans="2:8" ht="147" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B198" s="18"/>
-      <c r="C198" s="18"/>
-      <c r="D198" s="18"/>
-      <c r="E198" s="18"/>
-      <c r="F198" s="18"/>
-      <c r="G198" s="18"/>
-      <c r="H198" s="18"/>
+      <c r="B198" s="17"/>
+      <c r="C198" s="17"/>
+      <c r="D198" s="17"/>
+      <c r="E198" s="17"/>
+      <c r="F198" s="17"/>
+      <c r="G198" s="17"/>
+      <c r="H198" s="17"/>
     </row>
     <row r="199" spans="2:8" ht="147" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B199" s="18"/>
-      <c r="C199" s="18"/>
-      <c r="D199" s="18"/>
-      <c r="E199" s="18"/>
-      <c r="F199" s="18"/>
-      <c r="G199" s="18"/>
-      <c r="H199" s="18"/>
+      <c r="B199" s="17"/>
+      <c r="C199" s="17"/>
+      <c r="D199" s="17"/>
+      <c r="E199" s="17"/>
+      <c r="F199" s="17"/>
+      <c r="G199" s="17"/>
+      <c r="H199" s="17"/>
     </row>
     <row r="200" spans="2:8" ht="147" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B200" s="18"/>
-      <c r="C200" s="18"/>
-      <c r="D200" s="18"/>
-      <c r="E200" s="18"/>
-      <c r="F200" s="18"/>
-      <c r="G200" s="18"/>
-      <c r="H200" s="18"/>
+      <c r="B200" s="17"/>
+      <c r="C200" s="17"/>
+      <c r="D200" s="17"/>
+      <c r="E200" s="17"/>
+      <c r="F200" s="17"/>
+      <c r="G200" s="17"/>
+      <c r="H200" s="17"/>
     </row>
     <row r="201" spans="2:8" ht="147" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B201" s="18"/>
-      <c r="C201" s="18"/>
-      <c r="D201" s="18"/>
-      <c r="E201" s="18"/>
-      <c r="F201" s="18"/>
-      <c r="G201" s="18"/>
-      <c r="H201" s="18"/>
+      <c r="B201" s="17"/>
+      <c r="C201" s="17"/>
+      <c r="D201" s="17"/>
+      <c r="E201" s="17"/>
+      <c r="F201" s="17"/>
+      <c r="G201" s="17"/>
+      <c r="H201" s="17"/>
     </row>
     <row r="202" spans="2:8" ht="147" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B202" s="18"/>
-      <c r="C202" s="18"/>
-      <c r="D202" s="18"/>
-      <c r="E202" s="18"/>
-      <c r="F202" s="18"/>
-      <c r="G202" s="18"/>
-      <c r="H202" s="18"/>
+      <c r="B202" s="17"/>
+      <c r="C202" s="17"/>
+      <c r="D202" s="17"/>
+      <c r="E202" s="17"/>
+      <c r="F202" s="17"/>
+      <c r="G202" s="17"/>
+      <c r="H202" s="17"/>
     </row>
     <row r="203" spans="2:8" ht="147" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B203" s="18"/>
-      <c r="C203" s="18"/>
-      <c r="D203" s="18"/>
-      <c r="E203" s="18"/>
-      <c r="F203" s="18"/>
-      <c r="G203" s="18"/>
-      <c r="H203" s="18"/>
+      <c r="B203" s="17"/>
+      <c r="C203" s="17"/>
+      <c r="D203" s="17"/>
+      <c r="E203" s="17"/>
+      <c r="F203" s="17"/>
+      <c r="G203" s="17"/>
+      <c r="H203" s="17"/>
     </row>
     <row r="204" spans="2:8" ht="147" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B204" s="18"/>
-      <c r="C204" s="18"/>
-      <c r="D204" s="18"/>
-      <c r="E204" s="18"/>
-      <c r="F204" s="18"/>
-      <c r="G204" s="18"/>
-      <c r="H204" s="18"/>
+      <c r="B204" s="17"/>
+      <c r="C204" s="17"/>
+      <c r="D204" s="17"/>
+      <c r="E204" s="17"/>
+      <c r="F204" s="17"/>
+      <c r="G204" s="17"/>
+      <c r="H204" s="17"/>
     </row>
     <row r="205" spans="2:8" ht="147" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B205" s="18"/>
-      <c r="C205" s="18"/>
-      <c r="D205" s="18"/>
-      <c r="E205" s="18"/>
-      <c r="F205" s="18"/>
-      <c r="G205" s="18"/>
-      <c r="H205" s="18"/>
+      <c r="B205" s="17"/>
+      <c r="C205" s="17"/>
+      <c r="D205" s="17"/>
+      <c r="E205" s="17"/>
+      <c r="F205" s="17"/>
+      <c r="G205" s="17"/>
+      <c r="H205" s="17"/>
     </row>
     <row r="206" spans="2:8" ht="147" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B206" s="18"/>
-      <c r="C206" s="18"/>
-      <c r="D206" s="18"/>
-      <c r="E206" s="18"/>
-      <c r="F206" s="18"/>
-      <c r="G206" s="18"/>
-      <c r="H206" s="18"/>
+      <c r="B206" s="17"/>
+      <c r="C206" s="17"/>
+      <c r="D206" s="17"/>
+      <c r="E206" s="17"/>
+      <c r="F206" s="17"/>
+      <c r="G206" s="17"/>
+      <c r="H206" s="17"/>
     </row>
     <row r="207" spans="2:8" ht="147" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B207" s="18"/>
-      <c r="C207" s="18"/>
-      <c r="D207" s="18"/>
-      <c r="E207" s="18"/>
-      <c r="F207" s="18"/>
-      <c r="G207" s="18"/>
-      <c r="H207" s="18"/>
+      <c r="B207" s="17"/>
+      <c r="C207" s="17"/>
+      <c r="D207" s="17"/>
+      <c r="E207" s="17"/>
+      <c r="F207" s="17"/>
+      <c r="G207" s="17"/>
+      <c r="H207" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="25">
+  <mergeCells count="26">
     <mergeCell ref="C30:K30"/>
     <mergeCell ref="B27:E27"/>
     <mergeCell ref="B26:E26"/>
     <mergeCell ref="B25:E25"/>
+    <mergeCell ref="C40:K40"/>
     <mergeCell ref="D39:E39"/>
     <mergeCell ref="E31:K31"/>
     <mergeCell ref="F33:K33"/>
@@ -4970,7 +5006,7 @@
       <formula>"UNDOCUMENTED"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C24 C33:C41 C47:C1002">
+  <conditionalFormatting sqref="C24 C33:C39 C47:C1002 C41">
     <cfRule type="cellIs" dxfId="23" priority="35" operator="equal">
       <formula>"PATCH"</formula>
     </cfRule>
